--- a/DCIT 55 - CS 3B/LEC AND LAB - CS 3B.xlsx
+++ b/DCIT 55 - CS 3B/LEC AND LAB - CS 3B.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="REGISTRATION" sheetId="1" r:id="rId1"/>
@@ -2245,106 +2245,36 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2385,129 +2315,112 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2548,6 +2461,93 @@
     </xf>
     <xf numFmtId="9" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2606,6 +2606,102 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2679,102 +2775,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3658,7 +3658,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3669,8 +3669,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3691,82 +3691,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="169" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="169"/>
+      <c r="M2" s="169"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="135"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
+      <c r="A3" s="169"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="169"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="164" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="164"/>
+      <c r="K4" s="164"/>
+      <c r="L4" s="164"/>
+      <c r="M4" s="164"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A5" s="126"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
+      <c r="A5" s="163"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="163"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="167"/>
-      <c r="C6" s="168" t="s">
+      <c r="A6" s="126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="127"/>
+      <c r="C6" s="128" t="s">
         <v>228</v>
       </c>
-      <c r="D6" s="168"/>
-      <c r="E6" s="169" t="s">
+      <c r="D6" s="128"/>
+      <c r="E6" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="169"/>
+      <c r="F6" s="129"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -3774,28 +3774,28 @@
         <v>2</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="170" t="s">
+      <c r="J6" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="170"/>
-      <c r="L6" s="171"/>
-      <c r="M6" s="171"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="131"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="172" t="s">
+      <c r="A7" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="173"/>
+      <c r="B7" s="133"/>
       <c r="C7" s="3" t="s">
         <v>227</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="174" t="s">
+      <c r="E7" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="174"/>
+      <c r="F7" s="134"/>
       <c r="G7" s="5">
         <v>1</v>
       </c>
@@ -3803,28 +3803,28 @@
         <v>7</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="174" t="s">
+      <c r="J7" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="174"/>
-      <c r="L7" s="175"/>
-      <c r="M7" s="175"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="135"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A8" s="154" t="s">
+      <c r="A8" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="155"/>
+      <c r="B8" s="137"/>
       <c r="C8" s="8" t="s">
         <v>159</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E8" s="156" t="s">
+      <c r="E8" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="156"/>
+      <c r="F8" s="138"/>
       <c r="G8" s="10">
         <v>3</v>
       </c>
@@ -3832,45 +3832,45 @@
         <v>11</v>
       </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="156" t="s">
+      <c r="J8" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="156"/>
-      <c r="L8" s="157"/>
-      <c r="M8" s="157"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="139"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A9" s="158" t="s">
+      <c r="A9" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="160" t="s">
+      <c r="B9" s="142" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="162" t="s">
+      <c r="C9" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="162"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="163" t="s">
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="163" t="s">
+      <c r="G9" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="165"/>
-      <c r="I9" s="165"/>
-      <c r="J9" s="149" t="s">
+      <c r="H9" s="147"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="150"/>
-      <c r="L9" s="149" t="s">
+      <c r="K9" s="149"/>
+      <c r="L9" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="150"/>
+      <c r="M9" s="149"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="159"/>
-      <c r="B10" s="161"/>
+      <c r="A10" s="141"/>
+      <c r="B10" s="143"/>
       <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
@@ -3880,14 +3880,14 @@
       <c r="E10" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="164"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="164"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="151"/>
-      <c r="K10" s="151"/>
-      <c r="L10" s="151"/>
-      <c r="M10" s="151"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="146"/>
+      <c r="J10" s="150"/>
+      <c r="K10" s="150"/>
+      <c r="L10" s="150"/>
+      <c r="M10" s="150"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="14">
@@ -3908,19 +3908,19 @@
       <c r="F11" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G11" s="142"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="144"/>
-      <c r="J11" s="152"/>
-      <c r="K11" s="153"/>
-      <c r="L11" s="142"/>
-      <c r="M11" s="144"/>
-      <c r="O11" s="136" t="s">
+      <c r="G11" s="155"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="157"/>
+      <c r="J11" s="158"/>
+      <c r="K11" s="159"/>
+      <c r="L11" s="155"/>
+      <c r="M11" s="157"/>
+      <c r="O11" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="137"/>
-      <c r="Q11" s="137"/>
-      <c r="R11" s="138"/>
+      <c r="P11" s="171"/>
+      <c r="Q11" s="171"/>
+      <c r="R11" s="172"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="14">
@@ -3941,21 +3941,21 @@
       <c r="F12" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G12" s="132"/>
-      <c r="H12" s="132"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="147"/>
-      <c r="K12" s="148"/>
-      <c r="L12" s="134"/>
-      <c r="M12" s="134"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="152"/>
+      <c r="K12" s="153"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="154"/>
       <c r="O12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="131" t="s">
+      <c r="P12" s="168" t="s">
         <v>160</v>
       </c>
-      <c r="Q12" s="131"/>
-      <c r="R12" s="131"/>
+      <c r="Q12" s="168"/>
+      <c r="R12" s="168"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="14">
@@ -3976,21 +3976,21 @@
       <c r="F13" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="148"/>
-      <c r="L13" s="134"/>
-      <c r="M13" s="134"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="152"/>
+      <c r="K13" s="153"/>
+      <c r="L13" s="154"/>
+      <c r="M13" s="154"/>
       <c r="O13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="131" t="s">
+      <c r="P13" s="168" t="s">
         <v>231</v>
       </c>
-      <c r="Q13" s="131"/>
-      <c r="R13" s="131"/>
+      <c r="Q13" s="168"/>
+      <c r="R13" s="168"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="14">
@@ -4009,21 +4009,21 @@
       <c r="F14" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="147"/>
-      <c r="K14" s="148"/>
-      <c r="L14" s="134"/>
-      <c r="M14" s="134"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="153"/>
+      <c r="L14" s="154"/>
+      <c r="M14" s="154"/>
       <c r="O14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="128" t="s">
+      <c r="P14" s="165" t="s">
         <v>161</v>
       </c>
-      <c r="Q14" s="129"/>
-      <c r="R14" s="130"/>
+      <c r="Q14" s="166"/>
+      <c r="R14" s="167"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="14">
@@ -4044,21 +4044,21 @@
       <c r="F15" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G15" s="132"/>
-      <c r="H15" s="132"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="147"/>
-      <c r="K15" s="148"/>
-      <c r="L15" s="134"/>
-      <c r="M15" s="134"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="152"/>
+      <c r="K15" s="153"/>
+      <c r="L15" s="154"/>
+      <c r="M15" s="154"/>
       <c r="O15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="128" t="s">
+      <c r="P15" s="165" t="s">
         <v>162</v>
       </c>
-      <c r="Q15" s="129"/>
-      <c r="R15" s="130"/>
+      <c r="Q15" s="166"/>
+      <c r="R15" s="167"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="14">
@@ -4079,21 +4079,21 @@
       <c r="F16" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G16" s="132"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="147"/>
-      <c r="K16" s="148"/>
-      <c r="L16" s="134"/>
-      <c r="M16" s="134"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="152"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="154"/>
+      <c r="M16" s="154"/>
       <c r="O16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="139" t="s">
+      <c r="P16" s="173" t="s">
         <v>230</v>
       </c>
-      <c r="Q16" s="140"/>
-      <c r="R16" s="141"/>
+      <c r="Q16" s="174"/>
+      <c r="R16" s="175"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="14">
@@ -4114,21 +4114,21 @@
       <c r="F17" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G17" s="132"/>
-      <c r="H17" s="132"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="147"/>
-      <c r="K17" s="148"/>
-      <c r="L17" s="134"/>
-      <c r="M17" s="134"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="152"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="154"/>
+      <c r="M17" s="154"/>
       <c r="O17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="128" t="s">
+      <c r="P17" s="165" t="s">
         <v>163</v>
       </c>
-      <c r="Q17" s="129"/>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="166"/>
+      <c r="R17" s="167"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="14">
@@ -4149,13 +4149,13 @@
       <c r="F18" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G18" s="132"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="147"/>
-      <c r="K18" s="148"/>
-      <c r="L18" s="134"/>
-      <c r="M18" s="134"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="152"/>
+      <c r="K18" s="153"/>
+      <c r="L18" s="154"/>
+      <c r="M18" s="154"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="14">
@@ -4176,13 +4176,13 @@
       <c r="F19" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="147"/>
-      <c r="K19" s="148"/>
-      <c r="L19" s="134"/>
-      <c r="M19" s="134"/>
+      <c r="G19" s="151"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="151"/>
+      <c r="J19" s="152"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="154"/>
+      <c r="M19" s="154"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="14">
@@ -4203,13 +4203,13 @@
       <c r="F20" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G20" s="132"/>
-      <c r="H20" s="132"/>
-      <c r="I20" s="132"/>
-      <c r="J20" s="147"/>
-      <c r="K20" s="148"/>
-      <c r="L20" s="134"/>
-      <c r="M20" s="134"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="154"/>
+      <c r="M20" s="154"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="14">
@@ -4230,13 +4230,13 @@
       <c r="F21" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="147"/>
-      <c r="K21" s="148"/>
-      <c r="L21" s="134"/>
-      <c r="M21" s="134"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
+      <c r="K21" s="153"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="154"/>
       <c r="P21" s="100" t="s">
         <v>143</v>
       </c>
@@ -4260,13 +4260,13 @@
       <c r="F22" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G22" s="132"/>
-      <c r="H22" s="132"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="147"/>
-      <c r="K22" s="148"/>
-      <c r="L22" s="134"/>
-      <c r="M22" s="134"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="152"/>
+      <c r="K22" s="153"/>
+      <c r="L22" s="154"/>
+      <c r="M22" s="154"/>
       <c r="P22" s="101">
         <v>0</v>
       </c>
@@ -4293,13 +4293,13 @@
       <c r="F23" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G23" s="132"/>
-      <c r="H23" s="132"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="147"/>
-      <c r="K23" s="148"/>
-      <c r="L23" s="134"/>
-      <c r="M23" s="134"/>
+      <c r="G23" s="151"/>
+      <c r="H23" s="151"/>
+      <c r="I23" s="151"/>
+      <c r="J23" s="152"/>
+      <c r="K23" s="153"/>
+      <c r="L23" s="154"/>
+      <c r="M23" s="154"/>
       <c r="P23" s="102">
         <v>70</v>
       </c>
@@ -4326,13 +4326,13 @@
       <c r="F24" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G24" s="132"/>
-      <c r="H24" s="132"/>
-      <c r="I24" s="132"/>
-      <c r="J24" s="147"/>
-      <c r="K24" s="148"/>
-      <c r="L24" s="134"/>
-      <c r="M24" s="134"/>
+      <c r="G24" s="151"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="152"/>
+      <c r="K24" s="153"/>
+      <c r="L24" s="154"/>
+      <c r="M24" s="154"/>
       <c r="P24" s="102">
         <v>73.34</v>
       </c>
@@ -4359,13 +4359,13 @@
       <c r="F25" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G25" s="132"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="132"/>
-      <c r="J25" s="147"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="134"/>
-      <c r="M25" s="134"/>
+      <c r="G25" s="151"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="151"/>
+      <c r="J25" s="152"/>
+      <c r="K25" s="153"/>
+      <c r="L25" s="154"/>
+      <c r="M25" s="154"/>
       <c r="P25" s="102">
         <v>76.680000000000007</v>
       </c>
@@ -4392,13 +4392,13 @@
       <c r="F26" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G26" s="132"/>
-      <c r="H26" s="132"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="147"/>
-      <c r="K26" s="148"/>
-      <c r="L26" s="134"/>
-      <c r="M26" s="134"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="151"/>
+      <c r="J26" s="152"/>
+      <c r="K26" s="153"/>
+      <c r="L26" s="154"/>
+      <c r="M26" s="154"/>
       <c r="P26" s="102">
         <v>80.02</v>
       </c>
@@ -4425,13 +4425,13 @@
       <c r="F27" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G27" s="132"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="147"/>
-      <c r="K27" s="148"/>
-      <c r="L27" s="134"/>
-      <c r="M27" s="134"/>
+      <c r="G27" s="151"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="151"/>
+      <c r="J27" s="152"/>
+      <c r="K27" s="153"/>
+      <c r="L27" s="154"/>
+      <c r="M27" s="154"/>
       <c r="P27" s="102">
         <v>83.36</v>
       </c>
@@ -4458,13 +4458,13 @@
       <c r="F28" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G28" s="142"/>
-      <c r="H28" s="143"/>
-      <c r="I28" s="144"/>
-      <c r="J28" s="145"/>
-      <c r="K28" s="146"/>
-      <c r="L28" s="134"/>
-      <c r="M28" s="134"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="157"/>
+      <c r="J28" s="160"/>
+      <c r="K28" s="161"/>
+      <c r="L28" s="154"/>
+      <c r="M28" s="154"/>
       <c r="P28" s="102">
         <v>86.7</v>
       </c>
@@ -4491,13 +4491,13 @@
       <c r="F29" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G29" s="142"/>
-      <c r="H29" s="143"/>
-      <c r="I29" s="144"/>
-      <c r="J29" s="145"/>
-      <c r="K29" s="146"/>
-      <c r="L29" s="134"/>
-      <c r="M29" s="134"/>
+      <c r="G29" s="155"/>
+      <c r="H29" s="156"/>
+      <c r="I29" s="157"/>
+      <c r="J29" s="160"/>
+      <c r="K29" s="161"/>
+      <c r="L29" s="154"/>
+      <c r="M29" s="154"/>
       <c r="P29" s="102">
         <v>90.04</v>
       </c>
@@ -4524,13 +4524,13 @@
       <c r="F30" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G30" s="142"/>
-      <c r="H30" s="143"/>
-      <c r="I30" s="144"/>
-      <c r="J30" s="145"/>
-      <c r="K30" s="146"/>
-      <c r="L30" s="134"/>
-      <c r="M30" s="134"/>
+      <c r="G30" s="155"/>
+      <c r="H30" s="156"/>
+      <c r="I30" s="157"/>
+      <c r="J30" s="160"/>
+      <c r="K30" s="161"/>
+      <c r="L30" s="154"/>
+      <c r="M30" s="154"/>
       <c r="P30" s="102">
         <v>93.38</v>
       </c>
@@ -4557,13 +4557,13 @@
       <c r="F31" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G31" s="142"/>
-      <c r="H31" s="143"/>
-      <c r="I31" s="144"/>
-      <c r="J31" s="145"/>
-      <c r="K31" s="146"/>
-      <c r="L31" s="134"/>
-      <c r="M31" s="134"/>
+      <c r="G31" s="155"/>
+      <c r="H31" s="156"/>
+      <c r="I31" s="157"/>
+      <c r="J31" s="160"/>
+      <c r="K31" s="161"/>
+      <c r="L31" s="154"/>
+      <c r="M31" s="154"/>
       <c r="P31" s="101"/>
       <c r="Q31" s="101"/>
     </row>
@@ -4578,13 +4578,13 @@
       <c r="F32" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G32" s="142"/>
-      <c r="H32" s="143"/>
-      <c r="I32" s="144"/>
-      <c r="J32" s="145"/>
-      <c r="K32" s="146"/>
-      <c r="L32" s="134"/>
-      <c r="M32" s="134"/>
+      <c r="G32" s="155"/>
+      <c r="H32" s="156"/>
+      <c r="I32" s="157"/>
+      <c r="J32" s="160"/>
+      <c r="K32" s="161"/>
+      <c r="L32" s="154"/>
+      <c r="M32" s="154"/>
       <c r="P32" s="101">
         <v>96.72</v>
       </c>
@@ -4603,13 +4603,13 @@
       <c r="F33" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G33" s="142"/>
-      <c r="H33" s="143"/>
-      <c r="I33" s="144"/>
-      <c r="J33" s="145"/>
-      <c r="K33" s="146"/>
-      <c r="L33" s="134"/>
-      <c r="M33" s="134"/>
+      <c r="G33" s="155"/>
+      <c r="H33" s="156"/>
+      <c r="I33" s="157"/>
+      <c r="J33" s="160"/>
+      <c r="K33" s="161"/>
+      <c r="L33" s="154"/>
+      <c r="M33" s="154"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="14">
@@ -4622,13 +4622,13 @@
       <c r="F34" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G34" s="142"/>
-      <c r="H34" s="143"/>
-      <c r="I34" s="144"/>
-      <c r="J34" s="145"/>
-      <c r="K34" s="146"/>
-      <c r="L34" s="134"/>
-      <c r="M34" s="134"/>
+      <c r="G34" s="155"/>
+      <c r="H34" s="156"/>
+      <c r="I34" s="157"/>
+      <c r="J34" s="160"/>
+      <c r="K34" s="161"/>
+      <c r="L34" s="154"/>
+      <c r="M34" s="154"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="14">
@@ -4639,13 +4639,13 @@
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
       <c r="F35" s="16"/>
-      <c r="G35" s="142"/>
-      <c r="H35" s="143"/>
-      <c r="I35" s="144"/>
-      <c r="J35" s="145"/>
-      <c r="K35" s="146"/>
-      <c r="L35" s="134"/>
-      <c r="M35" s="134"/>
+      <c r="G35" s="155"/>
+      <c r="H35" s="156"/>
+      <c r="I35" s="157"/>
+      <c r="J35" s="160"/>
+      <c r="K35" s="161"/>
+      <c r="L35" s="154"/>
+      <c r="M35" s="154"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="14">
@@ -4656,13 +4656,13 @@
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="16"/>
-      <c r="G36" s="142"/>
-      <c r="H36" s="143"/>
-      <c r="I36" s="144"/>
-      <c r="J36" s="145"/>
-      <c r="K36" s="146"/>
-      <c r="L36" s="134"/>
-      <c r="M36" s="134"/>
+      <c r="G36" s="155"/>
+      <c r="H36" s="156"/>
+      <c r="I36" s="157"/>
+      <c r="J36" s="160"/>
+      <c r="K36" s="161"/>
+      <c r="L36" s="154"/>
+      <c r="M36" s="154"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="14">
@@ -4673,13 +4673,13 @@
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="16"/>
-      <c r="G37" s="132"/>
-      <c r="H37" s="132"/>
-      <c r="I37" s="132"/>
-      <c r="J37" s="133"/>
-      <c r="K37" s="133"/>
-      <c r="L37" s="134"/>
-      <c r="M37" s="134"/>
+      <c r="G37" s="151"/>
+      <c r="H37" s="151"/>
+      <c r="I37" s="151"/>
+      <c r="J37" s="162"/>
+      <c r="K37" s="162"/>
+      <c r="L37" s="154"/>
+      <c r="M37" s="154"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="14">
@@ -4690,13 +4690,13 @@
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="16"/>
-      <c r="G38" s="132"/>
-      <c r="H38" s="132"/>
-      <c r="I38" s="132"/>
-      <c r="J38" s="133"/>
-      <c r="K38" s="133"/>
-      <c r="L38" s="134"/>
-      <c r="M38" s="134"/>
+      <c r="G38" s="151"/>
+      <c r="H38" s="151"/>
+      <c r="I38" s="151"/>
+      <c r="J38" s="162"/>
+      <c r="K38" s="162"/>
+      <c r="L38" s="154"/>
+      <c r="M38" s="154"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="14">
@@ -4707,13 +4707,13 @@
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
       <c r="F39" s="16"/>
-      <c r="G39" s="132"/>
-      <c r="H39" s="132"/>
-      <c r="I39" s="132"/>
-      <c r="J39" s="133"/>
-      <c r="K39" s="133"/>
-      <c r="L39" s="134"/>
-      <c r="M39" s="134"/>
+      <c r="G39" s="151"/>
+      <c r="H39" s="151"/>
+      <c r="I39" s="151"/>
+      <c r="J39" s="162"/>
+      <c r="K39" s="162"/>
+      <c r="L39" s="154"/>
+      <c r="M39" s="154"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="14">
@@ -4724,13 +4724,13 @@
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="132"/>
-      <c r="H40" s="132"/>
-      <c r="I40" s="132"/>
-      <c r="J40" s="133"/>
-      <c r="K40" s="133"/>
-      <c r="L40" s="134"/>
-      <c r="M40" s="134"/>
+      <c r="G40" s="151"/>
+      <c r="H40" s="151"/>
+      <c r="I40" s="151"/>
+      <c r="J40" s="162"/>
+      <c r="K40" s="162"/>
+      <c r="L40" s="154"/>
+      <c r="M40" s="154"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="14">
@@ -4741,13 +4741,13 @@
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="132"/>
-      <c r="H41" s="132"/>
-      <c r="I41" s="132"/>
-      <c r="J41" s="133"/>
-      <c r="K41" s="133"/>
-      <c r="L41" s="134"/>
-      <c r="M41" s="134"/>
+      <c r="G41" s="151"/>
+      <c r="H41" s="151"/>
+      <c r="I41" s="151"/>
+      <c r="J41" s="162"/>
+      <c r="K41" s="162"/>
+      <c r="L41" s="154"/>
+      <c r="M41" s="154"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="14">
@@ -4758,13 +4758,13 @@
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="132"/>
-      <c r="H42" s="132"/>
-      <c r="I42" s="132"/>
-      <c r="J42" s="133"/>
-      <c r="K42" s="133"/>
-      <c r="L42" s="134"/>
-      <c r="M42" s="134"/>
+      <c r="G42" s="151"/>
+      <c r="H42" s="151"/>
+      <c r="I42" s="151"/>
+      <c r="J42" s="162"/>
+      <c r="K42" s="162"/>
+      <c r="L42" s="154"/>
+      <c r="M42" s="154"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="14">
@@ -4775,13 +4775,13 @@
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="132"/>
-      <c r="H43" s="132"/>
-      <c r="I43" s="132"/>
-      <c r="J43" s="133"/>
-      <c r="K43" s="133"/>
-      <c r="L43" s="134"/>
-      <c r="M43" s="134"/>
+      <c r="G43" s="151"/>
+      <c r="H43" s="151"/>
+      <c r="I43" s="151"/>
+      <c r="J43" s="162"/>
+      <c r="K43" s="162"/>
+      <c r="L43" s="154"/>
+      <c r="M43" s="154"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="14">
@@ -4792,13 +4792,13 @@
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="132"/>
-      <c r="H44" s="132"/>
-      <c r="I44" s="132"/>
-      <c r="J44" s="133"/>
-      <c r="K44" s="133"/>
-      <c r="L44" s="134"/>
-      <c r="M44" s="134"/>
+      <c r="G44" s="151"/>
+      <c r="H44" s="151"/>
+      <c r="I44" s="151"/>
+      <c r="J44" s="162"/>
+      <c r="K44" s="162"/>
+      <c r="L44" s="154"/>
+      <c r="M44" s="154"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="14">
@@ -4809,13 +4809,13 @@
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="16"/>
-      <c r="G45" s="132"/>
-      <c r="H45" s="132"/>
-      <c r="I45" s="132"/>
-      <c r="J45" s="133"/>
-      <c r="K45" s="133"/>
-      <c r="L45" s="134"/>
-      <c r="M45" s="134"/>
+      <c r="G45" s="151"/>
+      <c r="H45" s="151"/>
+      <c r="I45" s="151"/>
+      <c r="J45" s="162"/>
+      <c r="K45" s="162"/>
+      <c r="L45" s="154"/>
+      <c r="M45" s="154"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="14">
@@ -4826,13 +4826,13 @@
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="132"/>
-      <c r="H46" s="132"/>
-      <c r="I46" s="132"/>
-      <c r="J46" s="133"/>
-      <c r="K46" s="133"/>
-      <c r="L46" s="134"/>
-      <c r="M46" s="134"/>
+      <c r="G46" s="151"/>
+      <c r="H46" s="151"/>
+      <c r="I46" s="151"/>
+      <c r="J46" s="162"/>
+      <c r="K46" s="162"/>
+      <c r="L46" s="154"/>
+      <c r="M46" s="154"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="14">
@@ -4843,13 +4843,13 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="132"/>
-      <c r="H47" s="132"/>
-      <c r="I47" s="132"/>
-      <c r="J47" s="133"/>
-      <c r="K47" s="133"/>
-      <c r="L47" s="134"/>
-      <c r="M47" s="134"/>
+      <c r="G47" s="151"/>
+      <c r="H47" s="151"/>
+      <c r="I47" s="151"/>
+      <c r="J47" s="162"/>
+      <c r="K47" s="162"/>
+      <c r="L47" s="154"/>
+      <c r="M47" s="154"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="14">
@@ -4860,13 +4860,13 @@
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="132"/>
-      <c r="H48" s="132"/>
-      <c r="I48" s="132"/>
-      <c r="J48" s="133"/>
-      <c r="K48" s="133"/>
-      <c r="L48" s="134"/>
-      <c r="M48" s="134"/>
+      <c r="G48" s="151"/>
+      <c r="H48" s="151"/>
+      <c r="I48" s="151"/>
+      <c r="J48" s="162"/>
+      <c r="K48" s="162"/>
+      <c r="L48" s="154"/>
+      <c r="M48" s="154"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="14">
@@ -4877,13 +4877,13 @@
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="16"/>
-      <c r="G49" s="132"/>
-      <c r="H49" s="132"/>
-      <c r="I49" s="132"/>
-      <c r="J49" s="133"/>
-      <c r="K49" s="133"/>
-      <c r="L49" s="134"/>
-      <c r="M49" s="134"/>
+      <c r="G49" s="151"/>
+      <c r="H49" s="151"/>
+      <c r="I49" s="151"/>
+      <c r="J49" s="162"/>
+      <c r="K49" s="162"/>
+      <c r="L49" s="154"/>
+      <c r="M49" s="154"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="14">
@@ -4894,13 +4894,13 @@
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="16"/>
-      <c r="G50" s="132"/>
-      <c r="H50" s="132"/>
-      <c r="I50" s="132"/>
-      <c r="J50" s="133"/>
-      <c r="K50" s="133"/>
-      <c r="L50" s="134"/>
-      <c r="M50" s="134"/>
+      <c r="G50" s="151"/>
+      <c r="H50" s="151"/>
+      <c r="I50" s="151"/>
+      <c r="J50" s="162"/>
+      <c r="K50" s="162"/>
+      <c r="L50" s="154"/>
+      <c r="M50" s="154"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="14">
@@ -4911,13 +4911,13 @@
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="16"/>
-      <c r="G51" s="132"/>
-      <c r="H51" s="132"/>
-      <c r="I51" s="132"/>
-      <c r="J51" s="133"/>
-      <c r="K51" s="133"/>
-      <c r="L51" s="134"/>
-      <c r="M51" s="134"/>
+      <c r="G51" s="151"/>
+      <c r="H51" s="151"/>
+      <c r="I51" s="151"/>
+      <c r="J51" s="162"/>
+      <c r="K51" s="162"/>
+      <c r="L51" s="154"/>
+      <c r="M51" s="154"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="14">
@@ -4928,13 +4928,13 @@
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="132"/>
-      <c r="H52" s="132"/>
-      <c r="I52" s="132"/>
-      <c r="J52" s="133"/>
-      <c r="K52" s="133"/>
-      <c r="L52" s="134"/>
-      <c r="M52" s="134"/>
+      <c r="G52" s="151"/>
+      <c r="H52" s="151"/>
+      <c r="I52" s="151"/>
+      <c r="J52" s="162"/>
+      <c r="K52" s="162"/>
+      <c r="L52" s="154"/>
+      <c r="M52" s="154"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="14">
@@ -4945,13 +4945,13 @@
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="132"/>
-      <c r="H53" s="132"/>
-      <c r="I53" s="132"/>
-      <c r="J53" s="133"/>
-      <c r="K53" s="133"/>
-      <c r="L53" s="134"/>
-      <c r="M53" s="134"/>
+      <c r="G53" s="151"/>
+      <c r="H53" s="151"/>
+      <c r="I53" s="151"/>
+      <c r="J53" s="162"/>
+      <c r="K53" s="162"/>
+      <c r="L53" s="154"/>
+      <c r="M53" s="154"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="14">
@@ -4962,13 +4962,13 @@
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="16"/>
-      <c r="G54" s="132"/>
-      <c r="H54" s="132"/>
-      <c r="I54" s="132"/>
-      <c r="J54" s="133"/>
-      <c r="K54" s="133"/>
-      <c r="L54" s="134"/>
-      <c r="M54" s="134"/>
+      <c r="G54" s="151"/>
+      <c r="H54" s="151"/>
+      <c r="I54" s="151"/>
+      <c r="J54" s="162"/>
+      <c r="K54" s="162"/>
+      <c r="L54" s="154"/>
+      <c r="M54" s="154"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="14">
@@ -4979,13 +4979,13 @@
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="16"/>
-      <c r="G55" s="132"/>
-      <c r="H55" s="132"/>
-      <c r="I55" s="132"/>
-      <c r="J55" s="133"/>
-      <c r="K55" s="133"/>
-      <c r="L55" s="134"/>
-      <c r="M55" s="134"/>
+      <c r="G55" s="151"/>
+      <c r="H55" s="151"/>
+      <c r="I55" s="151"/>
+      <c r="J55" s="162"/>
+      <c r="K55" s="162"/>
+      <c r="L55" s="154"/>
+      <c r="M55" s="154"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="14">
@@ -4996,13 +4996,13 @@
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="F56" s="16"/>
-      <c r="G56" s="132"/>
-      <c r="H56" s="132"/>
-      <c r="I56" s="132"/>
-      <c r="J56" s="133"/>
-      <c r="K56" s="133"/>
-      <c r="L56" s="134"/>
-      <c r="M56" s="134"/>
+      <c r="G56" s="151"/>
+      <c r="H56" s="151"/>
+      <c r="I56" s="151"/>
+      <c r="J56" s="162"/>
+      <c r="K56" s="162"/>
+      <c r="L56" s="154"/>
+      <c r="M56" s="154"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="14">
@@ -5013,13 +5013,13 @@
       <c r="D57" s="90"/>
       <c r="E57" s="90"/>
       <c r="F57" s="16"/>
-      <c r="G57" s="132"/>
-      <c r="H57" s="132"/>
-      <c r="I57" s="132"/>
-      <c r="J57" s="133"/>
-      <c r="K57" s="133"/>
-      <c r="L57" s="134"/>
-      <c r="M57" s="134"/>
+      <c r="G57" s="151"/>
+      <c r="H57" s="151"/>
+      <c r="I57" s="151"/>
+      <c r="J57" s="162"/>
+      <c r="K57" s="162"/>
+      <c r="L57" s="154"/>
+      <c r="M57" s="154"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="14">
@@ -5030,13 +5030,13 @@
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="16"/>
-      <c r="G58" s="132"/>
-      <c r="H58" s="132"/>
-      <c r="I58" s="132"/>
-      <c r="J58" s="133"/>
-      <c r="K58" s="133"/>
-      <c r="L58" s="134"/>
-      <c r="M58" s="134"/>
+      <c r="G58" s="151"/>
+      <c r="H58" s="151"/>
+      <c r="I58" s="151"/>
+      <c r="J58" s="162"/>
+      <c r="K58" s="162"/>
+      <c r="L58" s="154"/>
+      <c r="M58" s="154"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="14">
@@ -5047,13 +5047,13 @@
       <c r="D59" s="90"/>
       <c r="E59" s="90"/>
       <c r="F59" s="16"/>
-      <c r="G59" s="132"/>
-      <c r="H59" s="132"/>
-      <c r="I59" s="132"/>
-      <c r="J59" s="133"/>
-      <c r="K59" s="133"/>
-      <c r="L59" s="134"/>
-      <c r="M59" s="134"/>
+      <c r="G59" s="151"/>
+      <c r="H59" s="151"/>
+      <c r="I59" s="151"/>
+      <c r="J59" s="162"/>
+      <c r="K59" s="162"/>
+      <c r="L59" s="154"/>
+      <c r="M59" s="154"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="14">
@@ -5064,13 +5064,13 @@
       <c r="D60" s="90"/>
       <c r="E60" s="90"/>
       <c r="F60" s="16"/>
-      <c r="G60" s="132"/>
-      <c r="H60" s="132"/>
-      <c r="I60" s="132"/>
-      <c r="J60" s="133"/>
-      <c r="K60" s="133"/>
-      <c r="L60" s="134"/>
-      <c r="M60" s="134"/>
+      <c r="G60" s="151"/>
+      <c r="H60" s="151"/>
+      <c r="I60" s="151"/>
+      <c r="J60" s="162"/>
+      <c r="K60" s="162"/>
+      <c r="L60" s="154"/>
+      <c r="M60" s="154"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="14">
@@ -5081,13 +5081,13 @@
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="16"/>
-      <c r="G61" s="132"/>
-      <c r="H61" s="132"/>
-      <c r="I61" s="132"/>
-      <c r="J61" s="133"/>
-      <c r="K61" s="133"/>
-      <c r="L61" s="134"/>
-      <c r="M61" s="134"/>
+      <c r="G61" s="151"/>
+      <c r="H61" s="151"/>
+      <c r="I61" s="151"/>
+      <c r="J61" s="162"/>
+      <c r="K61" s="162"/>
+      <c r="L61" s="154"/>
+      <c r="M61" s="154"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="14">
@@ -5098,13 +5098,13 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="16"/>
-      <c r="G62" s="132"/>
-      <c r="H62" s="132"/>
-      <c r="I62" s="132"/>
-      <c r="J62" s="133"/>
-      <c r="K62" s="133"/>
-      <c r="L62" s="134"/>
-      <c r="M62" s="134"/>
+      <c r="G62" s="151"/>
+      <c r="H62" s="151"/>
+      <c r="I62" s="151"/>
+      <c r="J62" s="162"/>
+      <c r="K62" s="162"/>
+      <c r="L62" s="154"/>
+      <c r="M62" s="154"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="14">
@@ -5115,13 +5115,13 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="16"/>
-      <c r="G63" s="132"/>
-      <c r="H63" s="132"/>
-      <c r="I63" s="132"/>
-      <c r="J63" s="133"/>
-      <c r="K63" s="133"/>
-      <c r="L63" s="134"/>
-      <c r="M63" s="134"/>
+      <c r="G63" s="151"/>
+      <c r="H63" s="151"/>
+      <c r="I63" s="151"/>
+      <c r="J63" s="162"/>
+      <c r="K63" s="162"/>
+      <c r="L63" s="154"/>
+      <c r="M63" s="154"/>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="14">
@@ -5132,13 +5132,13 @@
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="16"/>
-      <c r="G64" s="132"/>
-      <c r="H64" s="132"/>
-      <c r="I64" s="132"/>
-      <c r="J64" s="133"/>
-      <c r="K64" s="133"/>
-      <c r="L64" s="134"/>
-      <c r="M64" s="134"/>
+      <c r="G64" s="151"/>
+      <c r="H64" s="151"/>
+      <c r="I64" s="151"/>
+      <c r="J64" s="162"/>
+      <c r="K64" s="162"/>
+      <c r="L64" s="154"/>
+      <c r="M64" s="154"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="14">
@@ -5149,13 +5149,13 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="16"/>
-      <c r="G65" s="132"/>
-      <c r="H65" s="132"/>
-      <c r="I65" s="132"/>
-      <c r="J65" s="133"/>
-      <c r="K65" s="133"/>
-      <c r="L65" s="134"/>
-      <c r="M65" s="134"/>
+      <c r="G65" s="151"/>
+      <c r="H65" s="151"/>
+      <c r="I65" s="151"/>
+      <c r="J65" s="162"/>
+      <c r="K65" s="162"/>
+      <c r="L65" s="154"/>
+      <c r="M65" s="154"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="14">
@@ -5166,13 +5166,13 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="16"/>
-      <c r="G66" s="132"/>
-      <c r="H66" s="132"/>
-      <c r="I66" s="132"/>
-      <c r="J66" s="133"/>
-      <c r="K66" s="133"/>
-      <c r="L66" s="134"/>
-      <c r="M66" s="134"/>
+      <c r="G66" s="151"/>
+      <c r="H66" s="151"/>
+      <c r="I66" s="151"/>
+      <c r="J66" s="162"/>
+      <c r="K66" s="162"/>
+      <c r="L66" s="154"/>
+      <c r="M66" s="154"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="14">
@@ -5183,13 +5183,13 @@
       <c r="D67" s="15"/>
       <c r="E67" s="90"/>
       <c r="F67" s="16"/>
-      <c r="G67" s="132"/>
-      <c r="H67" s="132"/>
-      <c r="I67" s="132"/>
-      <c r="J67" s="133"/>
-      <c r="K67" s="133"/>
-      <c r="L67" s="134"/>
-      <c r="M67" s="134"/>
+      <c r="G67" s="151"/>
+      <c r="H67" s="151"/>
+      <c r="I67" s="151"/>
+      <c r="J67" s="162"/>
+      <c r="K67" s="162"/>
+      <c r="L67" s="154"/>
+      <c r="M67" s="154"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="14">
@@ -5200,13 +5200,13 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="16"/>
-      <c r="G68" s="132"/>
-      <c r="H68" s="132"/>
-      <c r="I68" s="132"/>
-      <c r="J68" s="133"/>
-      <c r="K68" s="133"/>
-      <c r="L68" s="134"/>
-      <c r="M68" s="134"/>
+      <c r="G68" s="151"/>
+      <c r="H68" s="151"/>
+      <c r="I68" s="151"/>
+      <c r="J68" s="162"/>
+      <c r="K68" s="162"/>
+      <c r="L68" s="154"/>
+      <c r="M68" s="154"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="14">
@@ -5217,13 +5217,13 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="16"/>
-      <c r="G69" s="132"/>
-      <c r="H69" s="132"/>
-      <c r="I69" s="132"/>
-      <c r="J69" s="133"/>
-      <c r="K69" s="133"/>
-      <c r="L69" s="134"/>
-      <c r="M69" s="134"/>
+      <c r="G69" s="151"/>
+      <c r="H69" s="151"/>
+      <c r="I69" s="151"/>
+      <c r="J69" s="162"/>
+      <c r="K69" s="162"/>
+      <c r="L69" s="154"/>
+      <c r="M69" s="154"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="14">
@@ -5234,13 +5234,13 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="16"/>
-      <c r="G70" s="132"/>
-      <c r="H70" s="132"/>
-      <c r="I70" s="132"/>
-      <c r="J70" s="133"/>
-      <c r="K70" s="133"/>
-      <c r="L70" s="134"/>
-      <c r="M70" s="134"/>
+      <c r="G70" s="151"/>
+      <c r="H70" s="151"/>
+      <c r="I70" s="151"/>
+      <c r="J70" s="162"/>
+      <c r="K70" s="162"/>
+      <c r="L70" s="154"/>
+      <c r="M70" s="154"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="14">
@@ -5251,13 +5251,13 @@
       <c r="D71" s="90"/>
       <c r="E71" s="90"/>
       <c r="F71" s="16"/>
-      <c r="G71" s="132"/>
-      <c r="H71" s="132"/>
-      <c r="I71" s="132"/>
-      <c r="J71" s="133"/>
-      <c r="K71" s="133"/>
-      <c r="L71" s="134"/>
-      <c r="M71" s="134"/>
+      <c r="G71" s="151"/>
+      <c r="H71" s="151"/>
+      <c r="I71" s="151"/>
+      <c r="J71" s="162"/>
+      <c r="K71" s="162"/>
+      <c r="L71" s="154"/>
+      <c r="M71" s="154"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -5265,195 +5265,6 @@
     <sortCondition ref="C11:C33"/>
   </sortState>
   <mergeCells count="213">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:I10"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="P15:R15"/>
@@ -5478,6 +5289,195 @@
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="G68:I68"/>
     <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:I10"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <conditionalFormatting sqref="B23:B71">
     <cfRule type="cellIs" dxfId="46" priority="51" stopIfTrue="1" operator="equal">
@@ -5718,9 +5718,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="CS1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CS30" sqref="CS30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5734,452 +5734,452 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:99" ht="15" customHeight="1">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="169" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="135"/>
-      <c r="U2" s="135"/>
-      <c r="V2" s="135"/>
-      <c r="W2" s="135"/>
-      <c r="X2" s="135"/>
-      <c r="Y2" s="135"/>
-      <c r="Z2" s="135"/>
-      <c r="AA2" s="135"/>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="135"/>
-      <c r="AH2" s="135"/>
-      <c r="AI2" s="135"/>
-      <c r="AJ2" s="135"/>
-      <c r="AK2" s="135"/>
-      <c r="AL2" s="135"/>
-      <c r="AM2" s="135"/>
-      <c r="AN2" s="135"/>
-      <c r="AO2" s="135"/>
-      <c r="AP2" s="135"/>
-      <c r="AQ2" s="135"/>
-      <c r="AR2" s="135"/>
-      <c r="AS2" s="135"/>
-      <c r="AT2" s="135"/>
-      <c r="AU2" s="135"/>
-      <c r="AV2" s="135"/>
-      <c r="AW2" s="135"/>
-      <c r="AX2" s="135"/>
-      <c r="AY2" s="135"/>
-      <c r="AZ2" s="135"/>
-      <c r="BA2" s="135"/>
-      <c r="BB2" s="135"/>
-      <c r="BC2" s="135"/>
-      <c r="BD2" s="135"/>
-      <c r="BE2" s="135"/>
-      <c r="BF2" s="135"/>
-      <c r="BG2" s="135"/>
-      <c r="BH2" s="135"/>
-      <c r="BI2" s="135"/>
-      <c r="BJ2" s="135"/>
-      <c r="BK2" s="135"/>
-      <c r="BL2" s="135"/>
-      <c r="BM2" s="135"/>
-      <c r="BN2" s="135"/>
-      <c r="BO2" s="135"/>
-      <c r="BP2" s="135"/>
-      <c r="BQ2" s="135"/>
-      <c r="BR2" s="135"/>
-      <c r="BS2" s="135"/>
-      <c r="BT2" s="135"/>
-      <c r="BU2" s="135"/>
-      <c r="BV2" s="135"/>
-      <c r="BW2" s="135"/>
-      <c r="BX2" s="135"/>
-      <c r="BY2" s="135"/>
-      <c r="BZ2" s="135"/>
-      <c r="CA2" s="135"/>
-      <c r="CB2" s="135"/>
-      <c r="CC2" s="135"/>
-      <c r="CD2" s="135"/>
-      <c r="CE2" s="135"/>
-      <c r="CF2" s="135"/>
-      <c r="CG2" s="135"/>
-      <c r="CH2" s="135"/>
-      <c r="CI2" s="135"/>
-      <c r="CJ2" s="135"/>
-      <c r="CK2" s="135"/>
-      <c r="CL2" s="135"/>
-      <c r="CM2" s="135"/>
-      <c r="CN2" s="135"/>
-      <c r="CO2" s="135"/>
-      <c r="CP2" s="135"/>
-      <c r="CQ2" s="135"/>
-      <c r="CR2" s="135"/>
-      <c r="CS2" s="135"/>
-      <c r="CT2" s="135"/>
-      <c r="CU2" s="135"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="169"/>
+      <c r="M2" s="169"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="169"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="169"/>
+      <c r="T2" s="169"/>
+      <c r="U2" s="169"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="169"/>
+      <c r="X2" s="169"/>
+      <c r="Y2" s="169"/>
+      <c r="Z2" s="169"/>
+      <c r="AA2" s="169"/>
+      <c r="AB2" s="169"/>
+      <c r="AC2" s="169"/>
+      <c r="AD2" s="169"/>
+      <c r="AE2" s="169"/>
+      <c r="AF2" s="169"/>
+      <c r="AG2" s="169"/>
+      <c r="AH2" s="169"/>
+      <c r="AI2" s="169"/>
+      <c r="AJ2" s="169"/>
+      <c r="AK2" s="169"/>
+      <c r="AL2" s="169"/>
+      <c r="AM2" s="169"/>
+      <c r="AN2" s="169"/>
+      <c r="AO2" s="169"/>
+      <c r="AP2" s="169"/>
+      <c r="AQ2" s="169"/>
+      <c r="AR2" s="169"/>
+      <c r="AS2" s="169"/>
+      <c r="AT2" s="169"/>
+      <c r="AU2" s="169"/>
+      <c r="AV2" s="169"/>
+      <c r="AW2" s="169"/>
+      <c r="AX2" s="169"/>
+      <c r="AY2" s="169"/>
+      <c r="AZ2" s="169"/>
+      <c r="BA2" s="169"/>
+      <c r="BB2" s="169"/>
+      <c r="BC2" s="169"/>
+      <c r="BD2" s="169"/>
+      <c r="BE2" s="169"/>
+      <c r="BF2" s="169"/>
+      <c r="BG2" s="169"/>
+      <c r="BH2" s="169"/>
+      <c r="BI2" s="169"/>
+      <c r="BJ2" s="169"/>
+      <c r="BK2" s="169"/>
+      <c r="BL2" s="169"/>
+      <c r="BM2" s="169"/>
+      <c r="BN2" s="169"/>
+      <c r="BO2" s="169"/>
+      <c r="BP2" s="169"/>
+      <c r="BQ2" s="169"/>
+      <c r="BR2" s="169"/>
+      <c r="BS2" s="169"/>
+      <c r="BT2" s="169"/>
+      <c r="BU2" s="169"/>
+      <c r="BV2" s="169"/>
+      <c r="BW2" s="169"/>
+      <c r="BX2" s="169"/>
+      <c r="BY2" s="169"/>
+      <c r="BZ2" s="169"/>
+      <c r="CA2" s="169"/>
+      <c r="CB2" s="169"/>
+      <c r="CC2" s="169"/>
+      <c r="CD2" s="169"/>
+      <c r="CE2" s="169"/>
+      <c r="CF2" s="169"/>
+      <c r="CG2" s="169"/>
+      <c r="CH2" s="169"/>
+      <c r="CI2" s="169"/>
+      <c r="CJ2" s="169"/>
+      <c r="CK2" s="169"/>
+      <c r="CL2" s="169"/>
+      <c r="CM2" s="169"/>
+      <c r="CN2" s="169"/>
+      <c r="CO2" s="169"/>
+      <c r="CP2" s="169"/>
+      <c r="CQ2" s="169"/>
+      <c r="CR2" s="169"/>
+      <c r="CS2" s="169"/>
+      <c r="CT2" s="169"/>
+      <c r="CU2" s="169"/>
     </row>
     <row r="3" spans="1:99" ht="15" customHeight="1">
-      <c r="A3" s="135"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="135"/>
-      <c r="O3" s="135"/>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="135"/>
-      <c r="R3" s="135"/>
-      <c r="S3" s="135"/>
-      <c r="T3" s="135"/>
-      <c r="U3" s="135"/>
-      <c r="V3" s="135"/>
-      <c r="W3" s="135"/>
-      <c r="X3" s="135"/>
-      <c r="Y3" s="135"/>
-      <c r="Z3" s="135"/>
-      <c r="AA3" s="135"/>
-      <c r="AB3" s="135"/>
-      <c r="AC3" s="135"/>
-      <c r="AD3" s="135"/>
-      <c r="AE3" s="135"/>
-      <c r="AF3" s="135"/>
-      <c r="AG3" s="135"/>
-      <c r="AH3" s="135"/>
-      <c r="AI3" s="135"/>
-      <c r="AJ3" s="135"/>
-      <c r="AK3" s="135"/>
-      <c r="AL3" s="135"/>
-      <c r="AM3" s="135"/>
-      <c r="AN3" s="135"/>
-      <c r="AO3" s="135"/>
-      <c r="AP3" s="135"/>
-      <c r="AQ3" s="135"/>
-      <c r="AR3" s="135"/>
-      <c r="AS3" s="135"/>
-      <c r="AT3" s="135"/>
-      <c r="AU3" s="135"/>
-      <c r="AV3" s="135"/>
-      <c r="AW3" s="135"/>
-      <c r="AX3" s="135"/>
-      <c r="AY3" s="135"/>
-      <c r="AZ3" s="135"/>
-      <c r="BA3" s="135"/>
-      <c r="BB3" s="135"/>
-      <c r="BC3" s="135"/>
-      <c r="BD3" s="135"/>
-      <c r="BE3" s="135"/>
-      <c r="BF3" s="135"/>
-      <c r="BG3" s="135"/>
-      <c r="BH3" s="135"/>
-      <c r="BI3" s="135"/>
-      <c r="BJ3" s="135"/>
-      <c r="BK3" s="135"/>
-      <c r="BL3" s="135"/>
-      <c r="BM3" s="135"/>
-      <c r="BN3" s="135"/>
-      <c r="BO3" s="135"/>
-      <c r="BP3" s="135"/>
-      <c r="BQ3" s="135"/>
-      <c r="BR3" s="135"/>
-      <c r="BS3" s="135"/>
-      <c r="BT3" s="135"/>
-      <c r="BU3" s="135"/>
-      <c r="BV3" s="135"/>
-      <c r="BW3" s="135"/>
-      <c r="BX3" s="135"/>
-      <c r="BY3" s="135"/>
-      <c r="BZ3" s="135"/>
-      <c r="CA3" s="135"/>
-      <c r="CB3" s="135"/>
-      <c r="CC3" s="135"/>
-      <c r="CD3" s="135"/>
-      <c r="CE3" s="135"/>
-      <c r="CF3" s="135"/>
-      <c r="CG3" s="135"/>
-      <c r="CH3" s="135"/>
-      <c r="CI3" s="135"/>
-      <c r="CJ3" s="135"/>
-      <c r="CK3" s="135"/>
-      <c r="CL3" s="135"/>
-      <c r="CM3" s="135"/>
-      <c r="CN3" s="135"/>
-      <c r="CO3" s="135"/>
-      <c r="CP3" s="135"/>
-      <c r="CQ3" s="135"/>
-      <c r="CR3" s="135"/>
-      <c r="CS3" s="135"/>
-      <c r="CT3" s="135"/>
-      <c r="CU3" s="135"/>
+      <c r="A3" s="169"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="169"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="169"/>
+      <c r="R3" s="169"/>
+      <c r="S3" s="169"/>
+      <c r="T3" s="169"/>
+      <c r="U3" s="169"/>
+      <c r="V3" s="169"/>
+      <c r="W3" s="169"/>
+      <c r="X3" s="169"/>
+      <c r="Y3" s="169"/>
+      <c r="Z3" s="169"/>
+      <c r="AA3" s="169"/>
+      <c r="AB3" s="169"/>
+      <c r="AC3" s="169"/>
+      <c r="AD3" s="169"/>
+      <c r="AE3" s="169"/>
+      <c r="AF3" s="169"/>
+      <c r="AG3" s="169"/>
+      <c r="AH3" s="169"/>
+      <c r="AI3" s="169"/>
+      <c r="AJ3" s="169"/>
+      <c r="AK3" s="169"/>
+      <c r="AL3" s="169"/>
+      <c r="AM3" s="169"/>
+      <c r="AN3" s="169"/>
+      <c r="AO3" s="169"/>
+      <c r="AP3" s="169"/>
+      <c r="AQ3" s="169"/>
+      <c r="AR3" s="169"/>
+      <c r="AS3" s="169"/>
+      <c r="AT3" s="169"/>
+      <c r="AU3" s="169"/>
+      <c r="AV3" s="169"/>
+      <c r="AW3" s="169"/>
+      <c r="AX3" s="169"/>
+      <c r="AY3" s="169"/>
+      <c r="AZ3" s="169"/>
+      <c r="BA3" s="169"/>
+      <c r="BB3" s="169"/>
+      <c r="BC3" s="169"/>
+      <c r="BD3" s="169"/>
+      <c r="BE3" s="169"/>
+      <c r="BF3" s="169"/>
+      <c r="BG3" s="169"/>
+      <c r="BH3" s="169"/>
+      <c r="BI3" s="169"/>
+      <c r="BJ3" s="169"/>
+      <c r="BK3" s="169"/>
+      <c r="BL3" s="169"/>
+      <c r="BM3" s="169"/>
+      <c r="BN3" s="169"/>
+      <c r="BO3" s="169"/>
+      <c r="BP3" s="169"/>
+      <c r="BQ3" s="169"/>
+      <c r="BR3" s="169"/>
+      <c r="BS3" s="169"/>
+      <c r="BT3" s="169"/>
+      <c r="BU3" s="169"/>
+      <c r="BV3" s="169"/>
+      <c r="BW3" s="169"/>
+      <c r="BX3" s="169"/>
+      <c r="BY3" s="169"/>
+      <c r="BZ3" s="169"/>
+      <c r="CA3" s="169"/>
+      <c r="CB3" s="169"/>
+      <c r="CC3" s="169"/>
+      <c r="CD3" s="169"/>
+      <c r="CE3" s="169"/>
+      <c r="CF3" s="169"/>
+      <c r="CG3" s="169"/>
+      <c r="CH3" s="169"/>
+      <c r="CI3" s="169"/>
+      <c r="CJ3" s="169"/>
+      <c r="CK3" s="169"/>
+      <c r="CL3" s="169"/>
+      <c r="CM3" s="169"/>
+      <c r="CN3" s="169"/>
+      <c r="CO3" s="169"/>
+      <c r="CP3" s="169"/>
+      <c r="CQ3" s="169"/>
+      <c r="CR3" s="169"/>
+      <c r="CS3" s="169"/>
+      <c r="CT3" s="169"/>
+      <c r="CU3" s="169"/>
     </row>
     <row r="4" spans="1:99" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="202" t="s">
+      <c r="A5" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="205" t="s">
+      <c r="B5" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="205" t="s">
+      <c r="C5" s="180" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="206" t="s">
+      <c r="D5" s="181" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="207"/>
-      <c r="F5" s="207"/>
-      <c r="G5" s="207"/>
-      <c r="H5" s="207"/>
-      <c r="I5" s="207"/>
-      <c r="J5" s="207"/>
-      <c r="K5" s="207"/>
-      <c r="L5" s="207"/>
-      <c r="M5" s="207"/>
-      <c r="N5" s="207"/>
-      <c r="O5" s="207"/>
-      <c r="P5" s="207"/>
-      <c r="Q5" s="207"/>
-      <c r="R5" s="207"/>
-      <c r="S5" s="207"/>
-      <c r="T5" s="207"/>
-      <c r="U5" s="207"/>
-      <c r="V5" s="207"/>
-      <c r="W5" s="207"/>
-      <c r="X5" s="207"/>
-      <c r="Y5" s="207"/>
-      <c r="Z5" s="207"/>
-      <c r="AA5" s="207"/>
-      <c r="AB5" s="207"/>
-      <c r="AC5" s="207"/>
-      <c r="AD5" s="207"/>
-      <c r="AE5" s="207"/>
-      <c r="AF5" s="207"/>
-      <c r="AG5" s="207"/>
-      <c r="AH5" s="207"/>
-      <c r="AI5" s="207"/>
-      <c r="AJ5" s="207"/>
-      <c r="AK5" s="207"/>
-      <c r="AL5" s="207"/>
-      <c r="AM5" s="207"/>
-      <c r="AN5" s="207"/>
-      <c r="AO5" s="207"/>
-      <c r="AP5" s="207"/>
-      <c r="AQ5" s="207"/>
-      <c r="AR5" s="207"/>
-      <c r="AS5" s="207"/>
-      <c r="AT5" s="207"/>
-      <c r="AU5" s="207"/>
-      <c r="AV5" s="207"/>
-      <c r="AW5" s="207"/>
-      <c r="AX5" s="207"/>
-      <c r="AY5" s="207"/>
-      <c r="AZ5" s="207"/>
-      <c r="BA5" s="207"/>
-      <c r="BB5" s="207"/>
-      <c r="BC5" s="207"/>
-      <c r="BD5" s="208"/>
-      <c r="BE5" s="209" t="s">
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
+      <c r="J5" s="182"/>
+      <c r="K5" s="182"/>
+      <c r="L5" s="182"/>
+      <c r="M5" s="182"/>
+      <c r="N5" s="182"/>
+      <c r="O5" s="182"/>
+      <c r="P5" s="182"/>
+      <c r="Q5" s="182"/>
+      <c r="R5" s="182"/>
+      <c r="S5" s="182"/>
+      <c r="T5" s="182"/>
+      <c r="U5" s="182"/>
+      <c r="V5" s="182"/>
+      <c r="W5" s="182"/>
+      <c r="X5" s="182"/>
+      <c r="Y5" s="182"/>
+      <c r="Z5" s="182"/>
+      <c r="AA5" s="182"/>
+      <c r="AB5" s="182"/>
+      <c r="AC5" s="182"/>
+      <c r="AD5" s="182"/>
+      <c r="AE5" s="182"/>
+      <c r="AF5" s="182"/>
+      <c r="AG5" s="182"/>
+      <c r="AH5" s="182"/>
+      <c r="AI5" s="182"/>
+      <c r="AJ5" s="182"/>
+      <c r="AK5" s="182"/>
+      <c r="AL5" s="182"/>
+      <c r="AM5" s="182"/>
+      <c r="AN5" s="182"/>
+      <c r="AO5" s="182"/>
+      <c r="AP5" s="182"/>
+      <c r="AQ5" s="182"/>
+      <c r="AR5" s="182"/>
+      <c r="AS5" s="182"/>
+      <c r="AT5" s="182"/>
+      <c r="AU5" s="182"/>
+      <c r="AV5" s="182"/>
+      <c r="AW5" s="182"/>
+      <c r="AX5" s="182"/>
+      <c r="AY5" s="182"/>
+      <c r="AZ5" s="182"/>
+      <c r="BA5" s="182"/>
+      <c r="BB5" s="182"/>
+      <c r="BC5" s="182"/>
+      <c r="BD5" s="183"/>
+      <c r="BE5" s="184" t="s">
         <v>34</v>
       </c>
-      <c r="BF5" s="210"/>
-      <c r="BG5" s="210"/>
-      <c r="BH5" s="210"/>
-      <c r="BI5" s="210"/>
-      <c r="BJ5" s="210"/>
-      <c r="BK5" s="210"/>
-      <c r="BL5" s="210"/>
-      <c r="BM5" s="210"/>
-      <c r="BN5" s="210"/>
-      <c r="BO5" s="210"/>
-      <c r="BP5" s="210"/>
-      <c r="BQ5" s="210"/>
-      <c r="BR5" s="210"/>
-      <c r="BS5" s="210"/>
-      <c r="BT5" s="210"/>
-      <c r="BU5" s="210"/>
-      <c r="BV5" s="210"/>
-      <c r="BW5" s="210"/>
-      <c r="BX5" s="210"/>
-      <c r="BY5" s="210"/>
-      <c r="BZ5" s="210"/>
-      <c r="CA5" s="210"/>
-      <c r="CB5" s="210"/>
-      <c r="CC5" s="210"/>
-      <c r="CD5" s="210"/>
-      <c r="CE5" s="210"/>
-      <c r="CF5" s="210"/>
-      <c r="CG5" s="210"/>
-      <c r="CH5" s="210"/>
-      <c r="CI5" s="210"/>
-      <c r="CJ5" s="210"/>
-      <c r="CK5" s="210"/>
-      <c r="CL5" s="210"/>
-      <c r="CM5" s="210"/>
-      <c r="CN5" s="210"/>
-      <c r="CO5" s="210"/>
-      <c r="CP5" s="210"/>
-      <c r="CQ5" s="210"/>
-      <c r="CR5" s="211"/>
-      <c r="CS5" s="198" t="s">
+      <c r="BF5" s="185"/>
+      <c r="BG5" s="185"/>
+      <c r="BH5" s="185"/>
+      <c r="BI5" s="185"/>
+      <c r="BJ5" s="185"/>
+      <c r="BK5" s="185"/>
+      <c r="BL5" s="185"/>
+      <c r="BM5" s="185"/>
+      <c r="BN5" s="185"/>
+      <c r="BO5" s="185"/>
+      <c r="BP5" s="185"/>
+      <c r="BQ5" s="185"/>
+      <c r="BR5" s="185"/>
+      <c r="BS5" s="185"/>
+      <c r="BT5" s="185"/>
+      <c r="BU5" s="185"/>
+      <c r="BV5" s="185"/>
+      <c r="BW5" s="185"/>
+      <c r="BX5" s="185"/>
+      <c r="BY5" s="185"/>
+      <c r="BZ5" s="185"/>
+      <c r="CA5" s="185"/>
+      <c r="CB5" s="185"/>
+      <c r="CC5" s="185"/>
+      <c r="CD5" s="185"/>
+      <c r="CE5" s="185"/>
+      <c r="CF5" s="185"/>
+      <c r="CG5" s="185"/>
+      <c r="CH5" s="185"/>
+      <c r="CI5" s="185"/>
+      <c r="CJ5" s="185"/>
+      <c r="CK5" s="185"/>
+      <c r="CL5" s="185"/>
+      <c r="CM5" s="185"/>
+      <c r="CN5" s="185"/>
+      <c r="CO5" s="185"/>
+      <c r="CP5" s="185"/>
+      <c r="CQ5" s="185"/>
+      <c r="CR5" s="186"/>
+      <c r="CS5" s="191" t="s">
         <v>35</v>
       </c>
-      <c r="CT5" s="199"/>
-      <c r="CU5" s="200"/>
+      <c r="CT5" s="192"/>
+      <c r="CU5" s="193"/>
     </row>
     <row r="6" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="203"/>
-      <c r="B6" s="205"/>
-      <c r="C6" s="205"/>
-      <c r="D6" s="181" t="s">
+      <c r="A6" s="178"/>
+      <c r="B6" s="180"/>
+      <c r="C6" s="180"/>
+      <c r="D6" s="211" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
-      <c r="J6" s="184" t="s">
+      <c r="E6" s="212"/>
+      <c r="F6" s="212"/>
+      <c r="G6" s="212"/>
+      <c r="H6" s="212"/>
+      <c r="I6" s="212"/>
+      <c r="J6" s="197" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="184"/>
-      <c r="L6" s="184"/>
-      <c r="M6" s="184"/>
-      <c r="N6" s="184"/>
-      <c r="O6" s="184"/>
-      <c r="P6" s="184"/>
-      <c r="Q6" s="184"/>
-      <c r="R6" s="184"/>
-      <c r="S6" s="184"/>
-      <c r="T6" s="184"/>
-      <c r="U6" s="184"/>
-      <c r="V6" s="184"/>
-      <c r="W6" s="184"/>
-      <c r="X6" s="184"/>
-      <c r="Y6" s="184"/>
-      <c r="Z6" s="184"/>
-      <c r="AA6" s="184"/>
-      <c r="AB6" s="184"/>
-      <c r="AC6" s="184"/>
-      <c r="AD6" s="184"/>
-      <c r="AE6" s="184"/>
-      <c r="AF6" s="184"/>
-      <c r="AG6" s="184"/>
-      <c r="AH6" s="184"/>
-      <c r="AI6" s="184"/>
-      <c r="AJ6" s="184"/>
-      <c r="AK6" s="184"/>
-      <c r="AL6" s="184"/>
-      <c r="AM6" s="184"/>
-      <c r="AN6" s="184"/>
-      <c r="AO6" s="184" t="s">
+      <c r="K6" s="197"/>
+      <c r="L6" s="197"/>
+      <c r="M6" s="197"/>
+      <c r="N6" s="197"/>
+      <c r="O6" s="197"/>
+      <c r="P6" s="197"/>
+      <c r="Q6" s="197"/>
+      <c r="R6" s="197"/>
+      <c r="S6" s="197"/>
+      <c r="T6" s="197"/>
+      <c r="U6" s="197"/>
+      <c r="V6" s="197"/>
+      <c r="W6" s="197"/>
+      <c r="X6" s="197"/>
+      <c r="Y6" s="197"/>
+      <c r="Z6" s="197"/>
+      <c r="AA6" s="197"/>
+      <c r="AB6" s="197"/>
+      <c r="AC6" s="197"/>
+      <c r="AD6" s="197"/>
+      <c r="AE6" s="197"/>
+      <c r="AF6" s="197"/>
+      <c r="AG6" s="197"/>
+      <c r="AH6" s="197"/>
+      <c r="AI6" s="197"/>
+      <c r="AJ6" s="197"/>
+      <c r="AK6" s="197"/>
+      <c r="AL6" s="197"/>
+      <c r="AM6" s="197"/>
+      <c r="AN6" s="197"/>
+      <c r="AO6" s="197" t="s">
         <v>141</v>
       </c>
-      <c r="AP6" s="184"/>
-      <c r="AQ6" s="184"/>
-      <c r="AR6" s="184"/>
-      <c r="AS6" s="184" t="s">
+      <c r="AP6" s="197"/>
+      <c r="AQ6" s="197"/>
+      <c r="AR6" s="197"/>
+      <c r="AS6" s="197" t="s">
         <v>37</v>
       </c>
-      <c r="AT6" s="184"/>
-      <c r="AU6" s="184"/>
-      <c r="AV6" s="184" t="s">
+      <c r="AT6" s="197"/>
+      <c r="AU6" s="197"/>
+      <c r="AV6" s="197" t="s">
         <v>38</v>
       </c>
-      <c r="AW6" s="184"/>
-      <c r="AX6" s="184"/>
-      <c r="AY6" s="184"/>
-      <c r="AZ6" s="184"/>
-      <c r="BA6" s="184"/>
-      <c r="BB6" s="184"/>
-      <c r="BC6" s="191" t="s">
+      <c r="AW6" s="197"/>
+      <c r="AX6" s="197"/>
+      <c r="AY6" s="197"/>
+      <c r="AZ6" s="197"/>
+      <c r="BA6" s="197"/>
+      <c r="BB6" s="197"/>
+      <c r="BC6" s="201" t="s">
         <v>39</v>
       </c>
-      <c r="BD6" s="192"/>
-      <c r="BE6" s="193" t="s">
+      <c r="BD6" s="202"/>
+      <c r="BE6" s="203" t="s">
         <v>102</v>
       </c>
-      <c r="BF6" s="194"/>
-      <c r="BG6" s="194"/>
-      <c r="BH6" s="194"/>
-      <c r="BI6" s="194"/>
-      <c r="BJ6" s="194"/>
-      <c r="BK6" s="195"/>
-      <c r="BL6" s="196" t="s">
+      <c r="BF6" s="204"/>
+      <c r="BG6" s="204"/>
+      <c r="BH6" s="204"/>
+      <c r="BI6" s="204"/>
+      <c r="BJ6" s="204"/>
+      <c r="BK6" s="205"/>
+      <c r="BL6" s="206" t="s">
         <v>103</v>
       </c>
-      <c r="BM6" s="194"/>
-      <c r="BN6" s="194"/>
-      <c r="BO6" s="194"/>
-      <c r="BP6" s="194"/>
-      <c r="BQ6" s="194"/>
-      <c r="BR6" s="194"/>
-      <c r="BS6" s="194"/>
-      <c r="BT6" s="194"/>
-      <c r="BU6" s="194"/>
-      <c r="BV6" s="194"/>
-      <c r="BW6" s="194"/>
-      <c r="BX6" s="194"/>
-      <c r="BY6" s="194"/>
-      <c r="BZ6" s="194"/>
-      <c r="CA6" s="194"/>
-      <c r="CB6" s="194"/>
-      <c r="CC6" s="194"/>
-      <c r="CD6" s="194"/>
-      <c r="CE6" s="194"/>
-      <c r="CF6" s="194"/>
-      <c r="CG6" s="194"/>
-      <c r="CH6" s="194"/>
-      <c r="CI6" s="194"/>
-      <c r="CJ6" s="194"/>
-      <c r="CK6" s="194"/>
-      <c r="CL6" s="194"/>
-      <c r="CM6" s="194"/>
-      <c r="CN6" s="194"/>
-      <c r="CO6" s="194"/>
-      <c r="CP6" s="194"/>
-      <c r="CQ6" s="201" t="s">
+      <c r="BM6" s="204"/>
+      <c r="BN6" s="204"/>
+      <c r="BO6" s="204"/>
+      <c r="BP6" s="204"/>
+      <c r="BQ6" s="204"/>
+      <c r="BR6" s="204"/>
+      <c r="BS6" s="204"/>
+      <c r="BT6" s="204"/>
+      <c r="BU6" s="204"/>
+      <c r="BV6" s="204"/>
+      <c r="BW6" s="204"/>
+      <c r="BX6" s="204"/>
+      <c r="BY6" s="204"/>
+      <c r="BZ6" s="204"/>
+      <c r="CA6" s="204"/>
+      <c r="CB6" s="204"/>
+      <c r="CC6" s="204"/>
+      <c r="CD6" s="204"/>
+      <c r="CE6" s="204"/>
+      <c r="CF6" s="204"/>
+      <c r="CG6" s="204"/>
+      <c r="CH6" s="204"/>
+      <c r="CI6" s="204"/>
+      <c r="CJ6" s="204"/>
+      <c r="CK6" s="204"/>
+      <c r="CL6" s="204"/>
+      <c r="CM6" s="204"/>
+      <c r="CN6" s="204"/>
+      <c r="CO6" s="204"/>
+      <c r="CP6" s="204"/>
+      <c r="CQ6" s="194" t="s">
         <v>40</v>
       </c>
-      <c r="CR6" s="201"/>
-      <c r="CS6" s="197" t="s">
+      <c r="CR6" s="194"/>
+      <c r="CS6" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="CT6" s="197" t="s">
+      <c r="CT6" s="176" t="s">
         <v>42</v>
       </c>
-      <c r="CU6" s="188" t="s">
+      <c r="CU6" s="198" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A7" s="203"/>
-      <c r="B7" s="205"/>
-      <c r="C7" s="205"/>
+      <c r="A7" s="178"/>
+      <c r="B7" s="180"/>
+      <c r="C7" s="180"/>
       <c r="E7" s="124"/>
       <c r="F7" s="123">
         <v>0.3</v>
@@ -6188,327 +6188,327 @@
       <c r="I7" s="124">
         <v>0.3</v>
       </c>
-      <c r="J7" s="183"/>
-      <c r="K7" s="183"/>
-      <c r="L7" s="183"/>
-      <c r="M7" s="183"/>
-      <c r="N7" s="183"/>
-      <c r="O7" s="183"/>
-      <c r="P7" s="183"/>
-      <c r="Q7" s="183"/>
-      <c r="R7" s="183"/>
-      <c r="S7" s="183"/>
-      <c r="T7" s="187">
+      <c r="J7" s="189"/>
+      <c r="K7" s="189"/>
+      <c r="L7" s="189"/>
+      <c r="M7" s="189"/>
+      <c r="N7" s="189"/>
+      <c r="O7" s="189"/>
+      <c r="P7" s="189"/>
+      <c r="Q7" s="189"/>
+      <c r="R7" s="189"/>
+      <c r="S7" s="189"/>
+      <c r="T7" s="190">
         <f>COUNT(J9,L9,N9,P9,R9,T9)</f>
         <v>0</v>
       </c>
-      <c r="U7" s="187"/>
-      <c r="V7" s="183"/>
-      <c r="W7" s="183"/>
-      <c r="X7" s="183"/>
-      <c r="Y7" s="183"/>
-      <c r="Z7" s="183"/>
-      <c r="AA7" s="183"/>
-      <c r="AB7" s="183"/>
-      <c r="AC7" s="183"/>
-      <c r="AD7" s="183"/>
-      <c r="AE7" s="183"/>
-      <c r="AF7" s="183"/>
-      <c r="AG7" s="183"/>
-      <c r="AH7" s="183"/>
-      <c r="AI7" s="183"/>
-      <c r="AJ7" s="183"/>
-      <c r="AK7" s="183"/>
-      <c r="AL7" s="183"/>
-      <c r="AM7" s="183"/>
+      <c r="U7" s="190"/>
+      <c r="V7" s="189"/>
+      <c r="W7" s="189"/>
+      <c r="X7" s="189"/>
+      <c r="Y7" s="189"/>
+      <c r="Z7" s="189"/>
+      <c r="AA7" s="189"/>
+      <c r="AB7" s="189"/>
+      <c r="AC7" s="189"/>
+      <c r="AD7" s="189"/>
+      <c r="AE7" s="189"/>
+      <c r="AF7" s="189"/>
+      <c r="AG7" s="189"/>
+      <c r="AH7" s="189"/>
+      <c r="AI7" s="189"/>
+      <c r="AJ7" s="189"/>
+      <c r="AK7" s="189"/>
+      <c r="AL7" s="189"/>
+      <c r="AM7" s="189"/>
       <c r="AN7" s="97">
         <v>0.2</v>
       </c>
-      <c r="AO7" s="183"/>
-      <c r="AP7" s="183"/>
-      <c r="AQ7" s="183"/>
-      <c r="AR7" s="183"/>
-      <c r="AS7" s="187">
+      <c r="AO7" s="189"/>
+      <c r="AP7" s="189"/>
+      <c r="AQ7" s="189"/>
+      <c r="AR7" s="189"/>
+      <c r="AS7" s="190">
         <f>COUNT(AO9,AQ9,AS9)</f>
         <v>0</v>
       </c>
-      <c r="AT7" s="187"/>
+      <c r="AT7" s="190"/>
       <c r="AU7" s="21">
         <v>0.1</v>
       </c>
-      <c r="AV7" s="183"/>
-      <c r="AW7" s="183"/>
-      <c r="AX7" s="183"/>
-      <c r="AY7" s="183"/>
-      <c r="AZ7" s="187">
+      <c r="AV7" s="189"/>
+      <c r="AW7" s="189"/>
+      <c r="AX7" s="189"/>
+      <c r="AY7" s="189"/>
+      <c r="AZ7" s="190">
         <f>COUNT(AV9,AX9,AZ9)</f>
         <v>0</v>
       </c>
-      <c r="BA7" s="187"/>
+      <c r="BA7" s="190"/>
       <c r="BB7" s="22">
         <v>0.1</v>
       </c>
-      <c r="BC7" s="191"/>
-      <c r="BD7" s="192"/>
-      <c r="BE7" s="183"/>
-      <c r="BF7" s="183"/>
-      <c r="BG7" s="183"/>
-      <c r="BH7" s="183"/>
-      <c r="BI7" s="187">
+      <c r="BC7" s="201"/>
+      <c r="BD7" s="202"/>
+      <c r="BE7" s="189"/>
+      <c r="BF7" s="189"/>
+      <c r="BG7" s="189"/>
+      <c r="BH7" s="189"/>
+      <c r="BI7" s="190">
         <f>COUNT(BE9,BG9,BI9)</f>
         <v>0</v>
       </c>
-      <c r="BJ7" s="187"/>
+      <c r="BJ7" s="190"/>
       <c r="BK7" s="105">
         <v>0.5</v>
       </c>
-      <c r="BL7" s="183">
+      <c r="BL7" s="189">
         <v>42980</v>
       </c>
-      <c r="BM7" s="183"/>
-      <c r="BN7" s="183">
+      <c r="BM7" s="189"/>
+      <c r="BN7" s="189">
         <v>42980</v>
       </c>
-      <c r="BO7" s="183"/>
-      <c r="BP7" s="183">
+      <c r="BO7" s="189"/>
+      <c r="BP7" s="189">
         <v>42980</v>
       </c>
-      <c r="BQ7" s="183"/>
-      <c r="BR7" s="183">
+      <c r="BQ7" s="189"/>
+      <c r="BR7" s="189">
         <v>42987</v>
       </c>
-      <c r="BS7" s="183"/>
-      <c r="BT7" s="183"/>
-      <c r="BU7" s="183"/>
-      <c r="BV7" s="183"/>
-      <c r="BW7" s="183"/>
-      <c r="BX7" s="183"/>
-      <c r="BY7" s="183"/>
-      <c r="BZ7" s="183"/>
-      <c r="CA7" s="183"/>
-      <c r="CB7" s="183"/>
-      <c r="CC7" s="183"/>
-      <c r="CD7" s="183"/>
-      <c r="CE7" s="183"/>
-      <c r="CF7" s="183"/>
-      <c r="CG7" s="183"/>
-      <c r="CH7" s="183"/>
-      <c r="CI7" s="183"/>
-      <c r="CJ7" s="183"/>
-      <c r="CK7" s="183"/>
-      <c r="CL7" s="183"/>
-      <c r="CM7" s="183"/>
-      <c r="CN7" s="187">
+      <c r="BS7" s="189"/>
+      <c r="BT7" s="189"/>
+      <c r="BU7" s="189"/>
+      <c r="BV7" s="189"/>
+      <c r="BW7" s="189"/>
+      <c r="BX7" s="189"/>
+      <c r="BY7" s="189"/>
+      <c r="BZ7" s="189"/>
+      <c r="CA7" s="189"/>
+      <c r="CB7" s="189"/>
+      <c r="CC7" s="189"/>
+      <c r="CD7" s="189"/>
+      <c r="CE7" s="189"/>
+      <c r="CF7" s="189"/>
+      <c r="CG7" s="189"/>
+      <c r="CH7" s="189"/>
+      <c r="CI7" s="189"/>
+      <c r="CJ7" s="189"/>
+      <c r="CK7" s="189"/>
+      <c r="CL7" s="189"/>
+      <c r="CM7" s="189"/>
+      <c r="CN7" s="190">
         <f>COUNT(CN9,CL9,CJ9,CH9,CF9,CD9,CB9,BZ9,BX9,BV9,BT9,BR9,BP9,BN9,BL9)</f>
         <v>5</v>
       </c>
-      <c r="CO7" s="187"/>
+      <c r="CO7" s="190"/>
       <c r="CP7" s="106">
         <v>0.5</v>
       </c>
-      <c r="CQ7" s="201"/>
-      <c r="CR7" s="201"/>
-      <c r="CS7" s="197"/>
-      <c r="CT7" s="197"/>
-      <c r="CU7" s="189"/>
+      <c r="CQ7" s="194"/>
+      <c r="CR7" s="194"/>
+      <c r="CS7" s="176"/>
+      <c r="CT7" s="176"/>
+      <c r="CU7" s="199"/>
     </row>
     <row r="8" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A8" s="203"/>
-      <c r="B8" s="205"/>
-      <c r="C8" s="205"/>
-      <c r="D8" s="212" t="s">
+      <c r="A8" s="178"/>
+      <c r="B8" s="180"/>
+      <c r="C8" s="180"/>
+      <c r="D8" s="187" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="212"/>
-      <c r="F8" s="212"/>
-      <c r="G8" s="212" t="s">
+      <c r="E8" s="187"/>
+      <c r="F8" s="187"/>
+      <c r="G8" s="187" t="s">
         <v>158</v>
       </c>
-      <c r="H8" s="212"/>
-      <c r="I8" s="212"/>
-      <c r="J8" s="176" t="s">
+      <c r="H8" s="187"/>
+      <c r="I8" s="187"/>
+      <c r="J8" s="188" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="176"/>
-      <c r="L8" s="176" t="s">
+      <c r="K8" s="188"/>
+      <c r="L8" s="188" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="176"/>
-      <c r="N8" s="176" t="s">
+      <c r="M8" s="188"/>
+      <c r="N8" s="188" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="176"/>
-      <c r="P8" s="176" t="s">
+      <c r="O8" s="188"/>
+      <c r="P8" s="188" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="176"/>
-      <c r="R8" s="176" t="s">
+      <c r="Q8" s="188"/>
+      <c r="R8" s="188" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="176"/>
-      <c r="T8" s="176" t="s">
+      <c r="S8" s="188"/>
+      <c r="T8" s="188" t="s">
         <v>53</v>
       </c>
-      <c r="U8" s="176"/>
-      <c r="V8" s="176" t="s">
+      <c r="U8" s="188"/>
+      <c r="V8" s="188" t="s">
         <v>54</v>
       </c>
-      <c r="W8" s="176"/>
-      <c r="X8" s="176" t="s">
+      <c r="W8" s="188"/>
+      <c r="X8" s="188" t="s">
         <v>55</v>
       </c>
-      <c r="Y8" s="176"/>
-      <c r="Z8" s="176" t="s">
+      <c r="Y8" s="188"/>
+      <c r="Z8" s="188" t="s">
         <v>56</v>
       </c>
-      <c r="AA8" s="176"/>
-      <c r="AB8" s="176" t="s">
+      <c r="AA8" s="188"/>
+      <c r="AB8" s="188" t="s">
         <v>57</v>
       </c>
-      <c r="AC8" s="176"/>
-      <c r="AD8" s="176" t="s">
+      <c r="AC8" s="188"/>
+      <c r="AD8" s="188" t="s">
         <v>58</v>
       </c>
-      <c r="AE8" s="176"/>
-      <c r="AF8" s="176" t="s">
+      <c r="AE8" s="188"/>
+      <c r="AF8" s="188" t="s">
         <v>59</v>
       </c>
-      <c r="AG8" s="176"/>
-      <c r="AH8" s="176" t="s">
+      <c r="AG8" s="188"/>
+      <c r="AH8" s="188" t="s">
         <v>60</v>
       </c>
-      <c r="AI8" s="176"/>
-      <c r="AJ8" s="176" t="s">
+      <c r="AI8" s="188"/>
+      <c r="AJ8" s="188" t="s">
         <v>61</v>
       </c>
-      <c r="AK8" s="176"/>
-      <c r="AL8" s="176" t="s">
+      <c r="AK8" s="188"/>
+      <c r="AL8" s="188" t="s">
         <v>62</v>
       </c>
-      <c r="AM8" s="176"/>
+      <c r="AM8" s="188"/>
       <c r="AN8" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AO8" s="176" t="s">
+      <c r="AO8" s="188" t="s">
         <v>64</v>
       </c>
-      <c r="AP8" s="176"/>
-      <c r="AQ8" s="176" t="s">
+      <c r="AP8" s="188"/>
+      <c r="AQ8" s="188" t="s">
         <v>65</v>
       </c>
-      <c r="AR8" s="176"/>
-      <c r="AS8" s="176" t="s">
+      <c r="AR8" s="188"/>
+      <c r="AS8" s="188" t="s">
         <v>66</v>
       </c>
-      <c r="AT8" s="176"/>
+      <c r="AT8" s="188"/>
       <c r="AU8" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AV8" s="176" t="s">
+      <c r="AV8" s="188" t="s">
         <v>68</v>
       </c>
-      <c r="AW8" s="176"/>
-      <c r="AX8" s="176" t="s">
+      <c r="AW8" s="188"/>
+      <c r="AX8" s="188" t="s">
         <v>69</v>
       </c>
-      <c r="AY8" s="176"/>
-      <c r="AZ8" s="176" t="s">
+      <c r="AY8" s="188"/>
+      <c r="AZ8" s="188" t="s">
         <v>70</v>
       </c>
-      <c r="BA8" s="176"/>
+      <c r="BA8" s="188"/>
       <c r="BB8" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="BC8" s="191"/>
-      <c r="BD8" s="192"/>
-      <c r="BE8" s="186" t="s">
+      <c r="BC8" s="201"/>
+      <c r="BD8" s="202"/>
+      <c r="BE8" s="210" t="s">
         <v>44</v>
       </c>
-      <c r="BF8" s="185"/>
-      <c r="BG8" s="185" t="s">
+      <c r="BF8" s="207"/>
+      <c r="BG8" s="207" t="s">
         <v>45</v>
       </c>
-      <c r="BH8" s="185"/>
-      <c r="BI8" s="185" t="s">
+      <c r="BH8" s="207"/>
+      <c r="BI8" s="207" t="s">
         <v>46</v>
       </c>
-      <c r="BJ8" s="185"/>
+      <c r="BJ8" s="207"/>
       <c r="BK8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="BL8" s="179" t="s">
+      <c r="BL8" s="208" t="s">
         <v>72</v>
       </c>
-      <c r="BM8" s="180"/>
-      <c r="BN8" s="179" t="s">
+      <c r="BM8" s="209"/>
+      <c r="BN8" s="208" t="s">
         <v>73</v>
       </c>
-      <c r="BO8" s="180"/>
-      <c r="BP8" s="179" t="s">
+      <c r="BO8" s="209"/>
+      <c r="BP8" s="208" t="s">
         <v>74</v>
       </c>
-      <c r="BQ8" s="180"/>
-      <c r="BR8" s="179" t="s">
+      <c r="BQ8" s="209"/>
+      <c r="BR8" s="208" t="s">
         <v>75</v>
       </c>
-      <c r="BS8" s="180"/>
-      <c r="BT8" s="179" t="s">
+      <c r="BS8" s="209"/>
+      <c r="BT8" s="208" t="s">
         <v>76</v>
       </c>
-      <c r="BU8" s="180"/>
-      <c r="BV8" s="177" t="s">
+      <c r="BU8" s="209"/>
+      <c r="BV8" s="195" t="s">
         <v>77</v>
       </c>
-      <c r="BW8" s="178"/>
-      <c r="BX8" s="177" t="s">
+      <c r="BW8" s="196"/>
+      <c r="BX8" s="195" t="s">
         <v>78</v>
       </c>
-      <c r="BY8" s="178"/>
-      <c r="BZ8" s="177" t="s">
+      <c r="BY8" s="196"/>
+      <c r="BZ8" s="195" t="s">
         <v>79</v>
       </c>
-      <c r="CA8" s="178"/>
-      <c r="CB8" s="177" t="s">
+      <c r="CA8" s="196"/>
+      <c r="CB8" s="195" t="s">
         <v>80</v>
       </c>
-      <c r="CC8" s="178"/>
-      <c r="CD8" s="177" t="s">
+      <c r="CC8" s="196"/>
+      <c r="CD8" s="195" t="s">
         <v>81</v>
       </c>
-      <c r="CE8" s="178"/>
-      <c r="CF8" s="177" t="s">
+      <c r="CE8" s="196"/>
+      <c r="CF8" s="195" t="s">
         <v>82</v>
       </c>
-      <c r="CG8" s="178"/>
-      <c r="CH8" s="177" t="s">
+      <c r="CG8" s="196"/>
+      <c r="CH8" s="195" t="s">
         <v>83</v>
       </c>
-      <c r="CI8" s="178"/>
-      <c r="CJ8" s="177" t="s">
+      <c r="CI8" s="196"/>
+      <c r="CJ8" s="195" t="s">
         <v>84</v>
       </c>
-      <c r="CK8" s="178"/>
-      <c r="CL8" s="177" t="s">
+      <c r="CK8" s="196"/>
+      <c r="CL8" s="195" t="s">
         <v>85</v>
       </c>
-      <c r="CM8" s="178"/>
-      <c r="CN8" s="177" t="s">
+      <c r="CM8" s="196"/>
+      <c r="CN8" s="195" t="s">
         <v>86</v>
       </c>
-      <c r="CO8" s="178"/>
+      <c r="CO8" s="196"/>
       <c r="CP8" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="CQ8" s="201"/>
-      <c r="CR8" s="201"/>
-      <c r="CS8" s="197"/>
-      <c r="CT8" s="197"/>
-      <c r="CU8" s="189"/>
+      <c r="CQ8" s="194"/>
+      <c r="CR8" s="194"/>
+      <c r="CS8" s="176"/>
+      <c r="CT8" s="176"/>
+      <c r="CU8" s="199"/>
     </row>
     <row r="9" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A9" s="204"/>
-      <c r="B9" s="205"/>
-      <c r="C9" s="205"/>
+      <c r="A9" s="179"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="180"/>
       <c r="D9" s="27"/>
       <c r="E9" s="91"/>
       <c r="F9" s="28" t="s">
@@ -6670,9 +6670,9 @@
       <c r="CR9" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="CS9" s="197"/>
-      <c r="CT9" s="197"/>
-      <c r="CU9" s="190"/>
+      <c r="CS9" s="176"/>
+      <c r="CT9" s="176"/>
+      <c r="CU9" s="200"/>
     </row>
     <row r="10" spans="1:99">
       <c r="A10" s="42">
@@ -22015,6 +22015,88 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="98">
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="AV8:AW8"/>
+    <mergeCell ref="AX8:AY8"/>
+    <mergeCell ref="A2:CU3"/>
+    <mergeCell ref="CB8:CC8"/>
+    <mergeCell ref="CD8:CE8"/>
+    <mergeCell ref="CF8:CG8"/>
+    <mergeCell ref="CH8:CI8"/>
+    <mergeCell ref="CJ8:CK8"/>
+    <mergeCell ref="CL8:CM8"/>
+    <mergeCell ref="BP8:BQ8"/>
+    <mergeCell ref="BR8:BS8"/>
+    <mergeCell ref="BT8:BU8"/>
+    <mergeCell ref="BV8:BW8"/>
+    <mergeCell ref="BX8:BY8"/>
+    <mergeCell ref="BZ8:CA8"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="J6:AN6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="BI8:BJ8"/>
+    <mergeCell ref="BL8:BM8"/>
+    <mergeCell ref="BN8:BO8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="BE8:BF8"/>
+    <mergeCell ref="AZ8:BA8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="BI7:BJ7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BB6"/>
+    <mergeCell ref="CU6:CU9"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="BC6:BD8"/>
+    <mergeCell ref="BE6:BK6"/>
+    <mergeCell ref="BL6:CP6"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="CT6:CT9"/>
+    <mergeCell ref="BE7:BF7"/>
+    <mergeCell ref="CS5:CU5"/>
+    <mergeCell ref="BL7:BM7"/>
+    <mergeCell ref="BN7:BO7"/>
+    <mergeCell ref="BP7:BQ7"/>
+    <mergeCell ref="BR7:BS7"/>
+    <mergeCell ref="CL7:CM7"/>
+    <mergeCell ref="CN7:CO7"/>
+    <mergeCell ref="BT7:BU7"/>
+    <mergeCell ref="BV7:BW7"/>
+    <mergeCell ref="BX7:BY7"/>
+    <mergeCell ref="BZ7:CA7"/>
+    <mergeCell ref="CB7:CC7"/>
+    <mergeCell ref="CJ7:CK7"/>
+    <mergeCell ref="CD7:CE7"/>
+    <mergeCell ref="CQ6:CR8"/>
+    <mergeCell ref="CN8:CO8"/>
     <mergeCell ref="CS6:CS9"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B5:B9"/>
@@ -22031,88 +22113,6 @@
     <mergeCell ref="BG7:BH7"/>
     <mergeCell ref="CF7:CG7"/>
     <mergeCell ref="CH7:CI7"/>
-    <mergeCell ref="CS5:CU5"/>
-    <mergeCell ref="BL7:BM7"/>
-    <mergeCell ref="BN7:BO7"/>
-    <mergeCell ref="BP7:BQ7"/>
-    <mergeCell ref="BR7:BS7"/>
-    <mergeCell ref="CL7:CM7"/>
-    <mergeCell ref="CN7:CO7"/>
-    <mergeCell ref="BT7:BU7"/>
-    <mergeCell ref="BV7:BW7"/>
-    <mergeCell ref="BX7:BY7"/>
-    <mergeCell ref="BZ7:CA7"/>
-    <mergeCell ref="CB7:CC7"/>
-    <mergeCell ref="CJ7:CK7"/>
-    <mergeCell ref="CD7:CE7"/>
-    <mergeCell ref="CQ6:CR8"/>
-    <mergeCell ref="CN8:CO8"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BB6"/>
-    <mergeCell ref="CU6:CU9"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="BC6:BD8"/>
-    <mergeCell ref="BE6:BK6"/>
-    <mergeCell ref="BL6:CP6"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="CT6:CT9"/>
-    <mergeCell ref="BE7:BF7"/>
-    <mergeCell ref="BI7:BJ7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="BI8:BJ8"/>
-    <mergeCell ref="BL8:BM8"/>
-    <mergeCell ref="BN8:BO8"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="BE8:BF8"/>
-    <mergeCell ref="AZ8:BA8"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="BZ8:CA8"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="J6:AN6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AJ8:AK8"/>
-    <mergeCell ref="AV8:AW8"/>
-    <mergeCell ref="AX8:AY8"/>
-    <mergeCell ref="A2:CU3"/>
-    <mergeCell ref="CB8:CC8"/>
-    <mergeCell ref="CD8:CE8"/>
-    <mergeCell ref="CF8:CG8"/>
-    <mergeCell ref="CH8:CI8"/>
-    <mergeCell ref="CJ8:CK8"/>
-    <mergeCell ref="CL8:CM8"/>
-    <mergeCell ref="BP8:BQ8"/>
-    <mergeCell ref="BR8:BS8"/>
-    <mergeCell ref="BT8:BU8"/>
-    <mergeCell ref="BV8:BW8"/>
-    <mergeCell ref="BX8:BY8"/>
   </mergeCells>
   <conditionalFormatting sqref="CU10:CU70">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -26327,106 +26327,106 @@
       <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="260"/>
-      <c r="B3" s="260"/>
-      <c r="C3" s="260"/>
-      <c r="D3" s="260"/>
-      <c r="E3" s="260"/>
-      <c r="F3" s="260"/>
+      <c r="A3" s="229"/>
+      <c r="B3" s="229"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="263" t="s">
+      <c r="A4" s="230" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="263"/>
-      <c r="C4" s="263"/>
-      <c r="D4" s="263"/>
-      <c r="E4" s="263"/>
-      <c r="F4" s="263"/>
+      <c r="B4" s="230"/>
+      <c r="C4" s="230"/>
+      <c r="D4" s="230"/>
+      <c r="E4" s="230"/>
+      <c r="F4" s="230"/>
     </row>
     <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="264" t="s">
+      <c r="A5" s="231" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="264"/>
-      <c r="C5" s="264"/>
-      <c r="D5" s="264"/>
-      <c r="E5" s="264"/>
-      <c r="F5" s="264"/>
+      <c r="B5" s="231"/>
+      <c r="C5" s="231"/>
+      <c r="D5" s="231"/>
+      <c r="E5" s="231"/>
+      <c r="F5" s="231"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="263" t="s">
+      <c r="A6" s="230" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="263"/>
-      <c r="C6" s="263"/>
-      <c r="D6" s="263"/>
-      <c r="E6" s="263"/>
-      <c r="F6" s="263"/>
+      <c r="B6" s="230"/>
+      <c r="C6" s="230"/>
+      <c r="D6" s="230"/>
+      <c r="E6" s="230"/>
+      <c r="F6" s="230"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="265" t="s">
+      <c r="A7" s="232" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="265"/>
-      <c r="C7" s="265"/>
-      <c r="D7" s="265"/>
-      <c r="E7" s="265"/>
-      <c r="F7" s="265"/>
+      <c r="B7" s="232"/>
+      <c r="C7" s="232"/>
+      <c r="D7" s="232"/>
+      <c r="E7" s="232"/>
+      <c r="F7" s="232"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="266"/>
-      <c r="B8" s="266"/>
-      <c r="C8" s="266"/>
-      <c r="D8" s="266"/>
-      <c r="E8" s="266"/>
-      <c r="F8" s="266"/>
+      <c r="A8" s="233"/>
+      <c r="B8" s="233"/>
+      <c r="C8" s="233"/>
+      <c r="D8" s="233"/>
+      <c r="E8" s="233"/>
+      <c r="F8" s="233"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="260"/>
-      <c r="B9" s="260"/>
-      <c r="C9" s="260"/>
-      <c r="D9" s="260"/>
-      <c r="E9" s="260"/>
-      <c r="F9" s="260"/>
+      <c r="A9" s="229"/>
+      <c r="B9" s="229"/>
+      <c r="C9" s="229"/>
+      <c r="D9" s="229"/>
+      <c r="E9" s="229"/>
+      <c r="F9" s="229"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="267"/>
-      <c r="B10" s="267"/>
-      <c r="C10" s="267"/>
-      <c r="D10" s="267"/>
-      <c r="E10" s="267"/>
-      <c r="F10" s="267"/>
+      <c r="A10" s="234"/>
+      <c r="B10" s="234"/>
+      <c r="C10" s="234"/>
+      <c r="D10" s="234"/>
+      <c r="E10" s="234"/>
+      <c r="F10" s="234"/>
     </row>
     <row r="11" spans="1:6" ht="22.5">
-      <c r="A11" s="268" t="s">
+      <c r="A11" s="235" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="268"/>
-      <c r="C11" s="268"/>
-      <c r="D11" s="268"/>
-      <c r="E11" s="268"/>
-      <c r="F11" s="268"/>
+      <c r="B11" s="235"/>
+      <c r="C11" s="235"/>
+      <c r="D11" s="235"/>
+      <c r="E11" s="235"/>
+      <c r="F11" s="235"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="266"/>
-      <c r="B12" s="266"/>
-      <c r="C12" s="266"/>
-      <c r="D12" s="266"/>
-      <c r="E12" s="266"/>
-      <c r="F12" s="266"/>
+      <c r="A12" s="233"/>
+      <c r="B12" s="233"/>
+      <c r="C12" s="233"/>
+      <c r="D12" s="233"/>
+      <c r="E12" s="233"/>
+      <c r="F12" s="233"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="60"/>
       <c r="B13" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="269" t="str">
+      <c r="C13" s="236" t="str">
         <f>REGISTRATION!C7</f>
         <v>DCIT 55</v>
       </c>
-      <c r="D13" s="269"/>
-      <c r="E13" s="269"/>
+      <c r="D13" s="236"/>
+      <c r="E13" s="236"/>
       <c r="F13" s="62"/>
     </row>
     <row r="14" spans="1:6">
@@ -26434,12 +26434,12 @@
       <c r="B14" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="262" t="str">
+      <c r="C14" s="228" t="str">
         <f>REGISTRATION!C6</f>
         <v>Operating System</v>
       </c>
-      <c r="D14" s="262"/>
-      <c r="E14" s="262"/>
+      <c r="D14" s="228"/>
+      <c r="E14" s="228"/>
       <c r="F14" s="62"/>
     </row>
     <row r="15" spans="1:6">
@@ -26447,12 +26447,12 @@
       <c r="B15" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="248" t="str">
+      <c r="C15" s="239" t="str">
         <f>REGISTRATION!A4</f>
         <v>FIRST YEAR</v>
       </c>
-      <c r="D15" s="248"/>
-      <c r="E15" s="248"/>
+      <c r="D15" s="239"/>
+      <c r="E15" s="239"/>
       <c r="F15" s="63"/>
     </row>
     <row r="16" spans="1:6">
@@ -26460,12 +26460,12 @@
       <c r="B16" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="248" t="str">
+      <c r="C16" s="239" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ",REGISTRATION!D8))</f>
         <v>CS 3B</v>
       </c>
-      <c r="D16" s="248"/>
-      <c r="E16" s="248"/>
+      <c r="D16" s="239"/>
+      <c r="E16" s="239"/>
       <c r="F16" s="63"/>
     </row>
     <row r="17" spans="1:6">
@@ -26473,12 +26473,12 @@
       <c r="B17" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="248" t="str">
+      <c r="C17" s="239" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!P13," ","SEMESTER"," ","A.Y."," ",REGISTRATION!P12))</f>
         <v>FIRST SEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="D17" s="248"/>
-      <c r="E17" s="248"/>
+      <c r="D17" s="239"/>
+      <c r="E17" s="239"/>
       <c r="F17" s="63"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
@@ -26490,42 +26490,42 @@
       <c r="F18" s="60"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="249" t="s">
+      <c r="A19" s="240" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="252" t="s">
+      <c r="B19" s="243" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="249" t="s">
+      <c r="C19" s="240" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="249" t="s">
+      <c r="D19" s="240" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="254" t="s">
+      <c r="E19" s="245" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="249" t="s">
+      <c r="F19" s="240" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="250"/>
-      <c r="B20" s="253"/>
-      <c r="C20" s="250"/>
-      <c r="D20" s="250"/>
-      <c r="E20" s="255"/>
-      <c r="F20" s="257"/>
+      <c r="A20" s="241"/>
+      <c r="B20" s="244"/>
+      <c r="C20" s="241"/>
+      <c r="D20" s="241"/>
+      <c r="E20" s="246"/>
+      <c r="F20" s="248"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A21" s="251"/>
+      <c r="A21" s="242"/>
       <c r="B21" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="251"/>
-      <c r="D21" s="251"/>
-      <c r="E21" s="256"/>
-      <c r="F21" s="258"/>
+      <c r="C21" s="242"/>
+      <c r="D21" s="242"/>
+      <c r="E21" s="247"/>
+      <c r="F21" s="249"/>
     </row>
     <row r="22" spans="1:6" ht="18">
       <c r="A22" s="65">
@@ -28038,14 +28038,14 @@
       <c r="F82" s="84"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A83" s="232" t="s">
+      <c r="A83" s="256" t="s">
         <v>119</v>
       </c>
-      <c r="B83" s="233"/>
-      <c r="C83" s="233"/>
-      <c r="D83" s="233"/>
-      <c r="E83" s="233"/>
-      <c r="F83" s="234"/>
+      <c r="B83" s="257"/>
+      <c r="C83" s="257"/>
+      <c r="D83" s="257"/>
+      <c r="E83" s="257"/>
+      <c r="F83" s="258"/>
     </row>
     <row r="84" spans="1:6" ht="15.75">
       <c r="A84" s="62"/>
@@ -28078,11 +28078,11 @@
       </c>
       <c r="C87" s="60"/>
       <c r="D87" s="60"/>
-      <c r="E87" s="259">
+      <c r="E87" s="250">
         <f ca="1">NOW()</f>
-        <v>43011.578123495368</v>
-      </c>
-      <c r="F87" s="259"/>
+        <v>43022.335008217589</v>
+      </c>
+      <c r="F87" s="250"/>
     </row>
     <row r="88" spans="1:6" ht="15.75">
       <c r="A88" s="60"/>
@@ -28092,10 +28092,10 @@
       </c>
       <c r="C88" s="73"/>
       <c r="D88" s="73"/>
-      <c r="E88" s="260" t="s">
+      <c r="E88" s="229" t="s">
         <v>121</v>
       </c>
-      <c r="F88" s="260"/>
+      <c r="F88" s="229"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="60"/>
@@ -28112,8 +28112,8 @@
       <c r="B90" s="74"/>
       <c r="C90" s="74"/>
       <c r="D90" s="74"/>
-      <c r="E90" s="260"/>
-      <c r="F90" s="260"/>
+      <c r="E90" s="229"/>
+      <c r="F90" s="229"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="60"/>
@@ -28229,14 +28229,14 @@
       <c r="F104" s="60"/>
     </row>
     <row r="105" spans="1:7" ht="15.75">
-      <c r="A105" s="261" t="s">
+      <c r="A105" s="251" t="s">
         <v>136</v>
       </c>
-      <c r="B105" s="261"/>
-      <c r="C105" s="261"/>
-      <c r="D105" s="261"/>
-      <c r="E105" s="261"/>
-      <c r="F105" s="261"/>
+      <c r="B105" s="251"/>
+      <c r="C105" s="251"/>
+      <c r="D105" s="251"/>
+      <c r="E105" s="251"/>
+      <c r="F105" s="251"/>
     </row>
     <row r="106" spans="1:7" ht="15.75" thickBot="1">
       <c r="A106" s="60"/>
@@ -28251,124 +28251,124 @@
       <c r="B107" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="C107" s="245" t="s">
+      <c r="C107" s="269" t="s">
         <v>138</v>
       </c>
-      <c r="D107" s="246"/>
-      <c r="E107" s="247" t="s">
+      <c r="D107" s="238"/>
+      <c r="E107" s="237" t="s">
         <v>139</v>
       </c>
-      <c r="F107" s="246"/>
+      <c r="F107" s="238"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="60"/>
       <c r="B108" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="C108" s="241">
+      <c r="C108" s="265">
         <f>COUNTIF($D$22:$D$82,"=1.0")+COUNTIF($D$22:$D$82,"=1.25")+(COUNTIF($D$22:$D$82,"=1.50")+COUNTIF($D$22:$D$82,"=1.75"))</f>
         <v>0</v>
       </c>
-      <c r="D108" s="242"/>
-      <c r="E108" s="243">
+      <c r="D108" s="266"/>
+      <c r="E108" s="267">
         <f>(C108/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F108" s="244"/>
+      <c r="F108" s="268"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="60"/>
       <c r="B109" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="C109" s="235">
+      <c r="C109" s="259">
         <f>COUNTIF($D$22:$D$82,"=2.0")+COUNTIF($D$22:$D$82,"=2.25")+(COUNTIF($D$22:$D$82,"=2.50")+COUNTIF($D$22:$D$82,"=2.75"))</f>
         <v>0</v>
       </c>
-      <c r="D109" s="236"/>
-      <c r="E109" s="237">
+      <c r="D109" s="260"/>
+      <c r="E109" s="261">
         <f>(C109/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F109" s="238"/>
+      <c r="F109" s="262"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="60"/>
       <c r="B110" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="C110" s="235">
+      <c r="C110" s="259">
         <f>COUNTIF($D$22:$D$82,"=3.0")</f>
         <v>0</v>
       </c>
-      <c r="D110" s="236"/>
-      <c r="E110" s="237">
+      <c r="D110" s="260"/>
+      <c r="E110" s="261">
         <f t="shared" ref="E110:E113" si="1">(C110/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F110" s="238"/>
+      <c r="F110" s="262"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="60"/>
       <c r="B111" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="C111" s="235">
+      <c r="C111" s="259">
         <f>COUNTIF($D$22:$D$82,"=5.0")</f>
         <v>60</v>
       </c>
-      <c r="D111" s="236"/>
-      <c r="E111" s="237">
+      <c r="D111" s="260"/>
+      <c r="E111" s="261">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F111" s="238"/>
+      <c r="F111" s="262"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="60"/>
       <c r="B112" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="C112" s="239">
-        <v>0</v>
-      </c>
-      <c r="D112" s="240"/>
-      <c r="E112" s="237">
+      <c r="C112" s="263">
+        <v>0</v>
+      </c>
+      <c r="D112" s="264"/>
+      <c r="E112" s="261">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F112" s="238"/>
+      <c r="F112" s="262"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="60"/>
       <c r="B113" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="C113" s="239">
-        <v>0</v>
-      </c>
-      <c r="D113" s="240"/>
-      <c r="E113" s="237">
+      <c r="C113" s="263">
+        <v>0</v>
+      </c>
+      <c r="D113" s="264"/>
+      <c r="E113" s="261">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F113" s="238"/>
+      <c r="F113" s="262"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" thickBot="1">
       <c r="A114" s="60"/>
       <c r="B114" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="C114" s="228">
+      <c r="C114" s="252">
         <f>SUM(C108:D113)</f>
         <v>60</v>
       </c>
-      <c r="D114" s="229"/>
-      <c r="E114" s="230">
+      <c r="D114" s="253"/>
+      <c r="E114" s="254">
         <f>SUM(E108:F113)</f>
         <v>100</v>
       </c>
-      <c r="F114" s="231"/>
+      <c r="F114" s="255"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="60"/>
@@ -28536,32 +28536,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="42">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="A105:F105"/>
     <mergeCell ref="C114:D114"/>
     <mergeCell ref="E114:F114"/>
     <mergeCell ref="A83:F83"/>
@@ -28578,6 +28552,32 @@
     <mergeCell ref="C110:D110"/>
     <mergeCell ref="E110:F110"/>
     <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <conditionalFormatting sqref="F22:F81">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">

--- a/DCIT 55 - CS 3B/LEC AND LAB - CS 3B.xlsx
+++ b/DCIT 55 - CS 3B/LEC AND LAB - CS 3B.xlsx
@@ -2245,36 +2245,106 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2315,112 +2385,129 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2461,93 +2548,6 @@
     </xf>
     <xf numFmtId="9" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2606,102 +2606,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2775,6 +2679,102 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3658,7 +3658,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3691,82 +3691,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
-      <c r="M2" s="169"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="169"/>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="169"/>
-      <c r="L3" s="169"/>
-      <c r="M3" s="169"/>
+      <c r="A3" s="135"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A4" s="164" t="s">
+      <c r="A4" s="127" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="164"/>
-      <c r="C4" s="164"/>
-      <c r="D4" s="164"/>
-      <c r="E4" s="164"/>
-      <c r="F4" s="164"/>
-      <c r="G4" s="164"/>
-      <c r="H4" s="164"/>
-      <c r="I4" s="164"/>
-      <c r="J4" s="164"/>
-      <c r="K4" s="164"/>
-      <c r="L4" s="164"/>
-      <c r="M4" s="164"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="127"/>
+      <c r="M4" s="127"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A5" s="163"/>
-      <c r="B5" s="163"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
+      <c r="A5" s="126"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="126" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="127"/>
-      <c r="C6" s="128" t="s">
+      <c r="A6" s="166" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="167"/>
+      <c r="C6" s="168" t="s">
         <v>228</v>
       </c>
-      <c r="D6" s="128"/>
-      <c r="E6" s="129" t="s">
+      <c r="D6" s="168"/>
+      <c r="E6" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="129"/>
+      <c r="F6" s="169"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -3774,28 +3774,28 @@
         <v>2</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="130" t="s">
+      <c r="J6" s="170" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="130"/>
-      <c r="L6" s="131"/>
-      <c r="M6" s="131"/>
+      <c r="K6" s="170"/>
+      <c r="L6" s="171"/>
+      <c r="M6" s="171"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="132" t="s">
+      <c r="A7" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="133"/>
+      <c r="B7" s="173"/>
       <c r="C7" s="3" t="s">
         <v>227</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="134" t="s">
+      <c r="E7" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="134"/>
+      <c r="F7" s="174"/>
       <c r="G7" s="5">
         <v>1</v>
       </c>
@@ -3803,28 +3803,28 @@
         <v>7</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="134" t="s">
+      <c r="J7" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="134"/>
-      <c r="L7" s="135"/>
-      <c r="M7" s="135"/>
+      <c r="K7" s="174"/>
+      <c r="L7" s="175"/>
+      <c r="M7" s="175"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A8" s="136" t="s">
+      <c r="A8" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="137"/>
+      <c r="B8" s="155"/>
       <c r="C8" s="8" t="s">
         <v>159</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E8" s="138" t="s">
+      <c r="E8" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="138"/>
+      <c r="F8" s="156"/>
       <c r="G8" s="10">
         <v>3</v>
       </c>
@@ -3832,45 +3832,45 @@
         <v>11</v>
       </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="138" t="s">
+      <c r="J8" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="138"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="139"/>
+      <c r="K8" s="156"/>
+      <c r="L8" s="157"/>
+      <c r="M8" s="157"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A9" s="140" t="s">
+      <c r="A9" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="142" t="s">
+      <c r="B9" s="160" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="144" t="s">
+      <c r="C9" s="162" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="145" t="s">
+      <c r="D9" s="162"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="145" t="s">
+      <c r="G9" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="147"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="148" t="s">
+      <c r="H9" s="165"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="149"/>
-      <c r="L9" s="148" t="s">
+      <c r="K9" s="150"/>
+      <c r="L9" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="149"/>
+      <c r="M9" s="150"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="141"/>
-      <c r="B10" s="143"/>
+      <c r="A10" s="159"/>
+      <c r="B10" s="161"/>
       <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
@@ -3880,14 +3880,14 @@
       <c r="E10" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="150"/>
-      <c r="K10" s="150"/>
-      <c r="L10" s="150"/>
-      <c r="M10" s="150"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="164"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="151"/>
+      <c r="K10" s="151"/>
+      <c r="L10" s="151"/>
+      <c r="M10" s="151"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="14">
@@ -3908,19 +3908,19 @@
       <c r="F11" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G11" s="155"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="157"/>
-      <c r="J11" s="158"/>
-      <c r="K11" s="159"/>
-      <c r="L11" s="155"/>
-      <c r="M11" s="157"/>
-      <c r="O11" s="170" t="s">
+      <c r="G11" s="142"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="144"/>
+      <c r="J11" s="152"/>
+      <c r="K11" s="153"/>
+      <c r="L11" s="142"/>
+      <c r="M11" s="144"/>
+      <c r="O11" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="171"/>
-      <c r="Q11" s="171"/>
-      <c r="R11" s="172"/>
+      <c r="P11" s="137"/>
+      <c r="Q11" s="137"/>
+      <c r="R11" s="138"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="14">
@@ -3941,21 +3941,21 @@
       <c r="F12" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G12" s="151"/>
-      <c r="H12" s="151"/>
-      <c r="I12" s="151"/>
-      <c r="J12" s="152"/>
-      <c r="K12" s="153"/>
-      <c r="L12" s="154"/>
-      <c r="M12" s="154"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="147"/>
+      <c r="K12" s="148"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="134"/>
       <c r="O12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="168" t="s">
+      <c r="P12" s="131" t="s">
         <v>160</v>
       </c>
-      <c r="Q12" s="168"/>
-      <c r="R12" s="168"/>
+      <c r="Q12" s="131"/>
+      <c r="R12" s="131"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="14">
@@ -3976,21 +3976,21 @@
       <c r="F13" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G13" s="151"/>
-      <c r="H13" s="151"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="152"/>
-      <c r="K13" s="153"/>
-      <c r="L13" s="154"/>
-      <c r="M13" s="154"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="147"/>
+      <c r="K13" s="148"/>
+      <c r="L13" s="134"/>
+      <c r="M13" s="134"/>
       <c r="O13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="168" t="s">
+      <c r="P13" s="131" t="s">
         <v>231</v>
       </c>
-      <c r="Q13" s="168"/>
-      <c r="R13" s="168"/>
+      <c r="Q13" s="131"/>
+      <c r="R13" s="131"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="14">
@@ -4009,21 +4009,21 @@
       <c r="F14" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G14" s="151"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="153"/>
-      <c r="L14" s="154"/>
-      <c r="M14" s="154"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="147"/>
+      <c r="K14" s="148"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="134"/>
       <c r="O14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="165" t="s">
+      <c r="P14" s="128" t="s">
         <v>161</v>
       </c>
-      <c r="Q14" s="166"/>
-      <c r="R14" s="167"/>
+      <c r="Q14" s="129"/>
+      <c r="R14" s="130"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="14">
@@ -4044,21 +4044,21 @@
       <c r="F15" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="152"/>
-      <c r="K15" s="153"/>
-      <c r="L15" s="154"/>
-      <c r="M15" s="154"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="147"/>
+      <c r="K15" s="148"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="134"/>
       <c r="O15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="165" t="s">
+      <c r="P15" s="128" t="s">
         <v>162</v>
       </c>
-      <c r="Q15" s="166"/>
-      <c r="R15" s="167"/>
+      <c r="Q15" s="129"/>
+      <c r="R15" s="130"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="14">
@@ -4079,21 +4079,21 @@
       <c r="F16" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="152"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="154"/>
-      <c r="M16" s="154"/>
+      <c r="G16" s="132"/>
+      <c r="H16" s="132"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="148"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="134"/>
       <c r="O16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="173" t="s">
+      <c r="P16" s="139" t="s">
         <v>230</v>
       </c>
-      <c r="Q16" s="174"/>
-      <c r="R16" s="175"/>
+      <c r="Q16" s="140"/>
+      <c r="R16" s="141"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="14">
@@ -4114,21 +4114,21 @@
       <c r="F17" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G17" s="151"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="152"/>
-      <c r="K17" s="153"/>
-      <c r="L17" s="154"/>
-      <c r="M17" s="154"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="147"/>
+      <c r="K17" s="148"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="134"/>
       <c r="O17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="165" t="s">
+      <c r="P17" s="128" t="s">
         <v>163</v>
       </c>
-      <c r="Q17" s="166"/>
-      <c r="R17" s="167"/>
+      <c r="Q17" s="129"/>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="14">
@@ -4149,13 +4149,13 @@
       <c r="F18" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G18" s="151"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="152"/>
-      <c r="K18" s="153"/>
-      <c r="L18" s="154"/>
-      <c r="M18" s="154"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="148"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="134"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="14">
@@ -4176,13 +4176,13 @@
       <c r="F19" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G19" s="151"/>
-      <c r="H19" s="151"/>
-      <c r="I19" s="151"/>
-      <c r="J19" s="152"/>
-      <c r="K19" s="153"/>
-      <c r="L19" s="154"/>
-      <c r="M19" s="154"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="147"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="134"/>
+      <c r="M19" s="134"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="14">
@@ -4203,13 +4203,13 @@
       <c r="F20" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
-      <c r="K20" s="153"/>
-      <c r="L20" s="154"/>
-      <c r="M20" s="154"/>
+      <c r="G20" s="132"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="147"/>
+      <c r="K20" s="148"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="134"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="14">
@@ -4230,13 +4230,13 @@
       <c r="F21" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
-      <c r="K21" s="153"/>
-      <c r="L21" s="154"/>
-      <c r="M21" s="154"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="147"/>
+      <c r="K21" s="148"/>
+      <c r="L21" s="134"/>
+      <c r="M21" s="134"/>
       <c r="P21" s="100" t="s">
         <v>143</v>
       </c>
@@ -4260,13 +4260,13 @@
       <c r="F22" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="152"/>
-      <c r="K22" s="153"/>
-      <c r="L22" s="154"/>
-      <c r="M22" s="154"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="147"/>
+      <c r="K22" s="148"/>
+      <c r="L22" s="134"/>
+      <c r="M22" s="134"/>
       <c r="P22" s="101">
         <v>0</v>
       </c>
@@ -4293,13 +4293,13 @@
       <c r="F23" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G23" s="151"/>
-      <c r="H23" s="151"/>
-      <c r="I23" s="151"/>
-      <c r="J23" s="152"/>
-      <c r="K23" s="153"/>
-      <c r="L23" s="154"/>
-      <c r="M23" s="154"/>
+      <c r="G23" s="132"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="147"/>
+      <c r="K23" s="148"/>
+      <c r="L23" s="134"/>
+      <c r="M23" s="134"/>
       <c r="P23" s="102">
         <v>70</v>
       </c>
@@ -4326,13 +4326,13 @@
       <c r="F24" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G24" s="151"/>
-      <c r="H24" s="151"/>
-      <c r="I24" s="151"/>
-      <c r="J24" s="152"/>
-      <c r="K24" s="153"/>
-      <c r="L24" s="154"/>
-      <c r="M24" s="154"/>
+      <c r="G24" s="132"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="147"/>
+      <c r="K24" s="148"/>
+      <c r="L24" s="134"/>
+      <c r="M24" s="134"/>
       <c r="P24" s="102">
         <v>73.34</v>
       </c>
@@ -4359,13 +4359,13 @@
       <c r="F25" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G25" s="151"/>
-      <c r="H25" s="151"/>
-      <c r="I25" s="151"/>
-      <c r="J25" s="152"/>
-      <c r="K25" s="153"/>
-      <c r="L25" s="154"/>
-      <c r="M25" s="154"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="134"/>
+      <c r="M25" s="134"/>
       <c r="P25" s="102">
         <v>76.680000000000007</v>
       </c>
@@ -4392,13 +4392,13 @@
       <c r="F26" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="152"/>
-      <c r="K26" s="153"/>
-      <c r="L26" s="154"/>
-      <c r="M26" s="154"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="132"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="147"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="134"/>
+      <c r="M26" s="134"/>
       <c r="P26" s="102">
         <v>80.02</v>
       </c>
@@ -4425,13 +4425,13 @@
       <c r="F27" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="152"/>
-      <c r="K27" s="153"/>
-      <c r="L27" s="154"/>
-      <c r="M27" s="154"/>
+      <c r="G27" s="132"/>
+      <c r="H27" s="132"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="147"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="134"/>
+      <c r="M27" s="134"/>
       <c r="P27" s="102">
         <v>83.36</v>
       </c>
@@ -4458,13 +4458,13 @@
       <c r="F28" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G28" s="155"/>
-      <c r="H28" s="156"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="160"/>
-      <c r="K28" s="161"/>
-      <c r="L28" s="154"/>
-      <c r="M28" s="154"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="144"/>
+      <c r="J28" s="145"/>
+      <c r="K28" s="146"/>
+      <c r="L28" s="134"/>
+      <c r="M28" s="134"/>
       <c r="P28" s="102">
         <v>86.7</v>
       </c>
@@ -4491,13 +4491,13 @@
       <c r="F29" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G29" s="155"/>
-      <c r="H29" s="156"/>
-      <c r="I29" s="157"/>
-      <c r="J29" s="160"/>
-      <c r="K29" s="161"/>
-      <c r="L29" s="154"/>
-      <c r="M29" s="154"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="144"/>
+      <c r="J29" s="145"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="134"/>
+      <c r="M29" s="134"/>
       <c r="P29" s="102">
         <v>90.04</v>
       </c>
@@ -4524,13 +4524,13 @@
       <c r="F30" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G30" s="155"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="160"/>
-      <c r="K30" s="161"/>
-      <c r="L30" s="154"/>
-      <c r="M30" s="154"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="143"/>
+      <c r="I30" s="144"/>
+      <c r="J30" s="145"/>
+      <c r="K30" s="146"/>
+      <c r="L30" s="134"/>
+      <c r="M30" s="134"/>
       <c r="P30" s="102">
         <v>93.38</v>
       </c>
@@ -4557,13 +4557,13 @@
       <c r="F31" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G31" s="155"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="157"/>
-      <c r="J31" s="160"/>
-      <c r="K31" s="161"/>
-      <c r="L31" s="154"/>
-      <c r="M31" s="154"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="143"/>
+      <c r="I31" s="144"/>
+      <c r="J31" s="145"/>
+      <c r="K31" s="146"/>
+      <c r="L31" s="134"/>
+      <c r="M31" s="134"/>
       <c r="P31" s="101"/>
       <c r="Q31" s="101"/>
     </row>
@@ -4578,13 +4578,13 @@
       <c r="F32" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G32" s="155"/>
-      <c r="H32" s="156"/>
-      <c r="I32" s="157"/>
-      <c r="J32" s="160"/>
-      <c r="K32" s="161"/>
-      <c r="L32" s="154"/>
-      <c r="M32" s="154"/>
+      <c r="G32" s="142"/>
+      <c r="H32" s="143"/>
+      <c r="I32" s="144"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="134"/>
+      <c r="M32" s="134"/>
       <c r="P32" s="101">
         <v>96.72</v>
       </c>
@@ -4603,13 +4603,13 @@
       <c r="F33" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G33" s="155"/>
-      <c r="H33" s="156"/>
-      <c r="I33" s="157"/>
-      <c r="J33" s="160"/>
-      <c r="K33" s="161"/>
-      <c r="L33" s="154"/>
-      <c r="M33" s="154"/>
+      <c r="G33" s="142"/>
+      <c r="H33" s="143"/>
+      <c r="I33" s="144"/>
+      <c r="J33" s="145"/>
+      <c r="K33" s="146"/>
+      <c r="L33" s="134"/>
+      <c r="M33" s="134"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="14">
@@ -4622,13 +4622,13 @@
       <c r="F34" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G34" s="155"/>
-      <c r="H34" s="156"/>
-      <c r="I34" s="157"/>
-      <c r="J34" s="160"/>
-      <c r="K34" s="161"/>
-      <c r="L34" s="154"/>
-      <c r="M34" s="154"/>
+      <c r="G34" s="142"/>
+      <c r="H34" s="143"/>
+      <c r="I34" s="144"/>
+      <c r="J34" s="145"/>
+      <c r="K34" s="146"/>
+      <c r="L34" s="134"/>
+      <c r="M34" s="134"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="14">
@@ -4639,13 +4639,13 @@
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
       <c r="F35" s="16"/>
-      <c r="G35" s="155"/>
-      <c r="H35" s="156"/>
-      <c r="I35" s="157"/>
-      <c r="J35" s="160"/>
-      <c r="K35" s="161"/>
-      <c r="L35" s="154"/>
-      <c r="M35" s="154"/>
+      <c r="G35" s="142"/>
+      <c r="H35" s="143"/>
+      <c r="I35" s="144"/>
+      <c r="J35" s="145"/>
+      <c r="K35" s="146"/>
+      <c r="L35" s="134"/>
+      <c r="M35" s="134"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="14">
@@ -4656,13 +4656,13 @@
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="16"/>
-      <c r="G36" s="155"/>
-      <c r="H36" s="156"/>
-      <c r="I36" s="157"/>
-      <c r="J36" s="160"/>
-      <c r="K36" s="161"/>
-      <c r="L36" s="154"/>
-      <c r="M36" s="154"/>
+      <c r="G36" s="142"/>
+      <c r="H36" s="143"/>
+      <c r="I36" s="144"/>
+      <c r="J36" s="145"/>
+      <c r="K36" s="146"/>
+      <c r="L36" s="134"/>
+      <c r="M36" s="134"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="14">
@@ -4673,13 +4673,13 @@
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="16"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="162"/>
-      <c r="K37" s="162"/>
-      <c r="L37" s="154"/>
-      <c r="M37" s="154"/>
+      <c r="G37" s="132"/>
+      <c r="H37" s="132"/>
+      <c r="I37" s="132"/>
+      <c r="J37" s="133"/>
+      <c r="K37" s="133"/>
+      <c r="L37" s="134"/>
+      <c r="M37" s="134"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="14">
@@ -4690,13 +4690,13 @@
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="16"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="162"/>
-      <c r="K38" s="162"/>
-      <c r="L38" s="154"/>
-      <c r="M38" s="154"/>
+      <c r="G38" s="132"/>
+      <c r="H38" s="132"/>
+      <c r="I38" s="132"/>
+      <c r="J38" s="133"/>
+      <c r="K38" s="133"/>
+      <c r="L38" s="134"/>
+      <c r="M38" s="134"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="14">
@@ -4707,13 +4707,13 @@
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
       <c r="F39" s="16"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="162"/>
-      <c r="K39" s="162"/>
-      <c r="L39" s="154"/>
-      <c r="M39" s="154"/>
+      <c r="G39" s="132"/>
+      <c r="H39" s="132"/>
+      <c r="I39" s="132"/>
+      <c r="J39" s="133"/>
+      <c r="K39" s="133"/>
+      <c r="L39" s="134"/>
+      <c r="M39" s="134"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="14">
@@ -4724,13 +4724,13 @@
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="162"/>
-      <c r="K40" s="162"/>
-      <c r="L40" s="154"/>
-      <c r="M40" s="154"/>
+      <c r="G40" s="132"/>
+      <c r="H40" s="132"/>
+      <c r="I40" s="132"/>
+      <c r="J40" s="133"/>
+      <c r="K40" s="133"/>
+      <c r="L40" s="134"/>
+      <c r="M40" s="134"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="14">
@@ -4741,13 +4741,13 @@
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="162"/>
-      <c r="K41" s="162"/>
-      <c r="L41" s="154"/>
-      <c r="M41" s="154"/>
+      <c r="G41" s="132"/>
+      <c r="H41" s="132"/>
+      <c r="I41" s="132"/>
+      <c r="J41" s="133"/>
+      <c r="K41" s="133"/>
+      <c r="L41" s="134"/>
+      <c r="M41" s="134"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="14">
@@ -4758,13 +4758,13 @@
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="162"/>
-      <c r="K42" s="162"/>
-      <c r="L42" s="154"/>
-      <c r="M42" s="154"/>
+      <c r="G42" s="132"/>
+      <c r="H42" s="132"/>
+      <c r="I42" s="132"/>
+      <c r="J42" s="133"/>
+      <c r="K42" s="133"/>
+      <c r="L42" s="134"/>
+      <c r="M42" s="134"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="14">
@@ -4775,13 +4775,13 @@
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="162"/>
-      <c r="K43" s="162"/>
-      <c r="L43" s="154"/>
-      <c r="M43" s="154"/>
+      <c r="G43" s="132"/>
+      <c r="H43" s="132"/>
+      <c r="I43" s="132"/>
+      <c r="J43" s="133"/>
+      <c r="K43" s="133"/>
+      <c r="L43" s="134"/>
+      <c r="M43" s="134"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="14">
@@ -4792,13 +4792,13 @@
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="151"/>
-      <c r="H44" s="151"/>
-      <c r="I44" s="151"/>
-      <c r="J44" s="162"/>
-      <c r="K44" s="162"/>
-      <c r="L44" s="154"/>
-      <c r="M44" s="154"/>
+      <c r="G44" s="132"/>
+      <c r="H44" s="132"/>
+      <c r="I44" s="132"/>
+      <c r="J44" s="133"/>
+      <c r="K44" s="133"/>
+      <c r="L44" s="134"/>
+      <c r="M44" s="134"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="14">
@@ -4809,13 +4809,13 @@
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="16"/>
-      <c r="G45" s="151"/>
-      <c r="H45" s="151"/>
-      <c r="I45" s="151"/>
-      <c r="J45" s="162"/>
-      <c r="K45" s="162"/>
-      <c r="L45" s="154"/>
-      <c r="M45" s="154"/>
+      <c r="G45" s="132"/>
+      <c r="H45" s="132"/>
+      <c r="I45" s="132"/>
+      <c r="J45" s="133"/>
+      <c r="K45" s="133"/>
+      <c r="L45" s="134"/>
+      <c r="M45" s="134"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="14">
@@ -4826,13 +4826,13 @@
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="151"/>
-      <c r="H46" s="151"/>
-      <c r="I46" s="151"/>
-      <c r="J46" s="162"/>
-      <c r="K46" s="162"/>
-      <c r="L46" s="154"/>
-      <c r="M46" s="154"/>
+      <c r="G46" s="132"/>
+      <c r="H46" s="132"/>
+      <c r="I46" s="132"/>
+      <c r="J46" s="133"/>
+      <c r="K46" s="133"/>
+      <c r="L46" s="134"/>
+      <c r="M46" s="134"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="14">
@@ -4843,13 +4843,13 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="151"/>
-      <c r="H47" s="151"/>
-      <c r="I47" s="151"/>
-      <c r="J47" s="162"/>
-      <c r="K47" s="162"/>
-      <c r="L47" s="154"/>
-      <c r="M47" s="154"/>
+      <c r="G47" s="132"/>
+      <c r="H47" s="132"/>
+      <c r="I47" s="132"/>
+      <c r="J47" s="133"/>
+      <c r="K47" s="133"/>
+      <c r="L47" s="134"/>
+      <c r="M47" s="134"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="14">
@@ -4860,13 +4860,13 @@
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="151"/>
-      <c r="H48" s="151"/>
-      <c r="I48" s="151"/>
-      <c r="J48" s="162"/>
-      <c r="K48" s="162"/>
-      <c r="L48" s="154"/>
-      <c r="M48" s="154"/>
+      <c r="G48" s="132"/>
+      <c r="H48" s="132"/>
+      <c r="I48" s="132"/>
+      <c r="J48" s="133"/>
+      <c r="K48" s="133"/>
+      <c r="L48" s="134"/>
+      <c r="M48" s="134"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="14">
@@ -4877,13 +4877,13 @@
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="16"/>
-      <c r="G49" s="151"/>
-      <c r="H49" s="151"/>
-      <c r="I49" s="151"/>
-      <c r="J49" s="162"/>
-      <c r="K49" s="162"/>
-      <c r="L49" s="154"/>
-      <c r="M49" s="154"/>
+      <c r="G49" s="132"/>
+      <c r="H49" s="132"/>
+      <c r="I49" s="132"/>
+      <c r="J49" s="133"/>
+      <c r="K49" s="133"/>
+      <c r="L49" s="134"/>
+      <c r="M49" s="134"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="14">
@@ -4894,13 +4894,13 @@
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="16"/>
-      <c r="G50" s="151"/>
-      <c r="H50" s="151"/>
-      <c r="I50" s="151"/>
-      <c r="J50" s="162"/>
-      <c r="K50" s="162"/>
-      <c r="L50" s="154"/>
-      <c r="M50" s="154"/>
+      <c r="G50" s="132"/>
+      <c r="H50" s="132"/>
+      <c r="I50" s="132"/>
+      <c r="J50" s="133"/>
+      <c r="K50" s="133"/>
+      <c r="L50" s="134"/>
+      <c r="M50" s="134"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="14">
@@ -4911,13 +4911,13 @@
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="16"/>
-      <c r="G51" s="151"/>
-      <c r="H51" s="151"/>
-      <c r="I51" s="151"/>
-      <c r="J51" s="162"/>
-      <c r="K51" s="162"/>
-      <c r="L51" s="154"/>
-      <c r="M51" s="154"/>
+      <c r="G51" s="132"/>
+      <c r="H51" s="132"/>
+      <c r="I51" s="132"/>
+      <c r="J51" s="133"/>
+      <c r="K51" s="133"/>
+      <c r="L51" s="134"/>
+      <c r="M51" s="134"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="14">
@@ -4928,13 +4928,13 @@
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="151"/>
-      <c r="H52" s="151"/>
-      <c r="I52" s="151"/>
-      <c r="J52" s="162"/>
-      <c r="K52" s="162"/>
-      <c r="L52" s="154"/>
-      <c r="M52" s="154"/>
+      <c r="G52" s="132"/>
+      <c r="H52" s="132"/>
+      <c r="I52" s="132"/>
+      <c r="J52" s="133"/>
+      <c r="K52" s="133"/>
+      <c r="L52" s="134"/>
+      <c r="M52" s="134"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="14">
@@ -4945,13 +4945,13 @@
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="151"/>
-      <c r="H53" s="151"/>
-      <c r="I53" s="151"/>
-      <c r="J53" s="162"/>
-      <c r="K53" s="162"/>
-      <c r="L53" s="154"/>
-      <c r="M53" s="154"/>
+      <c r="G53" s="132"/>
+      <c r="H53" s="132"/>
+      <c r="I53" s="132"/>
+      <c r="J53" s="133"/>
+      <c r="K53" s="133"/>
+      <c r="L53" s="134"/>
+      <c r="M53" s="134"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="14">
@@ -4962,13 +4962,13 @@
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="16"/>
-      <c r="G54" s="151"/>
-      <c r="H54" s="151"/>
-      <c r="I54" s="151"/>
-      <c r="J54" s="162"/>
-      <c r="K54" s="162"/>
-      <c r="L54" s="154"/>
-      <c r="M54" s="154"/>
+      <c r="G54" s="132"/>
+      <c r="H54" s="132"/>
+      <c r="I54" s="132"/>
+      <c r="J54" s="133"/>
+      <c r="K54" s="133"/>
+      <c r="L54" s="134"/>
+      <c r="M54" s="134"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="14">
@@ -4979,13 +4979,13 @@
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="16"/>
-      <c r="G55" s="151"/>
-      <c r="H55" s="151"/>
-      <c r="I55" s="151"/>
-      <c r="J55" s="162"/>
-      <c r="K55" s="162"/>
-      <c r="L55" s="154"/>
-      <c r="M55" s="154"/>
+      <c r="G55" s="132"/>
+      <c r="H55" s="132"/>
+      <c r="I55" s="132"/>
+      <c r="J55" s="133"/>
+      <c r="K55" s="133"/>
+      <c r="L55" s="134"/>
+      <c r="M55" s="134"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="14">
@@ -4996,13 +4996,13 @@
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="F56" s="16"/>
-      <c r="G56" s="151"/>
-      <c r="H56" s="151"/>
-      <c r="I56" s="151"/>
-      <c r="J56" s="162"/>
-      <c r="K56" s="162"/>
-      <c r="L56" s="154"/>
-      <c r="M56" s="154"/>
+      <c r="G56" s="132"/>
+      <c r="H56" s="132"/>
+      <c r="I56" s="132"/>
+      <c r="J56" s="133"/>
+      <c r="K56" s="133"/>
+      <c r="L56" s="134"/>
+      <c r="M56" s="134"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="14">
@@ -5013,13 +5013,13 @@
       <c r="D57" s="90"/>
       <c r="E57" s="90"/>
       <c r="F57" s="16"/>
-      <c r="G57" s="151"/>
-      <c r="H57" s="151"/>
-      <c r="I57" s="151"/>
-      <c r="J57" s="162"/>
-      <c r="K57" s="162"/>
-      <c r="L57" s="154"/>
-      <c r="M57" s="154"/>
+      <c r="G57" s="132"/>
+      <c r="H57" s="132"/>
+      <c r="I57" s="132"/>
+      <c r="J57" s="133"/>
+      <c r="K57" s="133"/>
+      <c r="L57" s="134"/>
+      <c r="M57" s="134"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="14">
@@ -5030,13 +5030,13 @@
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="16"/>
-      <c r="G58" s="151"/>
-      <c r="H58" s="151"/>
-      <c r="I58" s="151"/>
-      <c r="J58" s="162"/>
-      <c r="K58" s="162"/>
-      <c r="L58" s="154"/>
-      <c r="M58" s="154"/>
+      <c r="G58" s="132"/>
+      <c r="H58" s="132"/>
+      <c r="I58" s="132"/>
+      <c r="J58" s="133"/>
+      <c r="K58" s="133"/>
+      <c r="L58" s="134"/>
+      <c r="M58" s="134"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="14">
@@ -5047,13 +5047,13 @@
       <c r="D59" s="90"/>
       <c r="E59" s="90"/>
       <c r="F59" s="16"/>
-      <c r="G59" s="151"/>
-      <c r="H59" s="151"/>
-      <c r="I59" s="151"/>
-      <c r="J59" s="162"/>
-      <c r="K59" s="162"/>
-      <c r="L59" s="154"/>
-      <c r="M59" s="154"/>
+      <c r="G59" s="132"/>
+      <c r="H59" s="132"/>
+      <c r="I59" s="132"/>
+      <c r="J59" s="133"/>
+      <c r="K59" s="133"/>
+      <c r="L59" s="134"/>
+      <c r="M59" s="134"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="14">
@@ -5064,13 +5064,13 @@
       <c r="D60" s="90"/>
       <c r="E60" s="90"/>
       <c r="F60" s="16"/>
-      <c r="G60" s="151"/>
-      <c r="H60" s="151"/>
-      <c r="I60" s="151"/>
-      <c r="J60" s="162"/>
-      <c r="K60" s="162"/>
-      <c r="L60" s="154"/>
-      <c r="M60" s="154"/>
+      <c r="G60" s="132"/>
+      <c r="H60" s="132"/>
+      <c r="I60" s="132"/>
+      <c r="J60" s="133"/>
+      <c r="K60" s="133"/>
+      <c r="L60" s="134"/>
+      <c r="M60" s="134"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="14">
@@ -5081,13 +5081,13 @@
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="16"/>
-      <c r="G61" s="151"/>
-      <c r="H61" s="151"/>
-      <c r="I61" s="151"/>
-      <c r="J61" s="162"/>
-      <c r="K61" s="162"/>
-      <c r="L61" s="154"/>
-      <c r="M61" s="154"/>
+      <c r="G61" s="132"/>
+      <c r="H61" s="132"/>
+      <c r="I61" s="132"/>
+      <c r="J61" s="133"/>
+      <c r="K61" s="133"/>
+      <c r="L61" s="134"/>
+      <c r="M61" s="134"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="14">
@@ -5098,13 +5098,13 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="16"/>
-      <c r="G62" s="151"/>
-      <c r="H62" s="151"/>
-      <c r="I62" s="151"/>
-      <c r="J62" s="162"/>
-      <c r="K62" s="162"/>
-      <c r="L62" s="154"/>
-      <c r="M62" s="154"/>
+      <c r="G62" s="132"/>
+      <c r="H62" s="132"/>
+      <c r="I62" s="132"/>
+      <c r="J62" s="133"/>
+      <c r="K62" s="133"/>
+      <c r="L62" s="134"/>
+      <c r="M62" s="134"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="14">
@@ -5115,13 +5115,13 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="16"/>
-      <c r="G63" s="151"/>
-      <c r="H63" s="151"/>
-      <c r="I63" s="151"/>
-      <c r="J63" s="162"/>
-      <c r="K63" s="162"/>
-      <c r="L63" s="154"/>
-      <c r="M63" s="154"/>
+      <c r="G63" s="132"/>
+      <c r="H63" s="132"/>
+      <c r="I63" s="132"/>
+      <c r="J63" s="133"/>
+      <c r="K63" s="133"/>
+      <c r="L63" s="134"/>
+      <c r="M63" s="134"/>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="14">
@@ -5132,13 +5132,13 @@
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="16"/>
-      <c r="G64" s="151"/>
-      <c r="H64" s="151"/>
-      <c r="I64" s="151"/>
-      <c r="J64" s="162"/>
-      <c r="K64" s="162"/>
-      <c r="L64" s="154"/>
-      <c r="M64" s="154"/>
+      <c r="G64" s="132"/>
+      <c r="H64" s="132"/>
+      <c r="I64" s="132"/>
+      <c r="J64" s="133"/>
+      <c r="K64" s="133"/>
+      <c r="L64" s="134"/>
+      <c r="M64" s="134"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="14">
@@ -5149,13 +5149,13 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="16"/>
-      <c r="G65" s="151"/>
-      <c r="H65" s="151"/>
-      <c r="I65" s="151"/>
-      <c r="J65" s="162"/>
-      <c r="K65" s="162"/>
-      <c r="L65" s="154"/>
-      <c r="M65" s="154"/>
+      <c r="G65" s="132"/>
+      <c r="H65" s="132"/>
+      <c r="I65" s="132"/>
+      <c r="J65" s="133"/>
+      <c r="K65" s="133"/>
+      <c r="L65" s="134"/>
+      <c r="M65" s="134"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="14">
@@ -5166,13 +5166,13 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="16"/>
-      <c r="G66" s="151"/>
-      <c r="H66" s="151"/>
-      <c r="I66" s="151"/>
-      <c r="J66" s="162"/>
-      <c r="K66" s="162"/>
-      <c r="L66" s="154"/>
-      <c r="M66" s="154"/>
+      <c r="G66" s="132"/>
+      <c r="H66" s="132"/>
+      <c r="I66" s="132"/>
+      <c r="J66" s="133"/>
+      <c r="K66" s="133"/>
+      <c r="L66" s="134"/>
+      <c r="M66" s="134"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="14">
@@ -5183,13 +5183,13 @@
       <c r="D67" s="15"/>
       <c r="E67" s="90"/>
       <c r="F67" s="16"/>
-      <c r="G67" s="151"/>
-      <c r="H67" s="151"/>
-      <c r="I67" s="151"/>
-      <c r="J67" s="162"/>
-      <c r="K67" s="162"/>
-      <c r="L67" s="154"/>
-      <c r="M67" s="154"/>
+      <c r="G67" s="132"/>
+      <c r="H67" s="132"/>
+      <c r="I67" s="132"/>
+      <c r="J67" s="133"/>
+      <c r="K67" s="133"/>
+      <c r="L67" s="134"/>
+      <c r="M67" s="134"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="14">
@@ -5200,13 +5200,13 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="16"/>
-      <c r="G68" s="151"/>
-      <c r="H68" s="151"/>
-      <c r="I68" s="151"/>
-      <c r="J68" s="162"/>
-      <c r="K68" s="162"/>
-      <c r="L68" s="154"/>
-      <c r="M68" s="154"/>
+      <c r="G68" s="132"/>
+      <c r="H68" s="132"/>
+      <c r="I68" s="132"/>
+      <c r="J68" s="133"/>
+      <c r="K68" s="133"/>
+      <c r="L68" s="134"/>
+      <c r="M68" s="134"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="14">
@@ -5217,13 +5217,13 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="16"/>
-      <c r="G69" s="151"/>
-      <c r="H69" s="151"/>
-      <c r="I69" s="151"/>
-      <c r="J69" s="162"/>
-      <c r="K69" s="162"/>
-      <c r="L69" s="154"/>
-      <c r="M69" s="154"/>
+      <c r="G69" s="132"/>
+      <c r="H69" s="132"/>
+      <c r="I69" s="132"/>
+      <c r="J69" s="133"/>
+      <c r="K69" s="133"/>
+      <c r="L69" s="134"/>
+      <c r="M69" s="134"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="14">
@@ -5234,13 +5234,13 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="16"/>
-      <c r="G70" s="151"/>
-      <c r="H70" s="151"/>
-      <c r="I70" s="151"/>
-      <c r="J70" s="162"/>
-      <c r="K70" s="162"/>
-      <c r="L70" s="154"/>
-      <c r="M70" s="154"/>
+      <c r="G70" s="132"/>
+      <c r="H70" s="132"/>
+      <c r="I70" s="132"/>
+      <c r="J70" s="133"/>
+      <c r="K70" s="133"/>
+      <c r="L70" s="134"/>
+      <c r="M70" s="134"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="14">
@@ -5251,13 +5251,13 @@
       <c r="D71" s="90"/>
       <c r="E71" s="90"/>
       <c r="F71" s="16"/>
-      <c r="G71" s="151"/>
-      <c r="H71" s="151"/>
-      <c r="I71" s="151"/>
-      <c r="J71" s="162"/>
-      <c r="K71" s="162"/>
-      <c r="L71" s="154"/>
-      <c r="M71" s="154"/>
+      <c r="G71" s="132"/>
+      <c r="H71" s="132"/>
+      <c r="I71" s="132"/>
+      <c r="J71" s="133"/>
+      <c r="K71" s="133"/>
+      <c r="L71" s="134"/>
+      <c r="M71" s="134"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -5265,6 +5265,195 @@
     <sortCondition ref="C11:C33"/>
   </sortState>
   <mergeCells count="213">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:I10"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="P15:R15"/>
@@ -5289,195 +5478,6 @@
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="G68:I68"/>
     <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:I10"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <conditionalFormatting sqref="B23:B71">
     <cfRule type="cellIs" dxfId="46" priority="51" stopIfTrue="1" operator="equal">
@@ -5719,8 +5719,8 @@
   <dimension ref="A2:CU70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="CS1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CS30" sqref="CS30"/>
+      <pane xSplit="3" topLeftCell="BV1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BV29" sqref="BV29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5734,452 +5734,452 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:99" ht="15" customHeight="1">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="135" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="169"/>
-      <c r="O2" s="169"/>
-      <c r="P2" s="169"/>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="169"/>
-      <c r="S2" s="169"/>
-      <c r="T2" s="169"/>
-      <c r="U2" s="169"/>
-      <c r="V2" s="169"/>
-      <c r="W2" s="169"/>
-      <c r="X2" s="169"/>
-      <c r="Y2" s="169"/>
-      <c r="Z2" s="169"/>
-      <c r="AA2" s="169"/>
-      <c r="AB2" s="169"/>
-      <c r="AC2" s="169"/>
-      <c r="AD2" s="169"/>
-      <c r="AE2" s="169"/>
-      <c r="AF2" s="169"/>
-      <c r="AG2" s="169"/>
-      <c r="AH2" s="169"/>
-      <c r="AI2" s="169"/>
-      <c r="AJ2" s="169"/>
-      <c r="AK2" s="169"/>
-      <c r="AL2" s="169"/>
-      <c r="AM2" s="169"/>
-      <c r="AN2" s="169"/>
-      <c r="AO2" s="169"/>
-      <c r="AP2" s="169"/>
-      <c r="AQ2" s="169"/>
-      <c r="AR2" s="169"/>
-      <c r="AS2" s="169"/>
-      <c r="AT2" s="169"/>
-      <c r="AU2" s="169"/>
-      <c r="AV2" s="169"/>
-      <c r="AW2" s="169"/>
-      <c r="AX2" s="169"/>
-      <c r="AY2" s="169"/>
-      <c r="AZ2" s="169"/>
-      <c r="BA2" s="169"/>
-      <c r="BB2" s="169"/>
-      <c r="BC2" s="169"/>
-      <c r="BD2" s="169"/>
-      <c r="BE2" s="169"/>
-      <c r="BF2" s="169"/>
-      <c r="BG2" s="169"/>
-      <c r="BH2" s="169"/>
-      <c r="BI2" s="169"/>
-      <c r="BJ2" s="169"/>
-      <c r="BK2" s="169"/>
-      <c r="BL2" s="169"/>
-      <c r="BM2" s="169"/>
-      <c r="BN2" s="169"/>
-      <c r="BO2" s="169"/>
-      <c r="BP2" s="169"/>
-      <c r="BQ2" s="169"/>
-      <c r="BR2" s="169"/>
-      <c r="BS2" s="169"/>
-      <c r="BT2" s="169"/>
-      <c r="BU2" s="169"/>
-      <c r="BV2" s="169"/>
-      <c r="BW2" s="169"/>
-      <c r="BX2" s="169"/>
-      <c r="BY2" s="169"/>
-      <c r="BZ2" s="169"/>
-      <c r="CA2" s="169"/>
-      <c r="CB2" s="169"/>
-      <c r="CC2" s="169"/>
-      <c r="CD2" s="169"/>
-      <c r="CE2" s="169"/>
-      <c r="CF2" s="169"/>
-      <c r="CG2" s="169"/>
-      <c r="CH2" s="169"/>
-      <c r="CI2" s="169"/>
-      <c r="CJ2" s="169"/>
-      <c r="CK2" s="169"/>
-      <c r="CL2" s="169"/>
-      <c r="CM2" s="169"/>
-      <c r="CN2" s="169"/>
-      <c r="CO2" s="169"/>
-      <c r="CP2" s="169"/>
-      <c r="CQ2" s="169"/>
-      <c r="CR2" s="169"/>
-      <c r="CS2" s="169"/>
-      <c r="CT2" s="169"/>
-      <c r="CU2" s="169"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="135"/>
+      <c r="U2" s="135"/>
+      <c r="V2" s="135"/>
+      <c r="W2" s="135"/>
+      <c r="X2" s="135"/>
+      <c r="Y2" s="135"/>
+      <c r="Z2" s="135"/>
+      <c r="AA2" s="135"/>
+      <c r="AB2" s="135"/>
+      <c r="AC2" s="135"/>
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="135"/>
+      <c r="AH2" s="135"/>
+      <c r="AI2" s="135"/>
+      <c r="AJ2" s="135"/>
+      <c r="AK2" s="135"/>
+      <c r="AL2" s="135"/>
+      <c r="AM2" s="135"/>
+      <c r="AN2" s="135"/>
+      <c r="AO2" s="135"/>
+      <c r="AP2" s="135"/>
+      <c r="AQ2" s="135"/>
+      <c r="AR2" s="135"/>
+      <c r="AS2" s="135"/>
+      <c r="AT2" s="135"/>
+      <c r="AU2" s="135"/>
+      <c r="AV2" s="135"/>
+      <c r="AW2" s="135"/>
+      <c r="AX2" s="135"/>
+      <c r="AY2" s="135"/>
+      <c r="AZ2" s="135"/>
+      <c r="BA2" s="135"/>
+      <c r="BB2" s="135"/>
+      <c r="BC2" s="135"/>
+      <c r="BD2" s="135"/>
+      <c r="BE2" s="135"/>
+      <c r="BF2" s="135"/>
+      <c r="BG2" s="135"/>
+      <c r="BH2" s="135"/>
+      <c r="BI2" s="135"/>
+      <c r="BJ2" s="135"/>
+      <c r="BK2" s="135"/>
+      <c r="BL2" s="135"/>
+      <c r="BM2" s="135"/>
+      <c r="BN2" s="135"/>
+      <c r="BO2" s="135"/>
+      <c r="BP2" s="135"/>
+      <c r="BQ2" s="135"/>
+      <c r="BR2" s="135"/>
+      <c r="BS2" s="135"/>
+      <c r="BT2" s="135"/>
+      <c r="BU2" s="135"/>
+      <c r="BV2" s="135"/>
+      <c r="BW2" s="135"/>
+      <c r="BX2" s="135"/>
+      <c r="BY2" s="135"/>
+      <c r="BZ2" s="135"/>
+      <c r="CA2" s="135"/>
+      <c r="CB2" s="135"/>
+      <c r="CC2" s="135"/>
+      <c r="CD2" s="135"/>
+      <c r="CE2" s="135"/>
+      <c r="CF2" s="135"/>
+      <c r="CG2" s="135"/>
+      <c r="CH2" s="135"/>
+      <c r="CI2" s="135"/>
+      <c r="CJ2" s="135"/>
+      <c r="CK2" s="135"/>
+      <c r="CL2" s="135"/>
+      <c r="CM2" s="135"/>
+      <c r="CN2" s="135"/>
+      <c r="CO2" s="135"/>
+      <c r="CP2" s="135"/>
+      <c r="CQ2" s="135"/>
+      <c r="CR2" s="135"/>
+      <c r="CS2" s="135"/>
+      <c r="CT2" s="135"/>
+      <c r="CU2" s="135"/>
     </row>
     <row r="3" spans="1:99" ht="15" customHeight="1">
-      <c r="A3" s="169"/>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="169"/>
-      <c r="L3" s="169"/>
-      <c r="M3" s="169"/>
-      <c r="N3" s="169"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="169"/>
-      <c r="S3" s="169"/>
-      <c r="T3" s="169"/>
-      <c r="U3" s="169"/>
-      <c r="V3" s="169"/>
-      <c r="W3" s="169"/>
-      <c r="X3" s="169"/>
-      <c r="Y3" s="169"/>
-      <c r="Z3" s="169"/>
-      <c r="AA3" s="169"/>
-      <c r="AB3" s="169"/>
-      <c r="AC3" s="169"/>
-      <c r="AD3" s="169"/>
-      <c r="AE3" s="169"/>
-      <c r="AF3" s="169"/>
-      <c r="AG3" s="169"/>
-      <c r="AH3" s="169"/>
-      <c r="AI3" s="169"/>
-      <c r="AJ3" s="169"/>
-      <c r="AK3" s="169"/>
-      <c r="AL3" s="169"/>
-      <c r="AM3" s="169"/>
-      <c r="AN3" s="169"/>
-      <c r="AO3" s="169"/>
-      <c r="AP3" s="169"/>
-      <c r="AQ3" s="169"/>
-      <c r="AR3" s="169"/>
-      <c r="AS3" s="169"/>
-      <c r="AT3" s="169"/>
-      <c r="AU3" s="169"/>
-      <c r="AV3" s="169"/>
-      <c r="AW3" s="169"/>
-      <c r="AX3" s="169"/>
-      <c r="AY3" s="169"/>
-      <c r="AZ3" s="169"/>
-      <c r="BA3" s="169"/>
-      <c r="BB3" s="169"/>
-      <c r="BC3" s="169"/>
-      <c r="BD3" s="169"/>
-      <c r="BE3" s="169"/>
-      <c r="BF3" s="169"/>
-      <c r="BG3" s="169"/>
-      <c r="BH3" s="169"/>
-      <c r="BI3" s="169"/>
-      <c r="BJ3" s="169"/>
-      <c r="BK3" s="169"/>
-      <c r="BL3" s="169"/>
-      <c r="BM3" s="169"/>
-      <c r="BN3" s="169"/>
-      <c r="BO3" s="169"/>
-      <c r="BP3" s="169"/>
-      <c r="BQ3" s="169"/>
-      <c r="BR3" s="169"/>
-      <c r="BS3" s="169"/>
-      <c r="BT3" s="169"/>
-      <c r="BU3" s="169"/>
-      <c r="BV3" s="169"/>
-      <c r="BW3" s="169"/>
-      <c r="BX3" s="169"/>
-      <c r="BY3" s="169"/>
-      <c r="BZ3" s="169"/>
-      <c r="CA3" s="169"/>
-      <c r="CB3" s="169"/>
-      <c r="CC3" s="169"/>
-      <c r="CD3" s="169"/>
-      <c r="CE3" s="169"/>
-      <c r="CF3" s="169"/>
-      <c r="CG3" s="169"/>
-      <c r="CH3" s="169"/>
-      <c r="CI3" s="169"/>
-      <c r="CJ3" s="169"/>
-      <c r="CK3" s="169"/>
-      <c r="CL3" s="169"/>
-      <c r="CM3" s="169"/>
-      <c r="CN3" s="169"/>
-      <c r="CO3" s="169"/>
-      <c r="CP3" s="169"/>
-      <c r="CQ3" s="169"/>
-      <c r="CR3" s="169"/>
-      <c r="CS3" s="169"/>
-      <c r="CT3" s="169"/>
-      <c r="CU3" s="169"/>
+      <c r="A3" s="135"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="135"/>
+      <c r="O3" s="135"/>
+      <c r="P3" s="135"/>
+      <c r="Q3" s="135"/>
+      <c r="R3" s="135"/>
+      <c r="S3" s="135"/>
+      <c r="T3" s="135"/>
+      <c r="U3" s="135"/>
+      <c r="V3" s="135"/>
+      <c r="W3" s="135"/>
+      <c r="X3" s="135"/>
+      <c r="Y3" s="135"/>
+      <c r="Z3" s="135"/>
+      <c r="AA3" s="135"/>
+      <c r="AB3" s="135"/>
+      <c r="AC3" s="135"/>
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="135"/>
+      <c r="AG3" s="135"/>
+      <c r="AH3" s="135"/>
+      <c r="AI3" s="135"/>
+      <c r="AJ3" s="135"/>
+      <c r="AK3" s="135"/>
+      <c r="AL3" s="135"/>
+      <c r="AM3" s="135"/>
+      <c r="AN3" s="135"/>
+      <c r="AO3" s="135"/>
+      <c r="AP3" s="135"/>
+      <c r="AQ3" s="135"/>
+      <c r="AR3" s="135"/>
+      <c r="AS3" s="135"/>
+      <c r="AT3" s="135"/>
+      <c r="AU3" s="135"/>
+      <c r="AV3" s="135"/>
+      <c r="AW3" s="135"/>
+      <c r="AX3" s="135"/>
+      <c r="AY3" s="135"/>
+      <c r="AZ3" s="135"/>
+      <c r="BA3" s="135"/>
+      <c r="BB3" s="135"/>
+      <c r="BC3" s="135"/>
+      <c r="BD3" s="135"/>
+      <c r="BE3" s="135"/>
+      <c r="BF3" s="135"/>
+      <c r="BG3" s="135"/>
+      <c r="BH3" s="135"/>
+      <c r="BI3" s="135"/>
+      <c r="BJ3" s="135"/>
+      <c r="BK3" s="135"/>
+      <c r="BL3" s="135"/>
+      <c r="BM3" s="135"/>
+      <c r="BN3" s="135"/>
+      <c r="BO3" s="135"/>
+      <c r="BP3" s="135"/>
+      <c r="BQ3" s="135"/>
+      <c r="BR3" s="135"/>
+      <c r="BS3" s="135"/>
+      <c r="BT3" s="135"/>
+      <c r="BU3" s="135"/>
+      <c r="BV3" s="135"/>
+      <c r="BW3" s="135"/>
+      <c r="BX3" s="135"/>
+      <c r="BY3" s="135"/>
+      <c r="BZ3" s="135"/>
+      <c r="CA3" s="135"/>
+      <c r="CB3" s="135"/>
+      <c r="CC3" s="135"/>
+      <c r="CD3" s="135"/>
+      <c r="CE3" s="135"/>
+      <c r="CF3" s="135"/>
+      <c r="CG3" s="135"/>
+      <c r="CH3" s="135"/>
+      <c r="CI3" s="135"/>
+      <c r="CJ3" s="135"/>
+      <c r="CK3" s="135"/>
+      <c r="CL3" s="135"/>
+      <c r="CM3" s="135"/>
+      <c r="CN3" s="135"/>
+      <c r="CO3" s="135"/>
+      <c r="CP3" s="135"/>
+      <c r="CQ3" s="135"/>
+      <c r="CR3" s="135"/>
+      <c r="CS3" s="135"/>
+      <c r="CT3" s="135"/>
+      <c r="CU3" s="135"/>
     </row>
     <row r="4" spans="1:99" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="177" t="s">
+      <c r="A5" s="202" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="180" t="s">
+      <c r="B5" s="205" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="180" t="s">
+      <c r="C5" s="205" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="181" t="s">
+      <c r="D5" s="206" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
-      <c r="J5" s="182"/>
-      <c r="K5" s="182"/>
-      <c r="L5" s="182"/>
-      <c r="M5" s="182"/>
-      <c r="N5" s="182"/>
-      <c r="O5" s="182"/>
-      <c r="P5" s="182"/>
-      <c r="Q5" s="182"/>
-      <c r="R5" s="182"/>
-      <c r="S5" s="182"/>
-      <c r="T5" s="182"/>
-      <c r="U5" s="182"/>
-      <c r="V5" s="182"/>
-      <c r="W5" s="182"/>
-      <c r="X5" s="182"/>
-      <c r="Y5" s="182"/>
-      <c r="Z5" s="182"/>
-      <c r="AA5" s="182"/>
-      <c r="AB5" s="182"/>
-      <c r="AC5" s="182"/>
-      <c r="AD5" s="182"/>
-      <c r="AE5" s="182"/>
-      <c r="AF5" s="182"/>
-      <c r="AG5" s="182"/>
-      <c r="AH5" s="182"/>
-      <c r="AI5" s="182"/>
-      <c r="AJ5" s="182"/>
-      <c r="AK5" s="182"/>
-      <c r="AL5" s="182"/>
-      <c r="AM5" s="182"/>
-      <c r="AN5" s="182"/>
-      <c r="AO5" s="182"/>
-      <c r="AP5" s="182"/>
-      <c r="AQ5" s="182"/>
-      <c r="AR5" s="182"/>
-      <c r="AS5" s="182"/>
-      <c r="AT5" s="182"/>
-      <c r="AU5" s="182"/>
-      <c r="AV5" s="182"/>
-      <c r="AW5" s="182"/>
-      <c r="AX5" s="182"/>
-      <c r="AY5" s="182"/>
-      <c r="AZ5" s="182"/>
-      <c r="BA5" s="182"/>
-      <c r="BB5" s="182"/>
-      <c r="BC5" s="182"/>
-      <c r="BD5" s="183"/>
-      <c r="BE5" s="184" t="s">
+      <c r="E5" s="207"/>
+      <c r="F5" s="207"/>
+      <c r="G5" s="207"/>
+      <c r="H5" s="207"/>
+      <c r="I5" s="207"/>
+      <c r="J5" s="207"/>
+      <c r="K5" s="207"/>
+      <c r="L5" s="207"/>
+      <c r="M5" s="207"/>
+      <c r="N5" s="207"/>
+      <c r="O5" s="207"/>
+      <c r="P5" s="207"/>
+      <c r="Q5" s="207"/>
+      <c r="R5" s="207"/>
+      <c r="S5" s="207"/>
+      <c r="T5" s="207"/>
+      <c r="U5" s="207"/>
+      <c r="V5" s="207"/>
+      <c r="W5" s="207"/>
+      <c r="X5" s="207"/>
+      <c r="Y5" s="207"/>
+      <c r="Z5" s="207"/>
+      <c r="AA5" s="207"/>
+      <c r="AB5" s="207"/>
+      <c r="AC5" s="207"/>
+      <c r="AD5" s="207"/>
+      <c r="AE5" s="207"/>
+      <c r="AF5" s="207"/>
+      <c r="AG5" s="207"/>
+      <c r="AH5" s="207"/>
+      <c r="AI5" s="207"/>
+      <c r="AJ5" s="207"/>
+      <c r="AK5" s="207"/>
+      <c r="AL5" s="207"/>
+      <c r="AM5" s="207"/>
+      <c r="AN5" s="207"/>
+      <c r="AO5" s="207"/>
+      <c r="AP5" s="207"/>
+      <c r="AQ5" s="207"/>
+      <c r="AR5" s="207"/>
+      <c r="AS5" s="207"/>
+      <c r="AT5" s="207"/>
+      <c r="AU5" s="207"/>
+      <c r="AV5" s="207"/>
+      <c r="AW5" s="207"/>
+      <c r="AX5" s="207"/>
+      <c r="AY5" s="207"/>
+      <c r="AZ5" s="207"/>
+      <c r="BA5" s="207"/>
+      <c r="BB5" s="207"/>
+      <c r="BC5" s="207"/>
+      <c r="BD5" s="208"/>
+      <c r="BE5" s="209" t="s">
         <v>34</v>
       </c>
-      <c r="BF5" s="185"/>
-      <c r="BG5" s="185"/>
-      <c r="BH5" s="185"/>
-      <c r="BI5" s="185"/>
-      <c r="BJ5" s="185"/>
-      <c r="BK5" s="185"/>
-      <c r="BL5" s="185"/>
-      <c r="BM5" s="185"/>
-      <c r="BN5" s="185"/>
-      <c r="BO5" s="185"/>
-      <c r="BP5" s="185"/>
-      <c r="BQ5" s="185"/>
-      <c r="BR5" s="185"/>
-      <c r="BS5" s="185"/>
-      <c r="BT5" s="185"/>
-      <c r="BU5" s="185"/>
-      <c r="BV5" s="185"/>
-      <c r="BW5" s="185"/>
-      <c r="BX5" s="185"/>
-      <c r="BY5" s="185"/>
-      <c r="BZ5" s="185"/>
-      <c r="CA5" s="185"/>
-      <c r="CB5" s="185"/>
-      <c r="CC5" s="185"/>
-      <c r="CD5" s="185"/>
-      <c r="CE5" s="185"/>
-      <c r="CF5" s="185"/>
-      <c r="CG5" s="185"/>
-      <c r="CH5" s="185"/>
-      <c r="CI5" s="185"/>
-      <c r="CJ5" s="185"/>
-      <c r="CK5" s="185"/>
-      <c r="CL5" s="185"/>
-      <c r="CM5" s="185"/>
-      <c r="CN5" s="185"/>
-      <c r="CO5" s="185"/>
-      <c r="CP5" s="185"/>
-      <c r="CQ5" s="185"/>
-      <c r="CR5" s="186"/>
-      <c r="CS5" s="191" t="s">
+      <c r="BF5" s="210"/>
+      <c r="BG5" s="210"/>
+      <c r="BH5" s="210"/>
+      <c r="BI5" s="210"/>
+      <c r="BJ5" s="210"/>
+      <c r="BK5" s="210"/>
+      <c r="BL5" s="210"/>
+      <c r="BM5" s="210"/>
+      <c r="BN5" s="210"/>
+      <c r="BO5" s="210"/>
+      <c r="BP5" s="210"/>
+      <c r="BQ5" s="210"/>
+      <c r="BR5" s="210"/>
+      <c r="BS5" s="210"/>
+      <c r="BT5" s="210"/>
+      <c r="BU5" s="210"/>
+      <c r="BV5" s="210"/>
+      <c r="BW5" s="210"/>
+      <c r="BX5" s="210"/>
+      <c r="BY5" s="210"/>
+      <c r="BZ5" s="210"/>
+      <c r="CA5" s="210"/>
+      <c r="CB5" s="210"/>
+      <c r="CC5" s="210"/>
+      <c r="CD5" s="210"/>
+      <c r="CE5" s="210"/>
+      <c r="CF5" s="210"/>
+      <c r="CG5" s="210"/>
+      <c r="CH5" s="210"/>
+      <c r="CI5" s="210"/>
+      <c r="CJ5" s="210"/>
+      <c r="CK5" s="210"/>
+      <c r="CL5" s="210"/>
+      <c r="CM5" s="210"/>
+      <c r="CN5" s="210"/>
+      <c r="CO5" s="210"/>
+      <c r="CP5" s="210"/>
+      <c r="CQ5" s="210"/>
+      <c r="CR5" s="211"/>
+      <c r="CS5" s="198" t="s">
         <v>35</v>
       </c>
-      <c r="CT5" s="192"/>
-      <c r="CU5" s="193"/>
+      <c r="CT5" s="199"/>
+      <c r="CU5" s="200"/>
     </row>
     <row r="6" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="178"/>
-      <c r="B6" s="180"/>
-      <c r="C6" s="180"/>
-      <c r="D6" s="211" t="s">
+      <c r="A6" s="203"/>
+      <c r="B6" s="205"/>
+      <c r="C6" s="205"/>
+      <c r="D6" s="181" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="212"/>
-      <c r="F6" s="212"/>
-      <c r="G6" s="212"/>
-      <c r="H6" s="212"/>
-      <c r="I6" s="212"/>
-      <c r="J6" s="197" t="s">
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
+      <c r="J6" s="184" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="197"/>
-      <c r="L6" s="197"/>
-      <c r="M6" s="197"/>
-      <c r="N6" s="197"/>
-      <c r="O6" s="197"/>
-      <c r="P6" s="197"/>
-      <c r="Q6" s="197"/>
-      <c r="R6" s="197"/>
-      <c r="S6" s="197"/>
-      <c r="T6" s="197"/>
-      <c r="U6" s="197"/>
-      <c r="V6" s="197"/>
-      <c r="W6" s="197"/>
-      <c r="X6" s="197"/>
-      <c r="Y6" s="197"/>
-      <c r="Z6" s="197"/>
-      <c r="AA6" s="197"/>
-      <c r="AB6" s="197"/>
-      <c r="AC6" s="197"/>
-      <c r="AD6" s="197"/>
-      <c r="AE6" s="197"/>
-      <c r="AF6" s="197"/>
-      <c r="AG6" s="197"/>
-      <c r="AH6" s="197"/>
-      <c r="AI6" s="197"/>
-      <c r="AJ6" s="197"/>
-      <c r="AK6" s="197"/>
-      <c r="AL6" s="197"/>
-      <c r="AM6" s="197"/>
-      <c r="AN6" s="197"/>
-      <c r="AO6" s="197" t="s">
+      <c r="K6" s="184"/>
+      <c r="L6" s="184"/>
+      <c r="M6" s="184"/>
+      <c r="N6" s="184"/>
+      <c r="O6" s="184"/>
+      <c r="P6" s="184"/>
+      <c r="Q6" s="184"/>
+      <c r="R6" s="184"/>
+      <c r="S6" s="184"/>
+      <c r="T6" s="184"/>
+      <c r="U6" s="184"/>
+      <c r="V6" s="184"/>
+      <c r="W6" s="184"/>
+      <c r="X6" s="184"/>
+      <c r="Y6" s="184"/>
+      <c r="Z6" s="184"/>
+      <c r="AA6" s="184"/>
+      <c r="AB6" s="184"/>
+      <c r="AC6" s="184"/>
+      <c r="AD6" s="184"/>
+      <c r="AE6" s="184"/>
+      <c r="AF6" s="184"/>
+      <c r="AG6" s="184"/>
+      <c r="AH6" s="184"/>
+      <c r="AI6" s="184"/>
+      <c r="AJ6" s="184"/>
+      <c r="AK6" s="184"/>
+      <c r="AL6" s="184"/>
+      <c r="AM6" s="184"/>
+      <c r="AN6" s="184"/>
+      <c r="AO6" s="184" t="s">
         <v>141</v>
       </c>
-      <c r="AP6" s="197"/>
-      <c r="AQ6" s="197"/>
-      <c r="AR6" s="197"/>
-      <c r="AS6" s="197" t="s">
+      <c r="AP6" s="184"/>
+      <c r="AQ6" s="184"/>
+      <c r="AR6" s="184"/>
+      <c r="AS6" s="184" t="s">
         <v>37</v>
       </c>
-      <c r="AT6" s="197"/>
-      <c r="AU6" s="197"/>
-      <c r="AV6" s="197" t="s">
+      <c r="AT6" s="184"/>
+      <c r="AU6" s="184"/>
+      <c r="AV6" s="184" t="s">
         <v>38</v>
       </c>
-      <c r="AW6" s="197"/>
-      <c r="AX6" s="197"/>
-      <c r="AY6" s="197"/>
-      <c r="AZ6" s="197"/>
-      <c r="BA6" s="197"/>
-      <c r="BB6" s="197"/>
-      <c r="BC6" s="201" t="s">
+      <c r="AW6" s="184"/>
+      <c r="AX6" s="184"/>
+      <c r="AY6" s="184"/>
+      <c r="AZ6" s="184"/>
+      <c r="BA6" s="184"/>
+      <c r="BB6" s="184"/>
+      <c r="BC6" s="191" t="s">
         <v>39</v>
       </c>
-      <c r="BD6" s="202"/>
-      <c r="BE6" s="203" t="s">
+      <c r="BD6" s="192"/>
+      <c r="BE6" s="193" t="s">
         <v>102</v>
       </c>
-      <c r="BF6" s="204"/>
-      <c r="BG6" s="204"/>
-      <c r="BH6" s="204"/>
-      <c r="BI6" s="204"/>
-      <c r="BJ6" s="204"/>
-      <c r="BK6" s="205"/>
-      <c r="BL6" s="206" t="s">
+      <c r="BF6" s="194"/>
+      <c r="BG6" s="194"/>
+      <c r="BH6" s="194"/>
+      <c r="BI6" s="194"/>
+      <c r="BJ6" s="194"/>
+      <c r="BK6" s="195"/>
+      <c r="BL6" s="196" t="s">
         <v>103</v>
       </c>
-      <c r="BM6" s="204"/>
-      <c r="BN6" s="204"/>
-      <c r="BO6" s="204"/>
-      <c r="BP6" s="204"/>
-      <c r="BQ6" s="204"/>
-      <c r="BR6" s="204"/>
-      <c r="BS6" s="204"/>
-      <c r="BT6" s="204"/>
-      <c r="BU6" s="204"/>
-      <c r="BV6" s="204"/>
-      <c r="BW6" s="204"/>
-      <c r="BX6" s="204"/>
-      <c r="BY6" s="204"/>
-      <c r="BZ6" s="204"/>
-      <c r="CA6" s="204"/>
-      <c r="CB6" s="204"/>
-      <c r="CC6" s="204"/>
-      <c r="CD6" s="204"/>
-      <c r="CE6" s="204"/>
-      <c r="CF6" s="204"/>
-      <c r="CG6" s="204"/>
-      <c r="CH6" s="204"/>
-      <c r="CI6" s="204"/>
-      <c r="CJ6" s="204"/>
-      <c r="CK6" s="204"/>
-      <c r="CL6" s="204"/>
-      <c r="CM6" s="204"/>
-      <c r="CN6" s="204"/>
-      <c r="CO6" s="204"/>
-      <c r="CP6" s="204"/>
-      <c r="CQ6" s="194" t="s">
+      <c r="BM6" s="194"/>
+      <c r="BN6" s="194"/>
+      <c r="BO6" s="194"/>
+      <c r="BP6" s="194"/>
+      <c r="BQ6" s="194"/>
+      <c r="BR6" s="194"/>
+      <c r="BS6" s="194"/>
+      <c r="BT6" s="194"/>
+      <c r="BU6" s="194"/>
+      <c r="BV6" s="194"/>
+      <c r="BW6" s="194"/>
+      <c r="BX6" s="194"/>
+      <c r="BY6" s="194"/>
+      <c r="BZ6" s="194"/>
+      <c r="CA6" s="194"/>
+      <c r="CB6" s="194"/>
+      <c r="CC6" s="194"/>
+      <c r="CD6" s="194"/>
+      <c r="CE6" s="194"/>
+      <c r="CF6" s="194"/>
+      <c r="CG6" s="194"/>
+      <c r="CH6" s="194"/>
+      <c r="CI6" s="194"/>
+      <c r="CJ6" s="194"/>
+      <c r="CK6" s="194"/>
+      <c r="CL6" s="194"/>
+      <c r="CM6" s="194"/>
+      <c r="CN6" s="194"/>
+      <c r="CO6" s="194"/>
+      <c r="CP6" s="194"/>
+      <c r="CQ6" s="201" t="s">
         <v>40</v>
       </c>
-      <c r="CR6" s="194"/>
-      <c r="CS6" s="176" t="s">
+      <c r="CR6" s="201"/>
+      <c r="CS6" s="197" t="s">
         <v>41</v>
       </c>
-      <c r="CT6" s="176" t="s">
+      <c r="CT6" s="197" t="s">
         <v>42</v>
       </c>
-      <c r="CU6" s="198" t="s">
+      <c r="CU6" s="188" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A7" s="178"/>
-      <c r="B7" s="180"/>
-      <c r="C7" s="180"/>
+      <c r="A7" s="203"/>
+      <c r="B7" s="205"/>
+      <c r="C7" s="205"/>
       <c r="E7" s="124"/>
       <c r="F7" s="123">
         <v>0.3</v>
@@ -6188,327 +6188,327 @@
       <c r="I7" s="124">
         <v>0.3</v>
       </c>
-      <c r="J7" s="189"/>
-      <c r="K7" s="189"/>
-      <c r="L7" s="189"/>
-      <c r="M7" s="189"/>
-      <c r="N7" s="189"/>
-      <c r="O7" s="189"/>
-      <c r="P7" s="189"/>
-      <c r="Q7" s="189"/>
-      <c r="R7" s="189"/>
-      <c r="S7" s="189"/>
-      <c r="T7" s="190">
+      <c r="J7" s="183"/>
+      <c r="K7" s="183"/>
+      <c r="L7" s="183"/>
+      <c r="M7" s="183"/>
+      <c r="N7" s="183"/>
+      <c r="O7" s="183"/>
+      <c r="P7" s="183"/>
+      <c r="Q7" s="183"/>
+      <c r="R7" s="183"/>
+      <c r="S7" s="183"/>
+      <c r="T7" s="187">
         <f>COUNT(J9,L9,N9,P9,R9,T9)</f>
         <v>0</v>
       </c>
-      <c r="U7" s="190"/>
-      <c r="V7" s="189"/>
-      <c r="W7" s="189"/>
-      <c r="X7" s="189"/>
-      <c r="Y7" s="189"/>
-      <c r="Z7" s="189"/>
-      <c r="AA7" s="189"/>
-      <c r="AB7" s="189"/>
-      <c r="AC7" s="189"/>
-      <c r="AD7" s="189"/>
-      <c r="AE7" s="189"/>
-      <c r="AF7" s="189"/>
-      <c r="AG7" s="189"/>
-      <c r="AH7" s="189"/>
-      <c r="AI7" s="189"/>
-      <c r="AJ7" s="189"/>
-      <c r="AK7" s="189"/>
-      <c r="AL7" s="189"/>
-      <c r="AM7" s="189"/>
+      <c r="U7" s="187"/>
+      <c r="V7" s="183"/>
+      <c r="W7" s="183"/>
+      <c r="X7" s="183"/>
+      <c r="Y7" s="183"/>
+      <c r="Z7" s="183"/>
+      <c r="AA7" s="183"/>
+      <c r="AB7" s="183"/>
+      <c r="AC7" s="183"/>
+      <c r="AD7" s="183"/>
+      <c r="AE7" s="183"/>
+      <c r="AF7" s="183"/>
+      <c r="AG7" s="183"/>
+      <c r="AH7" s="183"/>
+      <c r="AI7" s="183"/>
+      <c r="AJ7" s="183"/>
+      <c r="AK7" s="183"/>
+      <c r="AL7" s="183"/>
+      <c r="AM7" s="183"/>
       <c r="AN7" s="97">
         <v>0.2</v>
       </c>
-      <c r="AO7" s="189"/>
-      <c r="AP7" s="189"/>
-      <c r="AQ7" s="189"/>
-      <c r="AR7" s="189"/>
-      <c r="AS7" s="190">
+      <c r="AO7" s="183"/>
+      <c r="AP7" s="183"/>
+      <c r="AQ7" s="183"/>
+      <c r="AR7" s="183"/>
+      <c r="AS7" s="187">
         <f>COUNT(AO9,AQ9,AS9)</f>
         <v>0</v>
       </c>
-      <c r="AT7" s="190"/>
+      <c r="AT7" s="187"/>
       <c r="AU7" s="21">
         <v>0.1</v>
       </c>
-      <c r="AV7" s="189"/>
-      <c r="AW7" s="189"/>
-      <c r="AX7" s="189"/>
-      <c r="AY7" s="189"/>
-      <c r="AZ7" s="190">
+      <c r="AV7" s="183"/>
+      <c r="AW7" s="183"/>
+      <c r="AX7" s="183"/>
+      <c r="AY7" s="183"/>
+      <c r="AZ7" s="187">
         <f>COUNT(AV9,AX9,AZ9)</f>
         <v>0</v>
       </c>
-      <c r="BA7" s="190"/>
+      <c r="BA7" s="187"/>
       <c r="BB7" s="22">
         <v>0.1</v>
       </c>
-      <c r="BC7" s="201"/>
-      <c r="BD7" s="202"/>
-      <c r="BE7" s="189"/>
-      <c r="BF7" s="189"/>
-      <c r="BG7" s="189"/>
-      <c r="BH7" s="189"/>
-      <c r="BI7" s="190">
+      <c r="BC7" s="191"/>
+      <c r="BD7" s="192"/>
+      <c r="BE7" s="183"/>
+      <c r="BF7" s="183"/>
+      <c r="BG7" s="183"/>
+      <c r="BH7" s="183"/>
+      <c r="BI7" s="187">
         <f>COUNT(BE9,BG9,BI9)</f>
         <v>0</v>
       </c>
-      <c r="BJ7" s="190"/>
+      <c r="BJ7" s="187"/>
       <c r="BK7" s="105">
         <v>0.5</v>
       </c>
-      <c r="BL7" s="189">
+      <c r="BL7" s="183">
         <v>42980</v>
       </c>
-      <c r="BM7" s="189"/>
-      <c r="BN7" s="189">
+      <c r="BM7" s="183"/>
+      <c r="BN7" s="183">
         <v>42980</v>
       </c>
-      <c r="BO7" s="189"/>
-      <c r="BP7" s="189">
+      <c r="BO7" s="183"/>
+      <c r="BP7" s="183">
         <v>42980</v>
       </c>
-      <c r="BQ7" s="189"/>
-      <c r="BR7" s="189">
+      <c r="BQ7" s="183"/>
+      <c r="BR7" s="183">
         <v>42987</v>
       </c>
-      <c r="BS7" s="189"/>
-      <c r="BT7" s="189"/>
-      <c r="BU7" s="189"/>
-      <c r="BV7" s="189"/>
-      <c r="BW7" s="189"/>
-      <c r="BX7" s="189"/>
-      <c r="BY7" s="189"/>
-      <c r="BZ7" s="189"/>
-      <c r="CA7" s="189"/>
-      <c r="CB7" s="189"/>
-      <c r="CC7" s="189"/>
-      <c r="CD7" s="189"/>
-      <c r="CE7" s="189"/>
-      <c r="CF7" s="189"/>
-      <c r="CG7" s="189"/>
-      <c r="CH7" s="189"/>
-      <c r="CI7" s="189"/>
-      <c r="CJ7" s="189"/>
-      <c r="CK7" s="189"/>
-      <c r="CL7" s="189"/>
-      <c r="CM7" s="189"/>
-      <c r="CN7" s="190">
+      <c r="BS7" s="183"/>
+      <c r="BT7" s="183"/>
+      <c r="BU7" s="183"/>
+      <c r="BV7" s="183"/>
+      <c r="BW7" s="183"/>
+      <c r="BX7" s="183"/>
+      <c r="BY7" s="183"/>
+      <c r="BZ7" s="183"/>
+      <c r="CA7" s="183"/>
+      <c r="CB7" s="183"/>
+      <c r="CC7" s="183"/>
+      <c r="CD7" s="183"/>
+      <c r="CE7" s="183"/>
+      <c r="CF7" s="183"/>
+      <c r="CG7" s="183"/>
+      <c r="CH7" s="183"/>
+      <c r="CI7" s="183"/>
+      <c r="CJ7" s="183"/>
+      <c r="CK7" s="183"/>
+      <c r="CL7" s="183"/>
+      <c r="CM7" s="183"/>
+      <c r="CN7" s="187">
         <f>COUNT(CN9,CL9,CJ9,CH9,CF9,CD9,CB9,BZ9,BX9,BV9,BT9,BR9,BP9,BN9,BL9)</f>
-        <v>5</v>
-      </c>
-      <c r="CO7" s="190"/>
+        <v>6</v>
+      </c>
+      <c r="CO7" s="187"/>
       <c r="CP7" s="106">
         <v>0.5</v>
       </c>
-      <c r="CQ7" s="194"/>
-      <c r="CR7" s="194"/>
-      <c r="CS7" s="176"/>
-      <c r="CT7" s="176"/>
-      <c r="CU7" s="199"/>
+      <c r="CQ7" s="201"/>
+      <c r="CR7" s="201"/>
+      <c r="CS7" s="197"/>
+      <c r="CT7" s="197"/>
+      <c r="CU7" s="189"/>
     </row>
     <row r="8" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A8" s="178"/>
-      <c r="B8" s="180"/>
-      <c r="C8" s="180"/>
-      <c r="D8" s="187" t="s">
+      <c r="A8" s="203"/>
+      <c r="B8" s="205"/>
+      <c r="C8" s="205"/>
+      <c r="D8" s="212" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="187"/>
-      <c r="F8" s="187"/>
-      <c r="G8" s="187" t="s">
+      <c r="E8" s="212"/>
+      <c r="F8" s="212"/>
+      <c r="G8" s="212" t="s">
         <v>158</v>
       </c>
-      <c r="H8" s="187"/>
-      <c r="I8" s="187"/>
-      <c r="J8" s="188" t="s">
+      <c r="H8" s="212"/>
+      <c r="I8" s="212"/>
+      <c r="J8" s="176" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="188"/>
-      <c r="L8" s="188" t="s">
+      <c r="K8" s="176"/>
+      <c r="L8" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="188"/>
-      <c r="N8" s="188" t="s">
+      <c r="M8" s="176"/>
+      <c r="N8" s="176" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="188"/>
-      <c r="P8" s="188" t="s">
+      <c r="O8" s="176"/>
+      <c r="P8" s="176" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="188"/>
-      <c r="R8" s="188" t="s">
+      <c r="Q8" s="176"/>
+      <c r="R8" s="176" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="188"/>
-      <c r="T8" s="188" t="s">
+      <c r="S8" s="176"/>
+      <c r="T8" s="176" t="s">
         <v>53</v>
       </c>
-      <c r="U8" s="188"/>
-      <c r="V8" s="188" t="s">
+      <c r="U8" s="176"/>
+      <c r="V8" s="176" t="s">
         <v>54</v>
       </c>
-      <c r="W8" s="188"/>
-      <c r="X8" s="188" t="s">
+      <c r="W8" s="176"/>
+      <c r="X8" s="176" t="s">
         <v>55</v>
       </c>
-      <c r="Y8" s="188"/>
-      <c r="Z8" s="188" t="s">
+      <c r="Y8" s="176"/>
+      <c r="Z8" s="176" t="s">
         <v>56</v>
       </c>
-      <c r="AA8" s="188"/>
-      <c r="AB8" s="188" t="s">
+      <c r="AA8" s="176"/>
+      <c r="AB8" s="176" t="s">
         <v>57</v>
       </c>
-      <c r="AC8" s="188"/>
-      <c r="AD8" s="188" t="s">
+      <c r="AC8" s="176"/>
+      <c r="AD8" s="176" t="s">
         <v>58</v>
       </c>
-      <c r="AE8" s="188"/>
-      <c r="AF8" s="188" t="s">
+      <c r="AE8" s="176"/>
+      <c r="AF8" s="176" t="s">
         <v>59</v>
       </c>
-      <c r="AG8" s="188"/>
-      <c r="AH8" s="188" t="s">
+      <c r="AG8" s="176"/>
+      <c r="AH8" s="176" t="s">
         <v>60</v>
       </c>
-      <c r="AI8" s="188"/>
-      <c r="AJ8" s="188" t="s">
+      <c r="AI8" s="176"/>
+      <c r="AJ8" s="176" t="s">
         <v>61</v>
       </c>
-      <c r="AK8" s="188"/>
-      <c r="AL8" s="188" t="s">
+      <c r="AK8" s="176"/>
+      <c r="AL8" s="176" t="s">
         <v>62</v>
       </c>
-      <c r="AM8" s="188"/>
+      <c r="AM8" s="176"/>
       <c r="AN8" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AO8" s="188" t="s">
+      <c r="AO8" s="176" t="s">
         <v>64</v>
       </c>
-      <c r="AP8" s="188"/>
-      <c r="AQ8" s="188" t="s">
+      <c r="AP8" s="176"/>
+      <c r="AQ8" s="176" t="s">
         <v>65</v>
       </c>
-      <c r="AR8" s="188"/>
-      <c r="AS8" s="188" t="s">
+      <c r="AR8" s="176"/>
+      <c r="AS8" s="176" t="s">
         <v>66</v>
       </c>
-      <c r="AT8" s="188"/>
+      <c r="AT8" s="176"/>
       <c r="AU8" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AV8" s="188" t="s">
+      <c r="AV8" s="176" t="s">
         <v>68</v>
       </c>
-      <c r="AW8" s="188"/>
-      <c r="AX8" s="188" t="s">
+      <c r="AW8" s="176"/>
+      <c r="AX8" s="176" t="s">
         <v>69</v>
       </c>
-      <c r="AY8" s="188"/>
-      <c r="AZ8" s="188" t="s">
+      <c r="AY8" s="176"/>
+      <c r="AZ8" s="176" t="s">
         <v>70</v>
       </c>
-      <c r="BA8" s="188"/>
+      <c r="BA8" s="176"/>
       <c r="BB8" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="BC8" s="201"/>
-      <c r="BD8" s="202"/>
-      <c r="BE8" s="210" t="s">
+      <c r="BC8" s="191"/>
+      <c r="BD8" s="192"/>
+      <c r="BE8" s="186" t="s">
         <v>44</v>
       </c>
-      <c r="BF8" s="207"/>
-      <c r="BG8" s="207" t="s">
+      <c r="BF8" s="185"/>
+      <c r="BG8" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="BH8" s="207"/>
-      <c r="BI8" s="207" t="s">
+      <c r="BH8" s="185"/>
+      <c r="BI8" s="185" t="s">
         <v>46</v>
       </c>
-      <c r="BJ8" s="207"/>
+      <c r="BJ8" s="185"/>
       <c r="BK8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="BL8" s="208" t="s">
+      <c r="BL8" s="179" t="s">
         <v>72</v>
       </c>
-      <c r="BM8" s="209"/>
-      <c r="BN8" s="208" t="s">
+      <c r="BM8" s="180"/>
+      <c r="BN8" s="179" t="s">
         <v>73</v>
       </c>
-      <c r="BO8" s="209"/>
-      <c r="BP8" s="208" t="s">
+      <c r="BO8" s="180"/>
+      <c r="BP8" s="179" t="s">
         <v>74</v>
       </c>
-      <c r="BQ8" s="209"/>
-      <c r="BR8" s="208" t="s">
+      <c r="BQ8" s="180"/>
+      <c r="BR8" s="179" t="s">
         <v>75</v>
       </c>
-      <c r="BS8" s="209"/>
-      <c r="BT8" s="208" t="s">
+      <c r="BS8" s="180"/>
+      <c r="BT8" s="179" t="s">
         <v>76</v>
       </c>
-      <c r="BU8" s="209"/>
-      <c r="BV8" s="195" t="s">
+      <c r="BU8" s="180"/>
+      <c r="BV8" s="177" t="s">
         <v>77</v>
       </c>
-      <c r="BW8" s="196"/>
-      <c r="BX8" s="195" t="s">
+      <c r="BW8" s="178"/>
+      <c r="BX8" s="177" t="s">
         <v>78</v>
       </c>
-      <c r="BY8" s="196"/>
-      <c r="BZ8" s="195" t="s">
+      <c r="BY8" s="178"/>
+      <c r="BZ8" s="177" t="s">
         <v>79</v>
       </c>
-      <c r="CA8" s="196"/>
-      <c r="CB8" s="195" t="s">
+      <c r="CA8" s="178"/>
+      <c r="CB8" s="177" t="s">
         <v>80</v>
       </c>
-      <c r="CC8" s="196"/>
-      <c r="CD8" s="195" t="s">
+      <c r="CC8" s="178"/>
+      <c r="CD8" s="177" t="s">
         <v>81</v>
       </c>
-      <c r="CE8" s="196"/>
-      <c r="CF8" s="195" t="s">
+      <c r="CE8" s="178"/>
+      <c r="CF8" s="177" t="s">
         <v>82</v>
       </c>
-      <c r="CG8" s="196"/>
-      <c r="CH8" s="195" t="s">
+      <c r="CG8" s="178"/>
+      <c r="CH8" s="177" t="s">
         <v>83</v>
       </c>
-      <c r="CI8" s="196"/>
-      <c r="CJ8" s="195" t="s">
+      <c r="CI8" s="178"/>
+      <c r="CJ8" s="177" t="s">
         <v>84</v>
       </c>
-      <c r="CK8" s="196"/>
-      <c r="CL8" s="195" t="s">
+      <c r="CK8" s="178"/>
+      <c r="CL8" s="177" t="s">
         <v>85</v>
       </c>
-      <c r="CM8" s="196"/>
-      <c r="CN8" s="195" t="s">
+      <c r="CM8" s="178"/>
+      <c r="CN8" s="177" t="s">
         <v>86</v>
       </c>
-      <c r="CO8" s="196"/>
+      <c r="CO8" s="178"/>
       <c r="CP8" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="CQ8" s="194"/>
-      <c r="CR8" s="194"/>
-      <c r="CS8" s="176"/>
-      <c r="CT8" s="176"/>
-      <c r="CU8" s="199"/>
+      <c r="CQ8" s="201"/>
+      <c r="CR8" s="201"/>
+      <c r="CS8" s="197"/>
+      <c r="CT8" s="197"/>
+      <c r="CU8" s="189"/>
     </row>
     <row r="9" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A9" s="179"/>
-      <c r="B9" s="180"/>
-      <c r="C9" s="180"/>
+      <c r="A9" s="204"/>
+      <c r="B9" s="205"/>
+      <c r="C9" s="205"/>
       <c r="D9" s="27"/>
       <c r="E9" s="91"/>
       <c r="F9" s="28" t="s">
@@ -6621,7 +6621,9 @@
       <c r="BU9" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="BV9" s="27"/>
+      <c r="BV9" s="27">
+        <v>100</v>
+      </c>
       <c r="BW9" s="30" t="s">
         <v>87</v>
       </c>
@@ -6670,9 +6672,9 @@
       <c r="CR9" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="CS9" s="176"/>
-      <c r="CT9" s="176"/>
-      <c r="CU9" s="200"/>
+      <c r="CS9" s="197"/>
+      <c r="CT9" s="197"/>
+      <c r="CU9" s="190"/>
     </row>
     <row r="10" spans="1:99">
       <c r="A10" s="42">
@@ -6857,10 +6859,12 @@
         <f>IFERROR(((BT10/$BT$9)*100),"")</f>
         <v>75</v>
       </c>
-      <c r="BV10" s="107"/>
-      <c r="BW10" s="92" t="str">
+      <c r="BV10" s="107">
+        <v>65</v>
+      </c>
+      <c r="BW10" s="92">
         <f>IFERROR(((BV10/$BV$9)*100),"")</f>
-        <v/>
+        <v>65</v>
       </c>
       <c r="BX10" s="107"/>
       <c r="BY10" s="92" t="str">
@@ -6909,19 +6913,19 @@
       </c>
       <c r="CP10" s="103">
         <f>IFERROR(((SUM(BM10,BO10,BQ10,BS10,BU10,BW10,BY10,CA10,CC10,CE10,CG10,CI10,CK10,CM10,CO10)/$CN$7)*$CP$7),"")</f>
-        <v>47.5</v>
+        <v>45</v>
       </c>
       <c r="CQ10" s="99">
         <f>IFERROR(SUM(CP10,BK10),"")</f>
-        <v>47.5</v>
+        <v>45</v>
       </c>
       <c r="CR10" s="99">
         <f>IFERROR(ROUND(CQ10,2),"")</f>
-        <v>47.5</v>
+        <v>45</v>
       </c>
       <c r="CS10" s="104">
         <f>IFERROR(((CR10*0.6)+(BD10*0.4)),"")</f>
-        <v>28.5</v>
+        <v>27</v>
       </c>
       <c r="CT10" s="104">
         <f>IFERROR(VLOOKUP(CS10,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7115,10 +7119,12 @@
         <f t="shared" ref="BU11:BU70" si="27">IFERROR(((BT11/$BT$9)*100),"")</f>
         <v>80</v>
       </c>
-      <c r="BV11" s="107"/>
-      <c r="BW11" s="92" t="str">
+      <c r="BV11" s="107">
+        <v>100</v>
+      </c>
+      <c r="BW11" s="92">
         <f t="shared" ref="BW11:BW70" si="28">IFERROR(((BV11/$BV$9)*100),"")</f>
-        <v/>
+        <v>100</v>
       </c>
       <c r="BX11" s="107"/>
       <c r="BY11" s="92" t="str">
@@ -7167,19 +7173,19 @@
       </c>
       <c r="CP11" s="103">
         <f t="shared" ref="CP11:CP70" si="38">IFERROR(((SUM(BM11,BO11,BQ11,BS11,BU11,BW11,BY11,CA11,CC11,CE11,CG11,CI11,CK11,CM11,CO11)/$CN$7)*$CP$7),"")</f>
-        <v>48</v>
+        <v>48.333333333333336</v>
       </c>
       <c r="CQ11" s="99">
         <f t="shared" ref="CQ11:CQ70" si="39">IFERROR(SUM(CP11,BK11),"")</f>
-        <v>48</v>
+        <v>48.333333333333336</v>
       </c>
       <c r="CR11" s="99">
         <f t="shared" ref="CR11:CR70" si="40">IFERROR(ROUND(CQ11,2),"")</f>
-        <v>48</v>
+        <v>48.33</v>
       </c>
       <c r="CS11" s="104">
         <f t="shared" ref="CS11:CS22" si="41">IFERROR(((CR11*0.6)+(BD11*0.4)),"")</f>
-        <v>28.799999999999997</v>
+        <v>28.997999999999998</v>
       </c>
       <c r="CT11" s="104">
         <f>IFERROR(VLOOKUP(CS11,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7373,10 +7379,12 @@
         <f t="shared" si="27"/>
         <v>75</v>
       </c>
-      <c r="BV12" s="107"/>
-      <c r="BW12" s="92" t="str">
+      <c r="BV12" s="107">
+        <v>100</v>
+      </c>
+      <c r="BW12" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="BX12" s="107"/>
       <c r="BY12" s="92" t="str">
@@ -7425,19 +7433,19 @@
       </c>
       <c r="CP12" s="103">
         <f t="shared" si="38"/>
-        <v>47.5</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="CQ12" s="99">
         <f t="shared" si="39"/>
-        <v>47.5</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="CR12" s="99">
         <f t="shared" si="40"/>
-        <v>47.5</v>
+        <v>47.92</v>
       </c>
       <c r="CS12" s="104">
         <f t="shared" si="41"/>
-        <v>28.5</v>
+        <v>28.751999999999999</v>
       </c>
       <c r="CT12" s="104">
         <f>IFERROR(VLOOKUP(CS12,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7631,10 +7639,12 @@
         <f t="shared" si="27"/>
         <v>75</v>
       </c>
-      <c r="BV13" s="107"/>
-      <c r="BW13" s="92" t="str">
+      <c r="BV13" s="107">
+        <v>65</v>
+      </c>
+      <c r="BW13" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>65</v>
       </c>
       <c r="BX13" s="107"/>
       <c r="BY13" s="92" t="str">
@@ -7683,19 +7693,19 @@
       </c>
       <c r="CP13" s="103">
         <f t="shared" si="38"/>
-        <v>31.5</v>
+        <v>31.666666666666668</v>
       </c>
       <c r="CQ13" s="99">
         <f t="shared" si="39"/>
-        <v>31.5</v>
+        <v>31.666666666666668</v>
       </c>
       <c r="CR13" s="99">
         <f t="shared" si="40"/>
-        <v>31.5</v>
+        <v>31.67</v>
       </c>
       <c r="CS13" s="104">
         <f t="shared" si="41"/>
-        <v>18.899999999999999</v>
+        <v>19.001999999999999</v>
       </c>
       <c r="CT13" s="104">
         <f>IFERROR(VLOOKUP(CS13,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7889,10 +7899,12 @@
         <f t="shared" si="27"/>
         <v>100</v>
       </c>
-      <c r="BV14" s="107"/>
-      <c r="BW14" s="92" t="str">
+      <c r="BV14" s="107">
+        <v>100</v>
+      </c>
+      <c r="BW14" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="BX14" s="107"/>
       <c r="BY14" s="92" t="str">
@@ -8147,10 +8159,12 @@
         <f t="shared" si="27"/>
         <v>95</v>
       </c>
-      <c r="BV15" s="107"/>
-      <c r="BW15" s="92" t="str">
+      <c r="BV15" s="107">
+        <v>100</v>
+      </c>
+      <c r="BW15" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="BX15" s="107"/>
       <c r="BY15" s="92" t="str">
@@ -8199,19 +8213,19 @@
       </c>
       <c r="CP15" s="103">
         <f t="shared" si="38"/>
-        <v>49.5</v>
+        <v>49.583333333333336</v>
       </c>
       <c r="CQ15" s="99">
         <f t="shared" si="39"/>
-        <v>49.5</v>
+        <v>49.583333333333336</v>
       </c>
       <c r="CR15" s="99">
         <f t="shared" si="40"/>
-        <v>49.5</v>
+        <v>49.58</v>
       </c>
       <c r="CS15" s="104">
         <f t="shared" si="41"/>
-        <v>29.7</v>
+        <v>29.747999999999998</v>
       </c>
       <c r="CT15" s="104">
         <f>IFERROR(VLOOKUP(CS15,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8405,10 +8419,12 @@
         <f t="shared" si="27"/>
         <v>80</v>
       </c>
-      <c r="BV16" s="107"/>
-      <c r="BW16" s="92" t="str">
+      <c r="BV16" s="107">
+        <v>100</v>
+      </c>
+      <c r="BW16" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="BX16" s="107"/>
       <c r="BY16" s="92" t="str">
@@ -8457,19 +8473,19 @@
       </c>
       <c r="CP16" s="103">
         <f t="shared" si="38"/>
-        <v>48</v>
+        <v>48.333333333333336</v>
       </c>
       <c r="CQ16" s="99">
         <f t="shared" si="39"/>
-        <v>48</v>
+        <v>48.333333333333336</v>
       </c>
       <c r="CR16" s="99">
         <f t="shared" si="40"/>
-        <v>48</v>
+        <v>48.33</v>
       </c>
       <c r="CS16" s="104">
         <f t="shared" si="41"/>
-        <v>28.799999999999997</v>
+        <v>28.997999999999998</v>
       </c>
       <c r="CT16" s="104">
         <f>IFERROR(VLOOKUP(CS16,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8663,10 +8679,12 @@
         <f t="shared" si="27"/>
         <v>75</v>
       </c>
-      <c r="BV17" s="107"/>
-      <c r="BW17" s="92" t="str">
+      <c r="BV17" s="107">
+        <v>100</v>
+      </c>
+      <c r="BW17" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="BX17" s="107"/>
       <c r="BY17" s="92" t="str">
@@ -8715,19 +8733,19 @@
       </c>
       <c r="CP17" s="103">
         <f t="shared" si="38"/>
-        <v>47.5</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="CQ17" s="99">
         <f t="shared" si="39"/>
-        <v>47.5</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="CR17" s="99">
         <f t="shared" si="40"/>
-        <v>47.5</v>
+        <v>47.92</v>
       </c>
       <c r="CS17" s="104">
         <f t="shared" si="41"/>
-        <v>28.5</v>
+        <v>28.751999999999999</v>
       </c>
       <c r="CT17" s="104">
         <f>IFERROR(VLOOKUP(CS17,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8921,10 +8939,12 @@
         <f t="shared" si="27"/>
         <v>75</v>
       </c>
-      <c r="BV18" s="107"/>
-      <c r="BW18" s="92" t="str">
+      <c r="BV18" s="107">
+        <v>100</v>
+      </c>
+      <c r="BW18" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="BX18" s="107"/>
       <c r="BY18" s="92" t="str">
@@ -8973,19 +8993,19 @@
       </c>
       <c r="CP18" s="103">
         <f t="shared" si="38"/>
-        <v>47.5</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="CQ18" s="99">
         <f t="shared" si="39"/>
-        <v>47.5</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="CR18" s="99">
         <f t="shared" si="40"/>
-        <v>47.5</v>
+        <v>47.92</v>
       </c>
       <c r="CS18" s="104">
         <f t="shared" si="41"/>
-        <v>28.5</v>
+        <v>28.751999999999999</v>
       </c>
       <c r="CT18" s="104">
         <f>IFERROR(VLOOKUP(CS18,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9179,10 +9199,12 @@
         <f t="shared" si="27"/>
         <v>75</v>
       </c>
-      <c r="BV19" s="107"/>
-      <c r="BW19" s="92" t="str">
+      <c r="BV19" s="107">
+        <v>100</v>
+      </c>
+      <c r="BW19" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="BX19" s="107"/>
       <c r="BY19" s="92" t="str">
@@ -9231,19 +9253,19 @@
       </c>
       <c r="CP19" s="103">
         <f t="shared" si="38"/>
-        <v>47.5</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="CQ19" s="99">
         <f t="shared" si="39"/>
-        <v>47.5</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="CR19" s="99">
         <f t="shared" si="40"/>
-        <v>47.5</v>
+        <v>47.92</v>
       </c>
       <c r="CS19" s="104">
         <f t="shared" si="41"/>
-        <v>28.5</v>
+        <v>28.751999999999999</v>
       </c>
       <c r="CT19" s="104">
         <f>IFERROR(VLOOKUP(CS19,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9437,10 +9459,12 @@
         <f t="shared" si="27"/>
         <v>75</v>
       </c>
-      <c r="BV20" s="107"/>
-      <c r="BW20" s="92" t="str">
+      <c r="BV20" s="107">
+        <v>100</v>
+      </c>
+      <c r="BW20" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="BX20" s="107"/>
       <c r="BY20" s="92" t="str">
@@ -9489,19 +9513,19 @@
       </c>
       <c r="CP20" s="103">
         <f t="shared" si="38"/>
-        <v>47.5</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="CQ20" s="99">
         <f t="shared" si="39"/>
-        <v>47.5</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="CR20" s="99">
         <f t="shared" si="40"/>
-        <v>47.5</v>
+        <v>47.92</v>
       </c>
       <c r="CS20" s="104">
         <f t="shared" si="41"/>
-        <v>28.5</v>
+        <v>28.751999999999999</v>
       </c>
       <c r="CT20" s="104">
         <f>IFERROR(VLOOKUP(CS20,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9695,10 +9719,12 @@
         <f t="shared" si="27"/>
         <v>90</v>
       </c>
-      <c r="BV21" s="107"/>
-      <c r="BW21" s="92" t="str">
+      <c r="BV21" s="107">
+        <v>100</v>
+      </c>
+      <c r="BW21" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="BX21" s="107"/>
       <c r="BY21" s="92" t="str">
@@ -9747,19 +9773,19 @@
       </c>
       <c r="CP21" s="103">
         <f t="shared" si="38"/>
-        <v>49</v>
+        <v>49.166666666666664</v>
       </c>
       <c r="CQ21" s="99">
         <f t="shared" si="39"/>
-        <v>49</v>
+        <v>49.166666666666664</v>
       </c>
       <c r="CR21" s="99">
         <f t="shared" si="40"/>
-        <v>49</v>
+        <v>49.17</v>
       </c>
       <c r="CS21" s="104">
         <f t="shared" si="41"/>
-        <v>29.4</v>
+        <v>29.501999999999999</v>
       </c>
       <c r="CT21" s="104">
         <f>IFERROR(VLOOKUP(CS21,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9953,10 +9979,12 @@
         <f t="shared" si="27"/>
         <v>75</v>
       </c>
-      <c r="BV22" s="107"/>
-      <c r="BW22" s="92" t="str">
+      <c r="BV22" s="107">
+        <v>100</v>
+      </c>
+      <c r="BW22" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="BX22" s="107"/>
       <c r="BY22" s="92" t="str">
@@ -10005,19 +10033,19 @@
       </c>
       <c r="CP22" s="103">
         <f t="shared" si="38"/>
-        <v>47.5</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="CQ22" s="99">
         <f t="shared" si="39"/>
-        <v>47.5</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="CR22" s="99">
         <f t="shared" si="40"/>
-        <v>47.5</v>
+        <v>47.92</v>
       </c>
       <c r="CS22" s="104">
         <f t="shared" si="41"/>
-        <v>28.5</v>
+        <v>28.751999999999999</v>
       </c>
       <c r="CT22" s="104">
         <f>IFERROR(VLOOKUP(CS22,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10211,10 +10239,12 @@
         <f t="shared" si="27"/>
         <v>75</v>
       </c>
-      <c r="BV23" s="107"/>
-      <c r="BW23" s="92" t="str">
+      <c r="BV23" s="107">
+        <v>100</v>
+      </c>
+      <c r="BW23" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="BX23" s="107"/>
       <c r="BY23" s="92" t="str">
@@ -10263,19 +10293,19 @@
       </c>
       <c r="CP23" s="103">
         <f t="shared" si="38"/>
-        <v>47.5</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="CQ23" s="99">
         <f t="shared" si="39"/>
-        <v>47.5</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="CR23" s="99">
         <f t="shared" si="40"/>
-        <v>47.5</v>
+        <v>47.92</v>
       </c>
       <c r="CS23" s="104">
         <f t="shared" ref="CS23:CS70" si="45">IFERROR(((CR23*0.6)+(BD23*0.4)),"")</f>
-        <v>28.5</v>
+        <v>28.751999999999999</v>
       </c>
       <c r="CT23" s="104">
         <f>IFERROR(VLOOKUP(CS23,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10469,10 +10499,12 @@
         <f t="shared" si="27"/>
         <v>90</v>
       </c>
-      <c r="BV24" s="107"/>
-      <c r="BW24" s="92" t="str">
+      <c r="BV24" s="107">
+        <v>65</v>
+      </c>
+      <c r="BW24" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>65</v>
       </c>
       <c r="BX24" s="107"/>
       <c r="BY24" s="92" t="str">
@@ -10521,19 +10553,19 @@
       </c>
       <c r="CP24" s="103">
         <f t="shared" si="38"/>
-        <v>49</v>
+        <v>46.25</v>
       </c>
       <c r="CQ24" s="99">
         <f t="shared" si="39"/>
-        <v>49</v>
+        <v>46.25</v>
       </c>
       <c r="CR24" s="99">
         <f t="shared" si="40"/>
-        <v>49</v>
+        <v>46.25</v>
       </c>
       <c r="CS24" s="104">
         <f t="shared" si="45"/>
-        <v>29.4</v>
+        <v>27.75</v>
       </c>
       <c r="CT24" s="104">
         <f>IFERROR(VLOOKUP(CS24,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10727,10 +10759,12 @@
         <f t="shared" si="27"/>
         <v>75</v>
       </c>
-      <c r="BV25" s="107"/>
-      <c r="BW25" s="92" t="str">
+      <c r="BV25" s="107">
+        <v>100</v>
+      </c>
+      <c r="BW25" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="BX25" s="107"/>
       <c r="BY25" s="92" t="str">
@@ -10779,19 +10813,19 @@
       </c>
       <c r="CP25" s="103">
         <f t="shared" si="38"/>
-        <v>47.5</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="CQ25" s="99">
         <f t="shared" si="39"/>
-        <v>47.5</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="CR25" s="99">
         <f t="shared" si="40"/>
-        <v>47.5</v>
+        <v>47.92</v>
       </c>
       <c r="CS25" s="104">
         <f t="shared" si="45"/>
-        <v>28.5</v>
+        <v>28.751999999999999</v>
       </c>
       <c r="CT25" s="104">
         <f>IFERROR(VLOOKUP(CS25,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10985,10 +11019,12 @@
         <f t="shared" si="27"/>
         <v>75</v>
       </c>
-      <c r="BV26" s="107"/>
-      <c r="BW26" s="92" t="str">
+      <c r="BV26" s="107">
+        <v>100</v>
+      </c>
+      <c r="BW26" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="BX26" s="107"/>
       <c r="BY26" s="92" t="str">
@@ -11037,19 +11073,19 @@
       </c>
       <c r="CP26" s="103">
         <f t="shared" si="38"/>
-        <v>47.5</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="CQ26" s="99">
         <f t="shared" si="39"/>
-        <v>47.5</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="CR26" s="99">
         <f t="shared" si="40"/>
-        <v>47.5</v>
+        <v>47.92</v>
       </c>
       <c r="CS26" s="104">
         <f t="shared" si="45"/>
-        <v>28.5</v>
+        <v>28.751999999999999</v>
       </c>
       <c r="CT26" s="104">
         <f>IFERROR(VLOOKUP(CS26,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11243,10 +11279,12 @@
         <f t="shared" si="27"/>
         <v>100</v>
       </c>
-      <c r="BV27" s="107"/>
-      <c r="BW27" s="92" t="str">
+      <c r="BV27" s="107">
+        <v>100</v>
+      </c>
+      <c r="BW27" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="BX27" s="107"/>
       <c r="BY27" s="92" t="str">
@@ -11501,10 +11539,12 @@
         <f t="shared" si="27"/>
         <v>75</v>
       </c>
-      <c r="BV28" s="107"/>
-      <c r="BW28" s="92" t="str">
+      <c r="BV28" s="107">
+        <v>100</v>
+      </c>
+      <c r="BW28" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="BX28" s="107"/>
       <c r="BY28" s="92" t="str">
@@ -11553,19 +11593,19 @@
       </c>
       <c r="CP28" s="103">
         <f t="shared" si="38"/>
-        <v>47.5</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="CQ28" s="99">
         <f t="shared" si="39"/>
-        <v>47.5</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="CR28" s="99">
         <f t="shared" si="40"/>
-        <v>47.5</v>
+        <v>47.92</v>
       </c>
       <c r="CS28" s="104">
         <f t="shared" si="45"/>
-        <v>28.5</v>
+        <v>28.751999999999999</v>
       </c>
       <c r="CT28" s="104">
         <f>IFERROR(VLOOKUP(CS28,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11759,10 +11799,12 @@
         <f t="shared" si="27"/>
         <v>100</v>
       </c>
-      <c r="BV29" s="107"/>
-      <c r="BW29" s="92" t="str">
+      <c r="BV29" s="107">
+        <v>100</v>
+      </c>
+      <c r="BW29" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="BX29" s="107"/>
       <c r="BY29" s="92" t="str">
@@ -12017,10 +12059,12 @@
         <f t="shared" si="27"/>
         <v>75</v>
       </c>
-      <c r="BV30" s="107"/>
-      <c r="BW30" s="92" t="str">
+      <c r="BV30" s="107">
+        <v>100</v>
+      </c>
+      <c r="BW30" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="BX30" s="107"/>
       <c r="BY30" s="92" t="str">
@@ -12069,19 +12113,19 @@
       </c>
       <c r="CP30" s="103">
         <f t="shared" si="38"/>
-        <v>31.5</v>
+        <v>34.583333333333336</v>
       </c>
       <c r="CQ30" s="99">
         <f t="shared" si="39"/>
-        <v>31.5</v>
+        <v>34.583333333333336</v>
       </c>
       <c r="CR30" s="99">
         <f t="shared" si="40"/>
-        <v>31.5</v>
+        <v>34.58</v>
       </c>
       <c r="CS30" s="104">
         <f t="shared" si="45"/>
-        <v>18.899999999999999</v>
+        <v>20.747999999999998</v>
       </c>
       <c r="CT30" s="104">
         <f>IFERROR(VLOOKUP(CS30,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12266,9 +12310,9 @@
         <v>0</v>
       </c>
       <c r="BV31" s="107"/>
-      <c r="BW31" s="92" t="str">
+      <c r="BW31" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX31" s="107"/>
       <c r="BY31" s="92" t="str">
@@ -12514,9 +12558,9 @@
         <v>0</v>
       </c>
       <c r="BV32" s="107"/>
-      <c r="BW32" s="92" t="str">
+      <c r="BW32" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX32" s="107"/>
       <c r="BY32" s="92" t="str">
@@ -12762,9 +12806,9 @@
         <v>0</v>
       </c>
       <c r="BV33" s="107"/>
-      <c r="BW33" s="92" t="str">
+      <c r="BW33" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX33" s="107"/>
       <c r="BY33" s="92" t="str">
@@ -13010,9 +13054,9 @@
         <v>0</v>
       </c>
       <c r="BV34" s="107"/>
-      <c r="BW34" s="92" t="str">
+      <c r="BW34" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX34" s="107"/>
       <c r="BY34" s="92" t="str">
@@ -13258,9 +13302,9 @@
         <v>0</v>
       </c>
       <c r="BV35" s="107"/>
-      <c r="BW35" s="92" t="str">
+      <c r="BW35" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX35" s="107"/>
       <c r="BY35" s="92" t="str">
@@ -13506,9 +13550,9 @@
         <v>0</v>
       </c>
       <c r="BV36" s="107"/>
-      <c r="BW36" s="92" t="str">
+      <c r="BW36" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX36" s="107"/>
       <c r="BY36" s="92" t="str">
@@ -13754,9 +13798,9 @@
         <v>0</v>
       </c>
       <c r="BV37" s="107"/>
-      <c r="BW37" s="92" t="str">
+      <c r="BW37" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX37" s="107"/>
       <c r="BY37" s="92" t="str">
@@ -14002,9 +14046,9 @@
         <v>0</v>
       </c>
       <c r="BV38" s="107"/>
-      <c r="BW38" s="92" t="str">
+      <c r="BW38" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX38" s="107"/>
       <c r="BY38" s="92" t="str">
@@ -14250,9 +14294,9 @@
         <v>0</v>
       </c>
       <c r="BV39" s="107"/>
-      <c r="BW39" s="92" t="str">
+      <c r="BW39" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX39" s="107"/>
       <c r="BY39" s="92" t="str">
@@ -14498,9 +14542,9 @@
         <v>0</v>
       </c>
       <c r="BV40" s="107"/>
-      <c r="BW40" s="92" t="str">
+      <c r="BW40" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX40" s="107"/>
       <c r="BY40" s="92" t="str">
@@ -14746,9 +14790,9 @@
         <v>0</v>
       </c>
       <c r="BV41" s="107"/>
-      <c r="BW41" s="92" t="str">
+      <c r="BW41" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX41" s="107"/>
       <c r="BY41" s="92" t="str">
@@ -14994,9 +15038,9 @@
         <v>0</v>
       </c>
       <c r="BV42" s="107"/>
-      <c r="BW42" s="92" t="str">
+      <c r="BW42" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX42" s="107"/>
       <c r="BY42" s="92" t="str">
@@ -15242,9 +15286,9 @@
         <v>0</v>
       </c>
       <c r="BV43" s="107"/>
-      <c r="BW43" s="92" t="str">
+      <c r="BW43" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX43" s="107"/>
       <c r="BY43" s="92" t="str">
@@ -15490,9 +15534,9 @@
         <v>0</v>
       </c>
       <c r="BV44" s="107"/>
-      <c r="BW44" s="92" t="str">
+      <c r="BW44" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX44" s="107"/>
       <c r="BY44" s="92" t="str">
@@ -15738,9 +15782,9 @@
         <v>0</v>
       </c>
       <c r="BV45" s="107"/>
-      <c r="BW45" s="92" t="str">
+      <c r="BW45" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX45" s="107"/>
       <c r="BY45" s="92" t="str">
@@ -15986,9 +16030,9 @@
         <v>0</v>
       </c>
       <c r="BV46" s="107"/>
-      <c r="BW46" s="92" t="str">
+      <c r="BW46" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX46" s="107"/>
       <c r="BY46" s="92" t="str">
@@ -16234,9 +16278,9 @@
         <v>0</v>
       </c>
       <c r="BV47" s="107"/>
-      <c r="BW47" s="92" t="str">
+      <c r="BW47" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX47" s="107"/>
       <c r="BY47" s="92" t="str">
@@ -16482,9 +16526,9 @@
         <v>0</v>
       </c>
       <c r="BV48" s="107"/>
-      <c r="BW48" s="92" t="str">
+      <c r="BW48" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX48" s="107"/>
       <c r="BY48" s="92" t="str">
@@ -16730,9 +16774,9 @@
         <v>0</v>
       </c>
       <c r="BV49" s="107"/>
-      <c r="BW49" s="92" t="str">
+      <c r="BW49" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX49" s="107"/>
       <c r="BY49" s="92" t="str">
@@ -16978,9 +17022,9 @@
         <v>0</v>
       </c>
       <c r="BV50" s="107"/>
-      <c r="BW50" s="92" t="str">
+      <c r="BW50" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX50" s="107"/>
       <c r="BY50" s="92" t="str">
@@ -17226,9 +17270,9 @@
         <v>0</v>
       </c>
       <c r="BV51" s="107"/>
-      <c r="BW51" s="92" t="str">
+      <c r="BW51" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX51" s="107"/>
       <c r="BY51" s="92" t="str">
@@ -17474,9 +17518,9 @@
         <v>0</v>
       </c>
       <c r="BV52" s="107"/>
-      <c r="BW52" s="92" t="str">
+      <c r="BW52" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX52" s="107"/>
       <c r="BY52" s="92" t="str">
@@ -17722,9 +17766,9 @@
         <v>0</v>
       </c>
       <c r="BV53" s="107"/>
-      <c r="BW53" s="92" t="str">
+      <c r="BW53" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX53" s="107"/>
       <c r="BY53" s="92" t="str">
@@ -17970,9 +18014,9 @@
         <v>0</v>
       </c>
       <c r="BV54" s="107"/>
-      <c r="BW54" s="92" t="str">
+      <c r="BW54" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX54" s="107"/>
       <c r="BY54" s="92" t="str">
@@ -18218,9 +18262,9 @@
         <v>0</v>
       </c>
       <c r="BV55" s="107"/>
-      <c r="BW55" s="92" t="str">
+      <c r="BW55" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX55" s="107"/>
       <c r="BY55" s="92" t="str">
@@ -18466,9 +18510,9 @@
         <v>0</v>
       </c>
       <c r="BV56" s="107"/>
-      <c r="BW56" s="92" t="str">
+      <c r="BW56" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX56" s="107"/>
       <c r="BY56" s="92" t="str">
@@ -18714,9 +18758,9 @@
         <v>0</v>
       </c>
       <c r="BV57" s="107"/>
-      <c r="BW57" s="92" t="str">
+      <c r="BW57" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX57" s="107"/>
       <c r="BY57" s="92" t="str">
@@ -18962,9 +19006,9 @@
         <v>0</v>
       </c>
       <c r="BV58" s="107"/>
-      <c r="BW58" s="92" t="str">
+      <c r="BW58" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX58" s="107"/>
       <c r="BY58" s="92" t="str">
@@ -19210,9 +19254,9 @@
         <v>0</v>
       </c>
       <c r="BV59" s="107"/>
-      <c r="BW59" s="92" t="str">
+      <c r="BW59" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX59" s="107"/>
       <c r="BY59" s="92" t="str">
@@ -19458,9 +19502,9 @@
         <v>0</v>
       </c>
       <c r="BV60" s="107"/>
-      <c r="BW60" s="92" t="str">
+      <c r="BW60" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX60" s="107"/>
       <c r="BY60" s="92" t="str">
@@ -19706,9 +19750,9 @@
         <v>0</v>
       </c>
       <c r="BV61" s="107"/>
-      <c r="BW61" s="92" t="str">
+      <c r="BW61" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX61" s="107"/>
       <c r="BY61" s="92" t="str">
@@ -19954,9 +19998,9 @@
         <v>0</v>
       </c>
       <c r="BV62" s="107"/>
-      <c r="BW62" s="92" t="str">
+      <c r="BW62" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX62" s="107"/>
       <c r="BY62" s="92" t="str">
@@ -20202,9 +20246,9 @@
         <v>0</v>
       </c>
       <c r="BV63" s="107"/>
-      <c r="BW63" s="92" t="str">
+      <c r="BW63" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX63" s="107"/>
       <c r="BY63" s="92" t="str">
@@ -20450,9 +20494,9 @@
         <v>0</v>
       </c>
       <c r="BV64" s="107"/>
-      <c r="BW64" s="92" t="str">
+      <c r="BW64" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX64" s="107"/>
       <c r="BY64" s="92" t="str">
@@ -20698,9 +20742,9 @@
         <v>0</v>
       </c>
       <c r="BV65" s="107"/>
-      <c r="BW65" s="92" t="str">
+      <c r="BW65" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX65" s="107"/>
       <c r="BY65" s="92" t="str">
@@ -20946,9 +20990,9 @@
         <v>0</v>
       </c>
       <c r="BV66" s="107"/>
-      <c r="BW66" s="92" t="str">
+      <c r="BW66" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX66" s="107"/>
       <c r="BY66" s="92" t="str">
@@ -21194,9 +21238,9 @@
         <v>0</v>
       </c>
       <c r="BV67" s="107"/>
-      <c r="BW67" s="92" t="str">
+      <c r="BW67" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX67" s="107"/>
       <c r="BY67" s="92" t="str">
@@ -21442,9 +21486,9 @@
         <v>0</v>
       </c>
       <c r="BV68" s="107"/>
-      <c r="BW68" s="92" t="str">
+      <c r="BW68" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX68" s="107"/>
       <c r="BY68" s="92" t="str">
@@ -21690,9 +21734,9 @@
         <v>0</v>
       </c>
       <c r="BV69" s="107"/>
-      <c r="BW69" s="92" t="str">
+      <c r="BW69" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX69" s="107"/>
       <c r="BY69" s="92" t="str">
@@ -21938,9 +21982,9 @@
         <v>0</v>
       </c>
       <c r="BV70" s="107"/>
-      <c r="BW70" s="92" t="str">
+      <c r="BW70" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX70" s="107"/>
       <c r="BY70" s="92" t="str">
@@ -22015,6 +22059,88 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="98">
+    <mergeCell ref="CS6:CS9"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D5:BD5"/>
+    <mergeCell ref="BE5:CR5"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AX7:AY7"/>
+    <mergeCell ref="AZ7:BA7"/>
+    <mergeCell ref="BG7:BH7"/>
+    <mergeCell ref="CF7:CG7"/>
+    <mergeCell ref="CH7:CI7"/>
+    <mergeCell ref="CS5:CU5"/>
+    <mergeCell ref="BL7:BM7"/>
+    <mergeCell ref="BN7:BO7"/>
+    <mergeCell ref="BP7:BQ7"/>
+    <mergeCell ref="BR7:BS7"/>
+    <mergeCell ref="CL7:CM7"/>
+    <mergeCell ref="CN7:CO7"/>
+    <mergeCell ref="BT7:BU7"/>
+    <mergeCell ref="BV7:BW7"/>
+    <mergeCell ref="BX7:BY7"/>
+    <mergeCell ref="BZ7:CA7"/>
+    <mergeCell ref="CB7:CC7"/>
+    <mergeCell ref="CJ7:CK7"/>
+    <mergeCell ref="CD7:CE7"/>
+    <mergeCell ref="CQ6:CR8"/>
+    <mergeCell ref="CN8:CO8"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BB6"/>
+    <mergeCell ref="CU6:CU9"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="BC6:BD8"/>
+    <mergeCell ref="BE6:BK6"/>
+    <mergeCell ref="BL6:CP6"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="CT6:CT9"/>
+    <mergeCell ref="BE7:BF7"/>
+    <mergeCell ref="BI7:BJ7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="BI8:BJ8"/>
+    <mergeCell ref="BL8:BM8"/>
+    <mergeCell ref="BN8:BO8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="BE8:BF8"/>
+    <mergeCell ref="AZ8:BA8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="BZ8:CA8"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="J6:AN6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AD8:AE8"/>
     <mergeCell ref="AJ8:AK8"/>
     <mergeCell ref="AV8:AW8"/>
@@ -22031,88 +22157,6 @@
     <mergeCell ref="BT8:BU8"/>
     <mergeCell ref="BV8:BW8"/>
     <mergeCell ref="BX8:BY8"/>
-    <mergeCell ref="BZ8:CA8"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="J6:AN6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="BI8:BJ8"/>
-    <mergeCell ref="BL8:BM8"/>
-    <mergeCell ref="BN8:BO8"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="BE8:BF8"/>
-    <mergeCell ref="AZ8:BA8"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="BI7:BJ7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BB6"/>
-    <mergeCell ref="CU6:CU9"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="BC6:BD8"/>
-    <mergeCell ref="BE6:BK6"/>
-    <mergeCell ref="BL6:CP6"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="CT6:CT9"/>
-    <mergeCell ref="BE7:BF7"/>
-    <mergeCell ref="CS5:CU5"/>
-    <mergeCell ref="BL7:BM7"/>
-    <mergeCell ref="BN7:BO7"/>
-    <mergeCell ref="BP7:BQ7"/>
-    <mergeCell ref="BR7:BS7"/>
-    <mergeCell ref="CL7:CM7"/>
-    <mergeCell ref="CN7:CO7"/>
-    <mergeCell ref="BT7:BU7"/>
-    <mergeCell ref="BV7:BW7"/>
-    <mergeCell ref="BX7:BY7"/>
-    <mergeCell ref="BZ7:CA7"/>
-    <mergeCell ref="CB7:CC7"/>
-    <mergeCell ref="CJ7:CK7"/>
-    <mergeCell ref="CD7:CE7"/>
-    <mergeCell ref="CQ6:CR8"/>
-    <mergeCell ref="CN8:CO8"/>
-    <mergeCell ref="CS6:CS9"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="D5:BD5"/>
-    <mergeCell ref="BE5:CR5"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AX7:AY7"/>
-    <mergeCell ref="AZ7:BA7"/>
-    <mergeCell ref="BG7:BH7"/>
-    <mergeCell ref="CF7:CG7"/>
-    <mergeCell ref="CH7:CI7"/>
   </mergeCells>
   <conditionalFormatting sqref="CU10:CU70">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -22348,19 +22392,19 @@
       </c>
       <c r="K8" s="52">
         <f>'RAW GRADES'!CP10</f>
-        <v>47.5</v>
+        <v>45</v>
       </c>
       <c r="L8" s="52">
         <f>'RAW GRADES'!CQ10</f>
-        <v>47.5</v>
+        <v>45</v>
       </c>
       <c r="M8" s="54">
         <f>'RAW GRADES'!CR10</f>
-        <v>47.5</v>
+        <v>45</v>
       </c>
       <c r="N8" s="55">
         <f>'RAW GRADES'!CS10</f>
-        <v>28.5</v>
+        <v>27</v>
       </c>
       <c r="O8" s="56">
         <f>'RAW GRADES'!CT10</f>
@@ -22413,19 +22457,19 @@
       </c>
       <c r="K9" s="52">
         <f>'RAW GRADES'!CP11</f>
-        <v>48</v>
+        <v>48.333333333333336</v>
       </c>
       <c r="L9" s="52">
         <f>'RAW GRADES'!CQ11</f>
-        <v>48</v>
+        <v>48.333333333333336</v>
       </c>
       <c r="M9" s="54">
         <f>'RAW GRADES'!CR11</f>
-        <v>48</v>
+        <v>48.33</v>
       </c>
       <c r="N9" s="58">
         <f>'RAW GRADES'!CS11</f>
-        <v>28.799999999999997</v>
+        <v>28.997999999999998</v>
       </c>
       <c r="O9" s="56">
         <f>'RAW GRADES'!CT11</f>
@@ -22478,19 +22522,19 @@
       </c>
       <c r="K10" s="52">
         <f>'RAW GRADES'!CP12</f>
-        <v>47.5</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="L10" s="52">
         <f>'RAW GRADES'!CQ12</f>
-        <v>47.5</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="M10" s="54">
         <f>'RAW GRADES'!CR12</f>
-        <v>47.5</v>
+        <v>47.92</v>
       </c>
       <c r="N10" s="58">
         <f>'RAW GRADES'!CS12</f>
-        <v>28.5</v>
+        <v>28.751999999999999</v>
       </c>
       <c r="O10" s="56">
         <f>'RAW GRADES'!CT12</f>
@@ -22543,19 +22587,19 @@
       </c>
       <c r="K11" s="52">
         <f>'RAW GRADES'!CP13</f>
-        <v>31.5</v>
+        <v>31.666666666666668</v>
       </c>
       <c r="L11" s="52">
         <f>'RAW GRADES'!CQ13</f>
-        <v>31.5</v>
+        <v>31.666666666666668</v>
       </c>
       <c r="M11" s="54">
         <f>'RAW GRADES'!CR13</f>
-        <v>31.5</v>
+        <v>31.67</v>
       </c>
       <c r="N11" s="58">
         <f>'RAW GRADES'!CS13</f>
-        <v>18.899999999999999</v>
+        <v>19.001999999999999</v>
       </c>
       <c r="O11" s="56">
         <f>'RAW GRADES'!CT13</f>
@@ -22673,19 +22717,19 @@
       </c>
       <c r="K13" s="52">
         <f>'RAW GRADES'!CP15</f>
-        <v>49.5</v>
+        <v>49.583333333333336</v>
       </c>
       <c r="L13" s="52">
         <f>'RAW GRADES'!CQ15</f>
-        <v>49.5</v>
+        <v>49.583333333333336</v>
       </c>
       <c r="M13" s="54">
         <f>'RAW GRADES'!CR15</f>
-        <v>49.5</v>
+        <v>49.58</v>
       </c>
       <c r="N13" s="58">
         <f>'RAW GRADES'!CS15</f>
-        <v>29.7</v>
+        <v>29.747999999999998</v>
       </c>
       <c r="O13" s="56">
         <f>'RAW GRADES'!CT15</f>
@@ -22738,19 +22782,19 @@
       </c>
       <c r="K14" s="52">
         <f>'RAW GRADES'!CP16</f>
-        <v>48</v>
+        <v>48.333333333333336</v>
       </c>
       <c r="L14" s="52">
         <f>'RAW GRADES'!CQ16</f>
-        <v>48</v>
+        <v>48.333333333333336</v>
       </c>
       <c r="M14" s="54">
         <f>'RAW GRADES'!CR16</f>
-        <v>48</v>
+        <v>48.33</v>
       </c>
       <c r="N14" s="58">
         <f>'RAW GRADES'!CS16</f>
-        <v>28.799999999999997</v>
+        <v>28.997999999999998</v>
       </c>
       <c r="O14" s="56">
         <f>'RAW GRADES'!CT16</f>
@@ -22803,19 +22847,19 @@
       </c>
       <c r="K15" s="52">
         <f>'RAW GRADES'!CP17</f>
-        <v>47.5</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="L15" s="52">
         <f>'RAW GRADES'!CQ17</f>
-        <v>47.5</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="M15" s="54">
         <f>'RAW GRADES'!CR17</f>
-        <v>47.5</v>
+        <v>47.92</v>
       </c>
       <c r="N15" s="58">
         <f>'RAW GRADES'!CS17</f>
-        <v>28.5</v>
+        <v>28.751999999999999</v>
       </c>
       <c r="O15" s="56">
         <f>'RAW GRADES'!CT17</f>
@@ -22868,19 +22912,19 @@
       </c>
       <c r="K16" s="52">
         <f>'RAW GRADES'!CP18</f>
-        <v>47.5</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="L16" s="52">
         <f>'RAW GRADES'!CQ18</f>
-        <v>47.5</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="M16" s="54">
         <f>'RAW GRADES'!CR18</f>
-        <v>47.5</v>
+        <v>47.92</v>
       </c>
       <c r="N16" s="58">
         <f>'RAW GRADES'!CS18</f>
-        <v>28.5</v>
+        <v>28.751999999999999</v>
       </c>
       <c r="O16" s="56">
         <f>'RAW GRADES'!CT18</f>
@@ -22933,19 +22977,19 @@
       </c>
       <c r="K17" s="52">
         <f>'RAW GRADES'!CP19</f>
-        <v>47.5</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="L17" s="52">
         <f>'RAW GRADES'!CQ19</f>
-        <v>47.5</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="M17" s="54">
         <f>'RAW GRADES'!CR19</f>
-        <v>47.5</v>
+        <v>47.92</v>
       </c>
       <c r="N17" s="58">
         <f>'RAW GRADES'!CS19</f>
-        <v>28.5</v>
+        <v>28.751999999999999</v>
       </c>
       <c r="O17" s="56">
         <f>'RAW GRADES'!CT19</f>
@@ -22998,19 +23042,19 @@
       </c>
       <c r="K18" s="52">
         <f>'RAW GRADES'!CP20</f>
-        <v>47.5</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="L18" s="52">
         <f>'RAW GRADES'!CQ20</f>
-        <v>47.5</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="M18" s="54">
         <f>'RAW GRADES'!CR20</f>
-        <v>47.5</v>
+        <v>47.92</v>
       </c>
       <c r="N18" s="58">
         <f>'RAW GRADES'!CS20</f>
-        <v>28.5</v>
+        <v>28.751999999999999</v>
       </c>
       <c r="O18" s="56">
         <f>'RAW GRADES'!CT20</f>
@@ -23063,19 +23107,19 @@
       </c>
       <c r="K19" s="52">
         <f>'RAW GRADES'!CP21</f>
-        <v>49</v>
+        <v>49.166666666666664</v>
       </c>
       <c r="L19" s="52">
         <f>'RAW GRADES'!CQ21</f>
-        <v>49</v>
+        <v>49.166666666666664</v>
       </c>
       <c r="M19" s="54">
         <f>'RAW GRADES'!CR21</f>
-        <v>49</v>
+        <v>49.17</v>
       </c>
       <c r="N19" s="58">
         <f>'RAW GRADES'!CS21</f>
-        <v>29.4</v>
+        <v>29.501999999999999</v>
       </c>
       <c r="O19" s="56">
         <f>'RAW GRADES'!CT21</f>
@@ -23128,19 +23172,19 @@
       </c>
       <c r="K20" s="52">
         <f>'RAW GRADES'!CP22</f>
-        <v>47.5</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="L20" s="52">
         <f>'RAW GRADES'!CQ22</f>
-        <v>47.5</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="M20" s="54">
         <f>'RAW GRADES'!CR22</f>
-        <v>47.5</v>
+        <v>47.92</v>
       </c>
       <c r="N20" s="58">
         <f>'RAW GRADES'!CS22</f>
-        <v>28.5</v>
+        <v>28.751999999999999</v>
       </c>
       <c r="O20" s="56">
         <f>'RAW GRADES'!CT22</f>
@@ -23193,19 +23237,19 @@
       </c>
       <c r="K21" s="52">
         <f>'RAW GRADES'!CP23</f>
-        <v>47.5</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="L21" s="52">
         <f>'RAW GRADES'!CQ23</f>
-        <v>47.5</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="M21" s="54">
         <f>'RAW GRADES'!CR23</f>
-        <v>47.5</v>
+        <v>47.92</v>
       </c>
       <c r="N21" s="58">
         <f>'RAW GRADES'!CS23</f>
-        <v>28.5</v>
+        <v>28.751999999999999</v>
       </c>
       <c r="O21" s="56">
         <f>'RAW GRADES'!CT23</f>
@@ -23258,19 +23302,19 @@
       </c>
       <c r="K22" s="52">
         <f>'RAW GRADES'!CP24</f>
-        <v>49</v>
+        <v>46.25</v>
       </c>
       <c r="L22" s="52">
         <f>'RAW GRADES'!CQ24</f>
-        <v>49</v>
+        <v>46.25</v>
       </c>
       <c r="M22" s="54">
         <f>'RAW GRADES'!CR24</f>
-        <v>49</v>
+        <v>46.25</v>
       </c>
       <c r="N22" s="58">
         <f>'RAW GRADES'!CS24</f>
-        <v>29.4</v>
+        <v>27.75</v>
       </c>
       <c r="O22" s="56">
         <f>'RAW GRADES'!CT24</f>
@@ -23323,19 +23367,19 @@
       </c>
       <c r="K23" s="52">
         <f>'RAW GRADES'!CP25</f>
-        <v>47.5</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="L23" s="52">
         <f>'RAW GRADES'!CQ25</f>
-        <v>47.5</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="M23" s="54">
         <f>'RAW GRADES'!CR25</f>
-        <v>47.5</v>
+        <v>47.92</v>
       </c>
       <c r="N23" s="58">
         <f>'RAW GRADES'!CS25</f>
-        <v>28.5</v>
+        <v>28.751999999999999</v>
       </c>
       <c r="O23" s="56">
         <f>'RAW GRADES'!CT25</f>
@@ -23388,19 +23432,19 @@
       </c>
       <c r="K24" s="52">
         <f>'RAW GRADES'!CP26</f>
-        <v>47.5</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="L24" s="52">
         <f>'RAW GRADES'!CQ26</f>
-        <v>47.5</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="M24" s="54">
         <f>'RAW GRADES'!CR26</f>
-        <v>47.5</v>
+        <v>47.92</v>
       </c>
       <c r="N24" s="58">
         <f>'RAW GRADES'!CS26</f>
-        <v>28.5</v>
+        <v>28.751999999999999</v>
       </c>
       <c r="O24" s="56">
         <f>'RAW GRADES'!CT26</f>
@@ -23518,19 +23562,19 @@
       </c>
       <c r="K26" s="52">
         <f>'RAW GRADES'!CP28</f>
-        <v>47.5</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="L26" s="52">
         <f>'RAW GRADES'!CQ28</f>
-        <v>47.5</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="M26" s="54">
         <f>'RAW GRADES'!CR28</f>
-        <v>47.5</v>
+        <v>47.92</v>
       </c>
       <c r="N26" s="58">
         <f>'RAW GRADES'!CS28</f>
-        <v>28.5</v>
+        <v>28.751999999999999</v>
       </c>
       <c r="O26" s="56">
         <f>'RAW GRADES'!CT28</f>
@@ -23648,19 +23692,19 @@
       </c>
       <c r="K28" s="52">
         <f>'RAW GRADES'!CP30</f>
-        <v>31.5</v>
+        <v>34.583333333333336</v>
       </c>
       <c r="L28" s="52">
         <f>'RAW GRADES'!CQ30</f>
-        <v>31.5</v>
+        <v>34.583333333333336</v>
       </c>
       <c r="M28" s="54">
         <f>'RAW GRADES'!CR30</f>
-        <v>31.5</v>
+        <v>34.58</v>
       </c>
       <c r="N28" s="58">
         <f>'RAW GRADES'!CS30</f>
-        <v>18.899999999999999</v>
+        <v>20.747999999999998</v>
       </c>
       <c r="O28" s="56">
         <f>'RAW GRADES'!CT30</f>
@@ -26327,106 +26371,106 @@
       <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="229"/>
-      <c r="B3" s="229"/>
-      <c r="C3" s="229"/>
-      <c r="D3" s="229"/>
-      <c r="E3" s="229"/>
-      <c r="F3" s="229"/>
+      <c r="A3" s="260"/>
+      <c r="B3" s="260"/>
+      <c r="C3" s="260"/>
+      <c r="D3" s="260"/>
+      <c r="E3" s="260"/>
+      <c r="F3" s="260"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="230" t="s">
+      <c r="A4" s="263" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="230"/>
-      <c r="C4" s="230"/>
-      <c r="D4" s="230"/>
-      <c r="E4" s="230"/>
-      <c r="F4" s="230"/>
+      <c r="B4" s="263"/>
+      <c r="C4" s="263"/>
+      <c r="D4" s="263"/>
+      <c r="E4" s="263"/>
+      <c r="F4" s="263"/>
     </row>
     <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="231" t="s">
+      <c r="A5" s="264" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="231"/>
-      <c r="C5" s="231"/>
-      <c r="D5" s="231"/>
-      <c r="E5" s="231"/>
-      <c r="F5" s="231"/>
+      <c r="B5" s="264"/>
+      <c r="C5" s="264"/>
+      <c r="D5" s="264"/>
+      <c r="E5" s="264"/>
+      <c r="F5" s="264"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="230" t="s">
+      <c r="A6" s="263" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="230"/>
-      <c r="C6" s="230"/>
-      <c r="D6" s="230"/>
-      <c r="E6" s="230"/>
-      <c r="F6" s="230"/>
+      <c r="B6" s="263"/>
+      <c r="C6" s="263"/>
+      <c r="D6" s="263"/>
+      <c r="E6" s="263"/>
+      <c r="F6" s="263"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="232" t="s">
+      <c r="A7" s="265" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="232"/>
-      <c r="C7" s="232"/>
-      <c r="D7" s="232"/>
-      <c r="E7" s="232"/>
-      <c r="F7" s="232"/>
+      <c r="B7" s="265"/>
+      <c r="C7" s="265"/>
+      <c r="D7" s="265"/>
+      <c r="E7" s="265"/>
+      <c r="F7" s="265"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="233"/>
-      <c r="B8" s="233"/>
-      <c r="C8" s="233"/>
-      <c r="D8" s="233"/>
-      <c r="E8" s="233"/>
-      <c r="F8" s="233"/>
+      <c r="A8" s="266"/>
+      <c r="B8" s="266"/>
+      <c r="C8" s="266"/>
+      <c r="D8" s="266"/>
+      <c r="E8" s="266"/>
+      <c r="F8" s="266"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="229"/>
-      <c r="B9" s="229"/>
-      <c r="C9" s="229"/>
-      <c r="D9" s="229"/>
-      <c r="E9" s="229"/>
-      <c r="F9" s="229"/>
+      <c r="A9" s="260"/>
+      <c r="B9" s="260"/>
+      <c r="C9" s="260"/>
+      <c r="D9" s="260"/>
+      <c r="E9" s="260"/>
+      <c r="F9" s="260"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="234"/>
-      <c r="B10" s="234"/>
-      <c r="C10" s="234"/>
-      <c r="D10" s="234"/>
-      <c r="E10" s="234"/>
-      <c r="F10" s="234"/>
+      <c r="A10" s="267"/>
+      <c r="B10" s="267"/>
+      <c r="C10" s="267"/>
+      <c r="D10" s="267"/>
+      <c r="E10" s="267"/>
+      <c r="F10" s="267"/>
     </row>
     <row r="11" spans="1:6" ht="22.5">
-      <c r="A11" s="235" t="s">
+      <c r="A11" s="268" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="235"/>
-      <c r="C11" s="235"/>
-      <c r="D11" s="235"/>
-      <c r="E11" s="235"/>
-      <c r="F11" s="235"/>
+      <c r="B11" s="268"/>
+      <c r="C11" s="268"/>
+      <c r="D11" s="268"/>
+      <c r="E11" s="268"/>
+      <c r="F11" s="268"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="233"/>
-      <c r="B12" s="233"/>
-      <c r="C12" s="233"/>
-      <c r="D12" s="233"/>
-      <c r="E12" s="233"/>
-      <c r="F12" s="233"/>
+      <c r="A12" s="266"/>
+      <c r="B12" s="266"/>
+      <c r="C12" s="266"/>
+      <c r="D12" s="266"/>
+      <c r="E12" s="266"/>
+      <c r="F12" s="266"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="60"/>
       <c r="B13" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="236" t="str">
+      <c r="C13" s="269" t="str">
         <f>REGISTRATION!C7</f>
         <v>DCIT 55</v>
       </c>
-      <c r="D13" s="236"/>
-      <c r="E13" s="236"/>
+      <c r="D13" s="269"/>
+      <c r="E13" s="269"/>
       <c r="F13" s="62"/>
     </row>
     <row r="14" spans="1:6">
@@ -26434,12 +26478,12 @@
       <c r="B14" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="228" t="str">
+      <c r="C14" s="262" t="str">
         <f>REGISTRATION!C6</f>
         <v>Operating System</v>
       </c>
-      <c r="D14" s="228"/>
-      <c r="E14" s="228"/>
+      <c r="D14" s="262"/>
+      <c r="E14" s="262"/>
       <c r="F14" s="62"/>
     </row>
     <row r="15" spans="1:6">
@@ -26447,12 +26491,12 @@
       <c r="B15" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="239" t="str">
+      <c r="C15" s="248" t="str">
         <f>REGISTRATION!A4</f>
         <v>FIRST YEAR</v>
       </c>
-      <c r="D15" s="239"/>
-      <c r="E15" s="239"/>
+      <c r="D15" s="248"/>
+      <c r="E15" s="248"/>
       <c r="F15" s="63"/>
     </row>
     <row r="16" spans="1:6">
@@ -26460,12 +26504,12 @@
       <c r="B16" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="239" t="str">
+      <c r="C16" s="248" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ",REGISTRATION!D8))</f>
         <v>CS 3B</v>
       </c>
-      <c r="D16" s="239"/>
-      <c r="E16" s="239"/>
+      <c r="D16" s="248"/>
+      <c r="E16" s="248"/>
       <c r="F16" s="63"/>
     </row>
     <row r="17" spans="1:6">
@@ -26473,12 +26517,12 @@
       <c r="B17" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="239" t="str">
+      <c r="C17" s="248" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!P13," ","SEMESTER"," ","A.Y."," ",REGISTRATION!P12))</f>
         <v>FIRST SEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="D17" s="239"/>
-      <c r="E17" s="239"/>
+      <c r="D17" s="248"/>
+      <c r="E17" s="248"/>
       <c r="F17" s="63"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
@@ -26490,42 +26534,42 @@
       <c r="F18" s="60"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="240" t="s">
+      <c r="A19" s="249" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="243" t="s">
+      <c r="B19" s="252" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="240" t="s">
+      <c r="C19" s="249" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="240" t="s">
+      <c r="D19" s="249" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="245" t="s">
+      <c r="E19" s="254" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="240" t="s">
+      <c r="F19" s="249" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="241"/>
-      <c r="B20" s="244"/>
-      <c r="C20" s="241"/>
-      <c r="D20" s="241"/>
-      <c r="E20" s="246"/>
-      <c r="F20" s="248"/>
+      <c r="A20" s="250"/>
+      <c r="B20" s="253"/>
+      <c r="C20" s="250"/>
+      <c r="D20" s="250"/>
+      <c r="E20" s="255"/>
+      <c r="F20" s="257"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A21" s="242"/>
+      <c r="A21" s="251"/>
       <c r="B21" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="242"/>
-      <c r="D21" s="242"/>
-      <c r="E21" s="247"/>
-      <c r="F21" s="249"/>
+      <c r="C21" s="251"/>
+      <c r="D21" s="251"/>
+      <c r="E21" s="256"/>
+      <c r="F21" s="258"/>
     </row>
     <row r="22" spans="1:6" ht="18">
       <c r="A22" s="65">
@@ -28038,14 +28082,14 @@
       <c r="F82" s="84"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A83" s="256" t="s">
+      <c r="A83" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="B83" s="257"/>
-      <c r="C83" s="257"/>
-      <c r="D83" s="257"/>
-      <c r="E83" s="257"/>
-      <c r="F83" s="258"/>
+      <c r="B83" s="233"/>
+      <c r="C83" s="233"/>
+      <c r="D83" s="233"/>
+      <c r="E83" s="233"/>
+      <c r="F83" s="234"/>
     </row>
     <row r="84" spans="1:6" ht="15.75">
       <c r="A84" s="62"/>
@@ -28078,11 +28122,11 @@
       </c>
       <c r="C87" s="60"/>
       <c r="D87" s="60"/>
-      <c r="E87" s="250">
+      <c r="E87" s="259">
         <f ca="1">NOW()</f>
-        <v>43022.335008217589</v>
-      </c>
-      <c r="F87" s="250"/>
+        <v>43050.500578587962</v>
+      </c>
+      <c r="F87" s="259"/>
     </row>
     <row r="88" spans="1:6" ht="15.75">
       <c r="A88" s="60"/>
@@ -28092,10 +28136,10 @@
       </c>
       <c r="C88" s="73"/>
       <c r="D88" s="73"/>
-      <c r="E88" s="229" t="s">
+      <c r="E88" s="260" t="s">
         <v>121</v>
       </c>
-      <c r="F88" s="229"/>
+      <c r="F88" s="260"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="60"/>
@@ -28112,8 +28156,8 @@
       <c r="B90" s="74"/>
       <c r="C90" s="74"/>
       <c r="D90" s="74"/>
-      <c r="E90" s="229"/>
-      <c r="F90" s="229"/>
+      <c r="E90" s="260"/>
+      <c r="F90" s="260"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="60"/>
@@ -28229,14 +28273,14 @@
       <c r="F104" s="60"/>
     </row>
     <row r="105" spans="1:7" ht="15.75">
-      <c r="A105" s="251" t="s">
+      <c r="A105" s="261" t="s">
         <v>136</v>
       </c>
-      <c r="B105" s="251"/>
-      <c r="C105" s="251"/>
-      <c r="D105" s="251"/>
-      <c r="E105" s="251"/>
-      <c r="F105" s="251"/>
+      <c r="B105" s="261"/>
+      <c r="C105" s="261"/>
+      <c r="D105" s="261"/>
+      <c r="E105" s="261"/>
+      <c r="F105" s="261"/>
     </row>
     <row r="106" spans="1:7" ht="15.75" thickBot="1">
       <c r="A106" s="60"/>
@@ -28251,124 +28295,124 @@
       <c r="B107" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="C107" s="269" t="s">
+      <c r="C107" s="245" t="s">
         <v>138</v>
       </c>
-      <c r="D107" s="238"/>
-      <c r="E107" s="237" t="s">
+      <c r="D107" s="246"/>
+      <c r="E107" s="247" t="s">
         <v>139</v>
       </c>
-      <c r="F107" s="238"/>
+      <c r="F107" s="246"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="60"/>
       <c r="B108" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="C108" s="265">
+      <c r="C108" s="241">
         <f>COUNTIF($D$22:$D$82,"=1.0")+COUNTIF($D$22:$D$82,"=1.25")+(COUNTIF($D$22:$D$82,"=1.50")+COUNTIF($D$22:$D$82,"=1.75"))</f>
         <v>0</v>
       </c>
-      <c r="D108" s="266"/>
-      <c r="E108" s="267">
+      <c r="D108" s="242"/>
+      <c r="E108" s="243">
         <f>(C108/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F108" s="268"/>
+      <c r="F108" s="244"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="60"/>
       <c r="B109" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="C109" s="259">
+      <c r="C109" s="235">
         <f>COUNTIF($D$22:$D$82,"=2.0")+COUNTIF($D$22:$D$82,"=2.25")+(COUNTIF($D$22:$D$82,"=2.50")+COUNTIF($D$22:$D$82,"=2.75"))</f>
         <v>0</v>
       </c>
-      <c r="D109" s="260"/>
-      <c r="E109" s="261">
+      <c r="D109" s="236"/>
+      <c r="E109" s="237">
         <f>(C109/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F109" s="262"/>
+      <c r="F109" s="238"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="60"/>
       <c r="B110" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="C110" s="259">
+      <c r="C110" s="235">
         <f>COUNTIF($D$22:$D$82,"=3.0")</f>
         <v>0</v>
       </c>
-      <c r="D110" s="260"/>
-      <c r="E110" s="261">
+      <c r="D110" s="236"/>
+      <c r="E110" s="237">
         <f t="shared" ref="E110:E113" si="1">(C110/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F110" s="262"/>
+      <c r="F110" s="238"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="60"/>
       <c r="B111" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="C111" s="259">
+      <c r="C111" s="235">
         <f>COUNTIF($D$22:$D$82,"=5.0")</f>
         <v>60</v>
       </c>
-      <c r="D111" s="260"/>
-      <c r="E111" s="261">
+      <c r="D111" s="236"/>
+      <c r="E111" s="237">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F111" s="262"/>
+      <c r="F111" s="238"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="60"/>
       <c r="B112" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="C112" s="263">
-        <v>0</v>
-      </c>
-      <c r="D112" s="264"/>
-      <c r="E112" s="261">
+      <c r="C112" s="239">
+        <v>0</v>
+      </c>
+      <c r="D112" s="240"/>
+      <c r="E112" s="237">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F112" s="262"/>
+      <c r="F112" s="238"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="60"/>
       <c r="B113" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="C113" s="263">
-        <v>0</v>
-      </c>
-      <c r="D113" s="264"/>
-      <c r="E113" s="261">
+      <c r="C113" s="239">
+        <v>0</v>
+      </c>
+      <c r="D113" s="240"/>
+      <c r="E113" s="237">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F113" s="262"/>
+      <c r="F113" s="238"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" thickBot="1">
       <c r="A114" s="60"/>
       <c r="B114" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="C114" s="252">
+      <c r="C114" s="228">
         <f>SUM(C108:D113)</f>
         <v>60</v>
       </c>
-      <c r="D114" s="253"/>
-      <c r="E114" s="254">
+      <c r="D114" s="229"/>
+      <c r="E114" s="230">
         <f>SUM(E108:F113)</f>
         <v>100</v>
       </c>
-      <c r="F114" s="255"/>
+      <c r="F114" s="231"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="60"/>
@@ -28536,6 +28580,32 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="42">
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="A105:F105"/>
     <mergeCell ref="C114:D114"/>
     <mergeCell ref="E114:F114"/>
     <mergeCell ref="A83:F83"/>
@@ -28552,32 +28622,6 @@
     <mergeCell ref="C110:D110"/>
     <mergeCell ref="E110:F110"/>
     <mergeCell ref="C107:D107"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <conditionalFormatting sqref="F22:F81">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">

--- a/DCIT 55 - CS 3B/LEC AND LAB - CS 3B.xlsx
+++ b/DCIT 55 - CS 3B/LEC AND LAB - CS 3B.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="243">
   <si>
     <t>Subject:</t>
   </si>
@@ -811,6 +811,9 @@
   </si>
   <si>
     <t>Roland Karl</t>
+  </si>
+  <si>
+    <t>OS Simulation</t>
   </si>
 </sst>
 </file>
@@ -5718,9 +5721,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="BV1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BV29" sqref="BV29"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="BA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BE13" sqref="BE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6250,13 +6253,15 @@
       </c>
       <c r="BC7" s="191"/>
       <c r="BD7" s="192"/>
-      <c r="BE7" s="183"/>
+      <c r="BE7" s="183" t="s">
+        <v>242</v>
+      </c>
       <c r="BF7" s="183"/>
       <c r="BG7" s="183"/>
       <c r="BH7" s="183"/>
       <c r="BI7" s="187">
         <f>COUNT(BE9,BG9,BI9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ7" s="187"/>
       <c r="BK7" s="105">
@@ -6278,17 +6283,29 @@
         <v>42987</v>
       </c>
       <c r="BS7" s="183"/>
-      <c r="BT7" s="183"/>
+      <c r="BT7" s="183">
+        <v>43001</v>
+      </c>
       <c r="BU7" s="183"/>
-      <c r="BV7" s="183"/>
+      <c r="BV7" s="183">
+        <v>43038</v>
+      </c>
       <c r="BW7" s="183"/>
-      <c r="BX7" s="183"/>
+      <c r="BX7" s="183">
+        <v>43050</v>
+      </c>
       <c r="BY7" s="183"/>
-      <c r="BZ7" s="183"/>
+      <c r="BZ7" s="183">
+        <v>43057</v>
+      </c>
       <c r="CA7" s="183"/>
-      <c r="CB7" s="183"/>
+      <c r="CB7" s="183">
+        <v>43064</v>
+      </c>
       <c r="CC7" s="183"/>
-      <c r="CD7" s="183"/>
+      <c r="CD7" s="183">
+        <v>43071</v>
+      </c>
       <c r="CE7" s="183"/>
       <c r="CF7" s="183"/>
       <c r="CG7" s="183"/>
@@ -6300,7 +6317,7 @@
       <c r="CM7" s="183"/>
       <c r="CN7" s="187">
         <f>COUNT(CN9,CL9,CJ9,CH9,CF9,CD9,CB9,BZ9,BX9,BV9,BT9,BR9,BP9,BN9,BL9)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="CO7" s="187"/>
       <c r="CP7" s="106">
@@ -6576,7 +6593,9 @@
       <c r="BD9" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="BE9" s="27"/>
+      <c r="BE9" s="27">
+        <v>100</v>
+      </c>
       <c r="BF9" s="30" t="s">
         <v>87</v>
       </c>
@@ -6627,19 +6646,27 @@
       <c r="BW9" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="BX9" s="27"/>
+      <c r="BX9" s="27">
+        <v>100</v>
+      </c>
       <c r="BY9" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="BZ9" s="27"/>
+      <c r="BZ9" s="27">
+        <v>100</v>
+      </c>
       <c r="CA9" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="CB9" s="27"/>
+      <c r="CB9" s="27">
+        <v>100</v>
+      </c>
       <c r="CC9" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="CD9" s="27"/>
+      <c r="CD9" s="27">
+        <v>100</v>
+      </c>
       <c r="CE9" s="30" t="s">
         <v>87</v>
       </c>
@@ -6806,9 +6833,9 @@
         <v>0</v>
       </c>
       <c r="BE10" s="107"/>
-      <c r="BF10" s="92" t="str">
+      <c r="BF10" s="92">
         <f>IFERROR(((BE10/$BE$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG10" s="107"/>
       <c r="BH10" s="92" t="str">
@@ -6820,9 +6847,9 @@
         <f>IFERROR(((finalExamLab/$BI$9)*100),"")</f>
         <v/>
       </c>
-      <c r="BK10" s="103" t="str">
+      <c r="BK10" s="103">
         <f>IFERROR(((SUM(BF10,BH10,BJ10)/$BI$7)*$BK$7),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL10" s="107">
         <v>100</v>
@@ -6866,25 +6893,33 @@
         <f>IFERROR(((BV10/$BV$9)*100),"")</f>
         <v>65</v>
       </c>
-      <c r="BX10" s="107"/>
-      <c r="BY10" s="92" t="str">
+      <c r="BX10" s="107">
+        <v>100</v>
+      </c>
+      <c r="BY10" s="92">
         <f>IFERROR(((BX10/$BX$9)*100),"")</f>
-        <v/>
-      </c>
-      <c r="BZ10" s="107"/>
-      <c r="CA10" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="BZ10" s="107">
+        <v>100</v>
+      </c>
+      <c r="CA10" s="92">
         <f>IFERROR(((BZ10/$BZ$9)*100),"")</f>
-        <v/>
-      </c>
-      <c r="CB10" s="107"/>
-      <c r="CC10" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="CB10" s="107">
+        <v>100</v>
+      </c>
+      <c r="CC10" s="92">
         <f>IFERROR(((CB10/$CB$9)*100),"")</f>
-        <v/>
-      </c>
-      <c r="CD10" s="107"/>
-      <c r="CE10" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="CD10" s="107">
+        <v>95</v>
+      </c>
+      <c r="CE10" s="92">
         <f>IFERROR(((CD10/$CD$9)*100),"")</f>
-        <v/>
+        <v>95</v>
       </c>
       <c r="CF10" s="107"/>
       <c r="CG10" s="92" t="str">
@@ -6913,19 +6948,19 @@
       </c>
       <c r="CP10" s="103">
         <f>IFERROR(((SUM(BM10,BO10,BQ10,BS10,BU10,BW10,BY10,CA10,CC10,CE10,CG10,CI10,CK10,CM10,CO10)/$CN$7)*$CP$7),"")</f>
-        <v>45</v>
+        <v>46.75</v>
       </c>
       <c r="CQ10" s="99">
         <f>IFERROR(SUM(CP10,BK10),"")</f>
-        <v>45</v>
+        <v>46.75</v>
       </c>
       <c r="CR10" s="99">
         <f>IFERROR(ROUND(CQ10,2),"")</f>
-        <v>45</v>
+        <v>46.75</v>
       </c>
       <c r="CS10" s="104">
         <f>IFERROR(((CR10*0.6)+(BD10*0.4)),"")</f>
-        <v>27</v>
+        <v>28.05</v>
       </c>
       <c r="CT10" s="104">
         <f>IFERROR(VLOOKUP(CS10,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7066,9 +7101,9 @@
         <v>0</v>
       </c>
       <c r="BE11" s="108"/>
-      <c r="BF11" s="92" t="str">
+      <c r="BF11" s="92">
         <f t="shared" ref="BF11:BF70" si="20">IFERROR(((BE11/$BE$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG11" s="108"/>
       <c r="BH11" s="92" t="str">
@@ -7080,9 +7115,9 @@
         <f>IFERROR(((BI11/$BI$9)*100),"")</f>
         <v/>
       </c>
-      <c r="BK11" s="103" t="str">
+      <c r="BK11" s="103">
         <f t="shared" ref="BK11:BK70" si="22">IFERROR(((SUM(BF11,BH11,BJ11)/$BI$7)*$BK$7),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL11" s="108">
         <v>100</v>
@@ -7126,25 +7161,33 @@
         <f t="shared" ref="BW11:BW70" si="28">IFERROR(((BV11/$BV$9)*100),"")</f>
         <v>100</v>
       </c>
-      <c r="BX11" s="107"/>
-      <c r="BY11" s="92" t="str">
+      <c r="BX11" s="107">
+        <v>100</v>
+      </c>
+      <c r="BY11" s="92">
         <f t="shared" ref="BY11:BY70" si="29">IFERROR(((BX11/$BX$9)*100),"")</f>
-        <v/>
-      </c>
-      <c r="BZ11" s="107"/>
-      <c r="CA11" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="BZ11" s="107">
+        <v>100</v>
+      </c>
+      <c r="CA11" s="92">
         <f t="shared" ref="CA11:CA70" si="30">IFERROR(((BZ11/$BZ$9)*100),"")</f>
-        <v/>
-      </c>
-      <c r="CB11" s="107"/>
-      <c r="CC11" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="CB11" s="107">
+        <v>100</v>
+      </c>
+      <c r="CC11" s="92">
         <f t="shared" ref="CC11:CC70" si="31">IFERROR(((CB11/$CB$9)*100),"")</f>
-        <v/>
-      </c>
-      <c r="CD11" s="107"/>
-      <c r="CE11" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="CD11" s="107">
+        <v>100</v>
+      </c>
+      <c r="CE11" s="92">
         <f t="shared" ref="CE11:CE70" si="32">IFERROR(((CD11/$CD$9)*100),"")</f>
-        <v/>
+        <v>100</v>
       </c>
       <c r="CF11" s="107"/>
       <c r="CG11" s="92" t="str">
@@ -7173,19 +7216,19 @@
       </c>
       <c r="CP11" s="103">
         <f t="shared" ref="CP11:CP70" si="38">IFERROR(((SUM(BM11,BO11,BQ11,BS11,BU11,BW11,BY11,CA11,CC11,CE11,CG11,CI11,CK11,CM11,CO11)/$CN$7)*$CP$7),"")</f>
-        <v>48.333333333333336</v>
+        <v>49</v>
       </c>
       <c r="CQ11" s="99">
         <f t="shared" ref="CQ11:CQ70" si="39">IFERROR(SUM(CP11,BK11),"")</f>
-        <v>48.333333333333336</v>
+        <v>49</v>
       </c>
       <c r="CR11" s="99">
         <f t="shared" ref="CR11:CR70" si="40">IFERROR(ROUND(CQ11,2),"")</f>
-        <v>48.33</v>
+        <v>49</v>
       </c>
       <c r="CS11" s="104">
         <f t="shared" ref="CS11:CS22" si="41">IFERROR(((CR11*0.6)+(BD11*0.4)),"")</f>
-        <v>28.997999999999998</v>
+        <v>29.4</v>
       </c>
       <c r="CT11" s="104">
         <f>IFERROR(VLOOKUP(CS11,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7326,9 +7369,9 @@
         <v>0</v>
       </c>
       <c r="BE12" s="108"/>
-      <c r="BF12" s="92" t="str">
+      <c r="BF12" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG12" s="108"/>
       <c r="BH12" s="92" t="str">
@@ -7340,9 +7383,9 @@
         <f t="shared" ref="BJ12:BJ70" si="44">IFERROR(((BI12/$BI$9)*100),"")</f>
         <v/>
       </c>
-      <c r="BK12" s="103" t="str">
+      <c r="BK12" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL12" s="108">
         <v>100</v>
@@ -7386,25 +7429,33 @@
         <f t="shared" si="28"/>
         <v>100</v>
       </c>
-      <c r="BX12" s="107"/>
-      <c r="BY12" s="92" t="str">
+      <c r="BX12" s="107">
+        <v>100</v>
+      </c>
+      <c r="BY12" s="92">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="BZ12" s="107"/>
-      <c r="CA12" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="BZ12" s="107">
+        <v>100</v>
+      </c>
+      <c r="CA12" s="92">
         <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="CB12" s="107"/>
-      <c r="CC12" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="CB12" s="107">
+        <v>100</v>
+      </c>
+      <c r="CC12" s="92">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="CD12" s="107"/>
-      <c r="CE12" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="CD12" s="107">
+        <v>95</v>
+      </c>
+      <c r="CE12" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>95</v>
       </c>
       <c r="CF12" s="107"/>
       <c r="CG12" s="92" t="str">
@@ -7433,19 +7484,19 @@
       </c>
       <c r="CP12" s="103">
         <f t="shared" si="38"/>
-        <v>47.916666666666664</v>
+        <v>48.5</v>
       </c>
       <c r="CQ12" s="99">
         <f t="shared" si="39"/>
-        <v>47.916666666666664</v>
+        <v>48.5</v>
       </c>
       <c r="CR12" s="99">
         <f t="shared" si="40"/>
-        <v>47.92</v>
+        <v>48.5</v>
       </c>
       <c r="CS12" s="104">
         <f t="shared" si="41"/>
-        <v>28.751999999999999</v>
+        <v>29.099999999999998</v>
       </c>
       <c r="CT12" s="104">
         <f>IFERROR(VLOOKUP(CS12,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7586,9 +7637,9 @@
         <v>0</v>
       </c>
       <c r="BE13" s="108"/>
-      <c r="BF13" s="92" t="str">
+      <c r="BF13" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG13" s="108"/>
       <c r="BH13" s="92" t="str">
@@ -7600,9 +7651,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK13" s="103" t="str">
+      <c r="BK13" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL13" s="108">
         <v>60</v>
@@ -7626,11 +7677,11 @@
         <v>60</v>
       </c>
       <c r="BR13" s="108">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BS13" s="92">
         <f t="shared" si="26"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BT13" s="108">
         <v>75</v>
@@ -7640,31 +7691,39 @@
         <v>75</v>
       </c>
       <c r="BV13" s="107">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BW13" s="92">
         <f t="shared" si="28"/>
+        <v>70</v>
+      </c>
+      <c r="BX13" s="107">
         <v>65</v>
       </c>
-      <c r="BX13" s="107"/>
-      <c r="BY13" s="92" t="str">
+      <c r="BY13" s="92">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="BZ13" s="107"/>
-      <c r="CA13" s="92" t="str">
+        <v>65</v>
+      </c>
+      <c r="BZ13" s="107">
+        <v>65</v>
+      </c>
+      <c r="CA13" s="92">
         <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="CB13" s="107"/>
-      <c r="CC13" s="92" t="str">
+        <v>65</v>
+      </c>
+      <c r="CB13" s="107">
+        <v>100</v>
+      </c>
+      <c r="CC13" s="92">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="CD13" s="107"/>
-      <c r="CE13" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="CD13" s="107">
+        <v>100</v>
+      </c>
+      <c r="CE13" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="CF13" s="107"/>
       <c r="CG13" s="92" t="str">
@@ -7693,19 +7752,19 @@
       </c>
       <c r="CP13" s="103">
         <f t="shared" si="38"/>
-        <v>31.666666666666668</v>
+        <v>36</v>
       </c>
       <c r="CQ13" s="99">
         <f t="shared" si="39"/>
-        <v>31.666666666666668</v>
+        <v>36</v>
       </c>
       <c r="CR13" s="99">
         <f t="shared" si="40"/>
-        <v>31.67</v>
+        <v>36</v>
       </c>
       <c r="CS13" s="104">
         <f t="shared" si="41"/>
-        <v>19.001999999999999</v>
+        <v>21.599999999999998</v>
       </c>
       <c r="CT13" s="104">
         <f>IFERROR(VLOOKUP(CS13,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7846,9 +7905,9 @@
         <v>0</v>
       </c>
       <c r="BE14" s="108"/>
-      <c r="BF14" s="92" t="str">
+      <c r="BF14" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG14" s="108"/>
       <c r="BH14" s="92" t="str">
@@ -7860,9 +7919,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK14" s="103" t="str">
+      <c r="BK14" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL14" s="108">
         <v>100</v>
@@ -7906,25 +7965,33 @@
         <f t="shared" si="28"/>
         <v>100</v>
       </c>
-      <c r="BX14" s="107"/>
-      <c r="BY14" s="92" t="str">
+      <c r="BX14" s="107">
+        <v>100</v>
+      </c>
+      <c r="BY14" s="92">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="BZ14" s="107"/>
-      <c r="CA14" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="BZ14" s="107">
+        <v>100</v>
+      </c>
+      <c r="CA14" s="92">
         <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="CB14" s="107"/>
-      <c r="CC14" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="CB14" s="107">
+        <v>100</v>
+      </c>
+      <c r="CC14" s="92">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="CD14" s="107"/>
-      <c r="CE14" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="CD14" s="107">
+        <v>95</v>
+      </c>
+      <c r="CE14" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>95</v>
       </c>
       <c r="CF14" s="107"/>
       <c r="CG14" s="92" t="str">
@@ -7953,19 +8020,19 @@
       </c>
       <c r="CP14" s="103">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>49.75</v>
       </c>
       <c r="CQ14" s="99">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>49.75</v>
       </c>
       <c r="CR14" s="99">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>49.75</v>
       </c>
       <c r="CS14" s="104">
         <f t="shared" si="41"/>
-        <v>30</v>
+        <v>29.849999999999998</v>
       </c>
       <c r="CT14" s="104">
         <f>IFERROR(VLOOKUP(CS14,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8106,9 +8173,9 @@
         <v>0</v>
       </c>
       <c r="BE15" s="108"/>
-      <c r="BF15" s="92" t="str">
+      <c r="BF15" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG15" s="108"/>
       <c r="BH15" s="92" t="str">
@@ -8120,9 +8187,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK15" s="103" t="str">
+      <c r="BK15" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL15" s="108">
         <v>100</v>
@@ -8166,25 +8233,33 @@
         <f t="shared" si="28"/>
         <v>100</v>
       </c>
-      <c r="BX15" s="107"/>
-      <c r="BY15" s="92" t="str">
+      <c r="BX15" s="107">
+        <v>100</v>
+      </c>
+      <c r="BY15" s="92">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="BZ15" s="107"/>
-      <c r="CA15" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="BZ15" s="107">
+        <v>100</v>
+      </c>
+      <c r="CA15" s="92">
         <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="CB15" s="107"/>
-      <c r="CC15" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="CB15" s="107">
+        <v>100</v>
+      </c>
+      <c r="CC15" s="92">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="CD15" s="107"/>
-      <c r="CE15" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="CD15" s="107">
+        <v>100</v>
+      </c>
+      <c r="CE15" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="CF15" s="107"/>
       <c r="CG15" s="92" t="str">
@@ -8213,19 +8288,19 @@
       </c>
       <c r="CP15" s="103">
         <f t="shared" si="38"/>
-        <v>49.583333333333336</v>
+        <v>49.75</v>
       </c>
       <c r="CQ15" s="99">
         <f t="shared" si="39"/>
-        <v>49.583333333333336</v>
+        <v>49.75</v>
       </c>
       <c r="CR15" s="99">
         <f t="shared" si="40"/>
-        <v>49.58</v>
+        <v>49.75</v>
       </c>
       <c r="CS15" s="104">
         <f t="shared" si="41"/>
-        <v>29.747999999999998</v>
+        <v>29.849999999999998</v>
       </c>
       <c r="CT15" s="104">
         <f>IFERROR(VLOOKUP(CS15,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8366,9 +8441,9 @@
         <v>0</v>
       </c>
       <c r="BE16" s="108"/>
-      <c r="BF16" s="92" t="str">
+      <c r="BF16" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG16" s="108"/>
       <c r="BH16" s="92" t="str">
@@ -8380,9 +8455,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK16" s="103" t="str">
+      <c r="BK16" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL16" s="108">
         <v>100</v>
@@ -8426,25 +8501,33 @@
         <f t="shared" si="28"/>
         <v>100</v>
       </c>
-      <c r="BX16" s="107"/>
-      <c r="BY16" s="92" t="str">
+      <c r="BX16" s="107">
+        <v>100</v>
+      </c>
+      <c r="BY16" s="92">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="BZ16" s="107"/>
-      <c r="CA16" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="BZ16" s="107">
+        <v>100</v>
+      </c>
+      <c r="CA16" s="92">
         <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="CB16" s="107"/>
-      <c r="CC16" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="CB16" s="107">
+        <v>100</v>
+      </c>
+      <c r="CC16" s="92">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="CD16" s="107"/>
-      <c r="CE16" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="CD16" s="107">
+        <v>95</v>
+      </c>
+      <c r="CE16" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>95</v>
       </c>
       <c r="CF16" s="107"/>
       <c r="CG16" s="92" t="str">
@@ -8473,19 +8556,19 @@
       </c>
       <c r="CP16" s="103">
         <f t="shared" si="38"/>
-        <v>48.333333333333336</v>
+        <v>48.75</v>
       </c>
       <c r="CQ16" s="99">
         <f t="shared" si="39"/>
-        <v>48.333333333333336</v>
+        <v>48.75</v>
       </c>
       <c r="CR16" s="99">
         <f t="shared" si="40"/>
-        <v>48.33</v>
+        <v>48.75</v>
       </c>
       <c r="CS16" s="104">
         <f t="shared" si="41"/>
-        <v>28.997999999999998</v>
+        <v>29.25</v>
       </c>
       <c r="CT16" s="104">
         <f>IFERROR(VLOOKUP(CS16,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8626,9 +8709,9 @@
         <v>0</v>
       </c>
       <c r="BE17" s="108"/>
-      <c r="BF17" s="92" t="str">
+      <c r="BF17" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG17" s="108"/>
       <c r="BH17" s="92" t="str">
@@ -8640,9 +8723,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK17" s="103" t="str">
+      <c r="BK17" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL17" s="108">
         <v>100</v>
@@ -8686,25 +8769,33 @@
         <f t="shared" si="28"/>
         <v>100</v>
       </c>
-      <c r="BX17" s="107"/>
-      <c r="BY17" s="92" t="str">
+      <c r="BX17" s="107">
+        <v>100</v>
+      </c>
+      <c r="BY17" s="92">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="BZ17" s="107"/>
-      <c r="CA17" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="BZ17" s="107">
+        <v>100</v>
+      </c>
+      <c r="CA17" s="92">
         <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="CB17" s="107"/>
-      <c r="CC17" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="CB17" s="107">
+        <v>100</v>
+      </c>
+      <c r="CC17" s="92">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="CD17" s="107"/>
-      <c r="CE17" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="CD17" s="107">
+        <v>95</v>
+      </c>
+      <c r="CE17" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>95</v>
       </c>
       <c r="CF17" s="107"/>
       <c r="CG17" s="92" t="str">
@@ -8733,19 +8824,19 @@
       </c>
       <c r="CP17" s="103">
         <f t="shared" si="38"/>
-        <v>47.916666666666664</v>
+        <v>48.5</v>
       </c>
       <c r="CQ17" s="99">
         <f t="shared" si="39"/>
-        <v>47.916666666666664</v>
+        <v>48.5</v>
       </c>
       <c r="CR17" s="99">
         <f t="shared" si="40"/>
-        <v>47.92</v>
+        <v>48.5</v>
       </c>
       <c r="CS17" s="104">
         <f t="shared" si="41"/>
-        <v>28.751999999999999</v>
+        <v>29.099999999999998</v>
       </c>
       <c r="CT17" s="104">
         <f>IFERROR(VLOOKUP(CS17,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8886,9 +8977,9 @@
         <v>0</v>
       </c>
       <c r="BE18" s="108"/>
-      <c r="BF18" s="92" t="str">
+      <c r="BF18" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG18" s="108"/>
       <c r="BH18" s="92" t="str">
@@ -8900,9 +8991,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK18" s="103" t="str">
+      <c r="BK18" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL18" s="108">
         <v>100</v>
@@ -8946,25 +9037,33 @@
         <f t="shared" si="28"/>
         <v>100</v>
       </c>
-      <c r="BX18" s="107"/>
-      <c r="BY18" s="92" t="str">
+      <c r="BX18" s="107">
+        <v>100</v>
+      </c>
+      <c r="BY18" s="92">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="BZ18" s="107"/>
-      <c r="CA18" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="BZ18" s="107">
+        <v>100</v>
+      </c>
+      <c r="CA18" s="92">
         <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="CB18" s="107"/>
-      <c r="CC18" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="CB18" s="107">
+        <v>100</v>
+      </c>
+      <c r="CC18" s="92">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="CD18" s="107"/>
-      <c r="CE18" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="CD18" s="107">
+        <v>100</v>
+      </c>
+      <c r="CE18" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="CF18" s="107"/>
       <c r="CG18" s="92" t="str">
@@ -8993,19 +9092,19 @@
       </c>
       <c r="CP18" s="103">
         <f t="shared" si="38"/>
-        <v>47.916666666666664</v>
+        <v>48.75</v>
       </c>
       <c r="CQ18" s="99">
         <f t="shared" si="39"/>
-        <v>47.916666666666664</v>
+        <v>48.75</v>
       </c>
       <c r="CR18" s="99">
         <f t="shared" si="40"/>
-        <v>47.92</v>
+        <v>48.75</v>
       </c>
       <c r="CS18" s="104">
         <f t="shared" si="41"/>
-        <v>28.751999999999999</v>
+        <v>29.25</v>
       </c>
       <c r="CT18" s="104">
         <f>IFERROR(VLOOKUP(CS18,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9146,9 +9245,9 @@
         <v>0</v>
       </c>
       <c r="BE19" s="108"/>
-      <c r="BF19" s="92" t="str">
+      <c r="BF19" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG19" s="108"/>
       <c r="BH19" s="92" t="str">
@@ -9160,9 +9259,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK19" s="103" t="str">
+      <c r="BK19" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL19" s="108">
         <v>100</v>
@@ -9206,25 +9305,33 @@
         <f t="shared" si="28"/>
         <v>100</v>
       </c>
-      <c r="BX19" s="107"/>
-      <c r="BY19" s="92" t="str">
+      <c r="BX19" s="107">
+        <v>100</v>
+      </c>
+      <c r="BY19" s="92">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="BZ19" s="107"/>
-      <c r="CA19" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="BZ19" s="107">
+        <v>100</v>
+      </c>
+      <c r="CA19" s="92">
         <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="CB19" s="107"/>
-      <c r="CC19" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="CB19" s="107">
+        <v>100</v>
+      </c>
+      <c r="CC19" s="92">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="CD19" s="107"/>
-      <c r="CE19" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="CD19" s="107">
+        <v>95</v>
+      </c>
+      <c r="CE19" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>95</v>
       </c>
       <c r="CF19" s="107"/>
       <c r="CG19" s="92" t="str">
@@ -9253,19 +9360,19 @@
       </c>
       <c r="CP19" s="103">
         <f t="shared" si="38"/>
-        <v>47.916666666666664</v>
+        <v>48.5</v>
       </c>
       <c r="CQ19" s="99">
         <f t="shared" si="39"/>
-        <v>47.916666666666664</v>
+        <v>48.5</v>
       </c>
       <c r="CR19" s="99">
         <f t="shared" si="40"/>
-        <v>47.92</v>
+        <v>48.5</v>
       </c>
       <c r="CS19" s="104">
         <f t="shared" si="41"/>
-        <v>28.751999999999999</v>
+        <v>29.099999999999998</v>
       </c>
       <c r="CT19" s="104">
         <f>IFERROR(VLOOKUP(CS19,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9406,9 +9513,9 @@
         <v>0</v>
       </c>
       <c r="BE20" s="108"/>
-      <c r="BF20" s="92" t="str">
+      <c r="BF20" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG20" s="108"/>
       <c r="BH20" s="92" t="str">
@@ -9420,9 +9527,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK20" s="103" t="str">
+      <c r="BK20" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL20" s="108">
         <v>100</v>
@@ -9466,25 +9573,33 @@
         <f t="shared" si="28"/>
         <v>100</v>
       </c>
-      <c r="BX20" s="107"/>
-      <c r="BY20" s="92" t="str">
+      <c r="BX20" s="107">
+        <v>100</v>
+      </c>
+      <c r="BY20" s="92">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="BZ20" s="107"/>
-      <c r="CA20" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="BZ20" s="107">
+        <v>100</v>
+      </c>
+      <c r="CA20" s="92">
         <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="CB20" s="107"/>
-      <c r="CC20" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="CB20" s="107">
+        <v>100</v>
+      </c>
+      <c r="CC20" s="92">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="CD20" s="107"/>
-      <c r="CE20" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="CD20" s="107">
+        <v>100</v>
+      </c>
+      <c r="CE20" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="CF20" s="107"/>
       <c r="CG20" s="92" t="str">
@@ -9513,19 +9628,19 @@
       </c>
       <c r="CP20" s="103">
         <f t="shared" si="38"/>
-        <v>47.916666666666664</v>
+        <v>48.75</v>
       </c>
       <c r="CQ20" s="99">
         <f t="shared" si="39"/>
-        <v>47.916666666666664</v>
+        <v>48.75</v>
       </c>
       <c r="CR20" s="99">
         <f t="shared" si="40"/>
-        <v>47.92</v>
+        <v>48.75</v>
       </c>
       <c r="CS20" s="104">
         <f t="shared" si="41"/>
-        <v>28.751999999999999</v>
+        <v>29.25</v>
       </c>
       <c r="CT20" s="104">
         <f>IFERROR(VLOOKUP(CS20,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9666,9 +9781,9 @@
         <v>0</v>
       </c>
       <c r="BE21" s="108"/>
-      <c r="BF21" s="92" t="str">
+      <c r="BF21" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG21" s="108"/>
       <c r="BH21" s="92" t="str">
@@ -9680,9 +9795,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK21" s="103" t="str">
+      <c r="BK21" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL21" s="108">
         <v>100</v>
@@ -9726,25 +9841,33 @@
         <f t="shared" si="28"/>
         <v>100</v>
       </c>
-      <c r="BX21" s="107"/>
-      <c r="BY21" s="92" t="str">
+      <c r="BX21" s="107">
+        <v>100</v>
+      </c>
+      <c r="BY21" s="92">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="BZ21" s="107"/>
-      <c r="CA21" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="BZ21" s="107">
+        <v>100</v>
+      </c>
+      <c r="CA21" s="92">
         <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="CB21" s="107"/>
-      <c r="CC21" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="CB21" s="107">
+        <v>100</v>
+      </c>
+      <c r="CC21" s="92">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="CD21" s="107"/>
-      <c r="CE21" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="CD21" s="107">
+        <v>100</v>
+      </c>
+      <c r="CE21" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="CF21" s="107"/>
       <c r="CG21" s="92" t="str">
@@ -9773,19 +9896,19 @@
       </c>
       <c r="CP21" s="103">
         <f t="shared" si="38"/>
-        <v>49.166666666666664</v>
+        <v>49.5</v>
       </c>
       <c r="CQ21" s="99">
         <f t="shared" si="39"/>
-        <v>49.166666666666664</v>
+        <v>49.5</v>
       </c>
       <c r="CR21" s="99">
         <f t="shared" si="40"/>
-        <v>49.17</v>
+        <v>49.5</v>
       </c>
       <c r="CS21" s="104">
         <f t="shared" si="41"/>
-        <v>29.501999999999999</v>
+        <v>29.7</v>
       </c>
       <c r="CT21" s="104">
         <f>IFERROR(VLOOKUP(CS21,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9926,9 +10049,9 @@
         <v>0</v>
       </c>
       <c r="BE22" s="108"/>
-      <c r="BF22" s="92" t="str">
+      <c r="BF22" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG22" s="108"/>
       <c r="BH22" s="92" t="str">
@@ -9940,9 +10063,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK22" s="103" t="str">
+      <c r="BK22" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL22" s="108">
         <v>100</v>
@@ -9986,25 +10109,33 @@
         <f t="shared" si="28"/>
         <v>100</v>
       </c>
-      <c r="BX22" s="107"/>
-      <c r="BY22" s="92" t="str">
+      <c r="BX22" s="107">
+        <v>100</v>
+      </c>
+      <c r="BY22" s="92">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="BZ22" s="107"/>
-      <c r="CA22" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="BZ22" s="107">
+        <v>100</v>
+      </c>
+      <c r="CA22" s="92">
         <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="CB22" s="107"/>
-      <c r="CC22" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="CB22" s="107">
+        <v>100</v>
+      </c>
+      <c r="CC22" s="92">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="CD22" s="107"/>
-      <c r="CE22" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="CD22" s="107">
+        <v>95</v>
+      </c>
+      <c r="CE22" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>95</v>
       </c>
       <c r="CF22" s="107"/>
       <c r="CG22" s="92" t="str">
@@ -10033,19 +10164,19 @@
       </c>
       <c r="CP22" s="103">
         <f t="shared" si="38"/>
-        <v>47.916666666666664</v>
+        <v>48.5</v>
       </c>
       <c r="CQ22" s="99">
         <f t="shared" si="39"/>
-        <v>47.916666666666664</v>
+        <v>48.5</v>
       </c>
       <c r="CR22" s="99">
         <f t="shared" si="40"/>
-        <v>47.92</v>
+        <v>48.5</v>
       </c>
       <c r="CS22" s="104">
         <f t="shared" si="41"/>
-        <v>28.751999999999999</v>
+        <v>29.099999999999998</v>
       </c>
       <c r="CT22" s="104">
         <f>IFERROR(VLOOKUP(CS22,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10186,9 +10317,9 @@
         <v>0</v>
       </c>
       <c r="BE23" s="108"/>
-      <c r="BF23" s="92" t="str">
+      <c r="BF23" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG23" s="108"/>
       <c r="BH23" s="92" t="str">
@@ -10200,9 +10331,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK23" s="103" t="str">
+      <c r="BK23" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL23" s="108">
         <v>100</v>
@@ -10246,25 +10377,33 @@
         <f t="shared" si="28"/>
         <v>100</v>
       </c>
-      <c r="BX23" s="107"/>
-      <c r="BY23" s="92" t="str">
+      <c r="BX23" s="107">
+        <v>100</v>
+      </c>
+      <c r="BY23" s="92">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="BZ23" s="107"/>
-      <c r="CA23" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="BZ23" s="107">
+        <v>100</v>
+      </c>
+      <c r="CA23" s="92">
         <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="CB23" s="107"/>
-      <c r="CC23" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="CB23" s="107">
+        <v>100</v>
+      </c>
+      <c r="CC23" s="92">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="CD23" s="107"/>
-      <c r="CE23" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="CD23" s="107">
+        <v>100</v>
+      </c>
+      <c r="CE23" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="CF23" s="107"/>
       <c r="CG23" s="92" t="str">
@@ -10293,19 +10432,19 @@
       </c>
       <c r="CP23" s="103">
         <f t="shared" si="38"/>
-        <v>47.916666666666664</v>
+        <v>48.75</v>
       </c>
       <c r="CQ23" s="99">
         <f t="shared" si="39"/>
-        <v>47.916666666666664</v>
+        <v>48.75</v>
       </c>
       <c r="CR23" s="99">
         <f t="shared" si="40"/>
-        <v>47.92</v>
+        <v>48.75</v>
       </c>
       <c r="CS23" s="104">
         <f t="shared" ref="CS23:CS70" si="45">IFERROR(((CR23*0.6)+(BD23*0.4)),"")</f>
-        <v>28.751999999999999</v>
+        <v>29.25</v>
       </c>
       <c r="CT23" s="104">
         <f>IFERROR(VLOOKUP(CS23,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10446,9 +10585,9 @@
         <v>0</v>
       </c>
       <c r="BE24" s="108"/>
-      <c r="BF24" s="92" t="str">
+      <c r="BF24" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG24" s="108"/>
       <c r="BH24" s="92" t="str">
@@ -10460,9 +10599,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK24" s="103" t="str">
+      <c r="BK24" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL24" s="108">
         <v>100</v>
@@ -10506,25 +10645,33 @@
         <f t="shared" si="28"/>
         <v>65</v>
       </c>
-      <c r="BX24" s="107"/>
-      <c r="BY24" s="92" t="str">
+      <c r="BX24" s="107">
+        <v>100</v>
+      </c>
+      <c r="BY24" s="92">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="BZ24" s="107"/>
-      <c r="CA24" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="BZ24" s="107">
+        <v>100</v>
+      </c>
+      <c r="CA24" s="92">
         <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="CB24" s="107"/>
-      <c r="CC24" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="CB24" s="107">
+        <v>100</v>
+      </c>
+      <c r="CC24" s="92">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="CD24" s="107"/>
-      <c r="CE24" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="CD24" s="107">
+        <v>100</v>
+      </c>
+      <c r="CE24" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="CF24" s="107"/>
       <c r="CG24" s="92" t="str">
@@ -10553,19 +10700,19 @@
       </c>
       <c r="CP24" s="103">
         <f t="shared" si="38"/>
-        <v>46.25</v>
+        <v>47.75</v>
       </c>
       <c r="CQ24" s="99">
         <f t="shared" si="39"/>
-        <v>46.25</v>
+        <v>47.75</v>
       </c>
       <c r="CR24" s="99">
         <f t="shared" si="40"/>
-        <v>46.25</v>
+        <v>47.75</v>
       </c>
       <c r="CS24" s="104">
         <f t="shared" si="45"/>
-        <v>27.75</v>
+        <v>28.65</v>
       </c>
       <c r="CT24" s="104">
         <f>IFERROR(VLOOKUP(CS24,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10706,9 +10853,9 @@
         <v>0</v>
       </c>
       <c r="BE25" s="108"/>
-      <c r="BF25" s="92" t="str">
+      <c r="BF25" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG25" s="108"/>
       <c r="BH25" s="92" t="str">
@@ -10720,9 +10867,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK25" s="103" t="str">
+      <c r="BK25" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL25" s="108">
         <v>100</v>
@@ -10766,25 +10913,33 @@
         <f t="shared" si="28"/>
         <v>100</v>
       </c>
-      <c r="BX25" s="107"/>
-      <c r="BY25" s="92" t="str">
+      <c r="BX25" s="107">
+        <v>100</v>
+      </c>
+      <c r="BY25" s="92">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="BZ25" s="107"/>
-      <c r="CA25" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="BZ25" s="107">
+        <v>100</v>
+      </c>
+      <c r="CA25" s="92">
         <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="CB25" s="107"/>
-      <c r="CC25" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="CB25" s="107">
+        <v>100</v>
+      </c>
+      <c r="CC25" s="92">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="CD25" s="107"/>
-      <c r="CE25" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="CD25" s="107">
+        <v>100</v>
+      </c>
+      <c r="CE25" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="CF25" s="107"/>
       <c r="CG25" s="92" t="str">
@@ -10813,19 +10968,19 @@
       </c>
       <c r="CP25" s="103">
         <f t="shared" si="38"/>
-        <v>47.916666666666664</v>
+        <v>48.75</v>
       </c>
       <c r="CQ25" s="99">
         <f t="shared" si="39"/>
-        <v>47.916666666666664</v>
+        <v>48.75</v>
       </c>
       <c r="CR25" s="99">
         <f t="shared" si="40"/>
-        <v>47.92</v>
+        <v>48.75</v>
       </c>
       <c r="CS25" s="104">
         <f t="shared" si="45"/>
-        <v>28.751999999999999</v>
+        <v>29.25</v>
       </c>
       <c r="CT25" s="104">
         <f>IFERROR(VLOOKUP(CS25,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10966,9 +11121,9 @@
         <v>0</v>
       </c>
       <c r="BE26" s="108"/>
-      <c r="BF26" s="92" t="str">
+      <c r="BF26" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG26" s="108"/>
       <c r="BH26" s="92" t="str">
@@ -10980,9 +11135,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK26" s="103" t="str">
+      <c r="BK26" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL26" s="108">
         <v>100</v>
@@ -11026,25 +11181,33 @@
         <f t="shared" si="28"/>
         <v>100</v>
       </c>
-      <c r="BX26" s="107"/>
-      <c r="BY26" s="92" t="str">
+      <c r="BX26" s="107">
+        <v>100</v>
+      </c>
+      <c r="BY26" s="92">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="BZ26" s="107"/>
-      <c r="CA26" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="BZ26" s="107">
+        <v>100</v>
+      </c>
+      <c r="CA26" s="92">
         <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="CB26" s="107"/>
-      <c r="CC26" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="CB26" s="107">
+        <v>100</v>
+      </c>
+      <c r="CC26" s="92">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="CD26" s="107"/>
-      <c r="CE26" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="CD26" s="107">
+        <v>95</v>
+      </c>
+      <c r="CE26" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>95</v>
       </c>
       <c r="CF26" s="107"/>
       <c r="CG26" s="92" t="str">
@@ -11073,19 +11236,19 @@
       </c>
       <c r="CP26" s="103">
         <f t="shared" si="38"/>
-        <v>47.916666666666664</v>
+        <v>48.5</v>
       </c>
       <c r="CQ26" s="99">
         <f t="shared" si="39"/>
-        <v>47.916666666666664</v>
+        <v>48.5</v>
       </c>
       <c r="CR26" s="99">
         <f t="shared" si="40"/>
-        <v>47.92</v>
+        <v>48.5</v>
       </c>
       <c r="CS26" s="104">
         <f t="shared" si="45"/>
-        <v>28.751999999999999</v>
+        <v>29.099999999999998</v>
       </c>
       <c r="CT26" s="104">
         <f>IFERROR(VLOOKUP(CS26,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11226,9 +11389,9 @@
         <v>0</v>
       </c>
       <c r="BE27" s="108"/>
-      <c r="BF27" s="92" t="str">
+      <c r="BF27" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG27" s="108"/>
       <c r="BH27" s="92" t="str">
@@ -11240,9 +11403,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK27" s="103" t="str">
+      <c r="BK27" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL27" s="108">
         <v>100</v>
@@ -11286,25 +11449,33 @@
         <f t="shared" si="28"/>
         <v>100</v>
       </c>
-      <c r="BX27" s="107"/>
-      <c r="BY27" s="92" t="str">
+      <c r="BX27" s="107">
+        <v>100</v>
+      </c>
+      <c r="BY27" s="92">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="BZ27" s="107"/>
-      <c r="CA27" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="BZ27" s="107">
+        <v>100</v>
+      </c>
+      <c r="CA27" s="92">
         <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="CB27" s="107"/>
-      <c r="CC27" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="CB27" s="107">
+        <v>100</v>
+      </c>
+      <c r="CC27" s="92">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="CD27" s="107"/>
-      <c r="CE27" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="CD27" s="107">
+        <v>100</v>
+      </c>
+      <c r="CE27" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="CF27" s="107"/>
       <c r="CG27" s="92" t="str">
@@ -11486,9 +11657,9 @@
         <v>0</v>
       </c>
       <c r="BE28" s="108"/>
-      <c r="BF28" s="92" t="str">
+      <c r="BF28" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG28" s="108"/>
       <c r="BH28" s="92" t="str">
@@ -11500,9 +11671,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK28" s="103" t="str">
+      <c r="BK28" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL28" s="108">
         <v>100</v>
@@ -11546,25 +11717,33 @@
         <f t="shared" si="28"/>
         <v>100</v>
       </c>
-      <c r="BX28" s="107"/>
-      <c r="BY28" s="92" t="str">
+      <c r="BX28" s="107">
+        <v>100</v>
+      </c>
+      <c r="BY28" s="92">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="BZ28" s="107"/>
-      <c r="CA28" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="BZ28" s="107">
+        <v>100</v>
+      </c>
+      <c r="CA28" s="92">
         <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="CB28" s="107"/>
-      <c r="CC28" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="CB28" s="107">
+        <v>100</v>
+      </c>
+      <c r="CC28" s="92">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="CD28" s="107"/>
-      <c r="CE28" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="CD28" s="107">
+        <v>95</v>
+      </c>
+      <c r="CE28" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>95</v>
       </c>
       <c r="CF28" s="107"/>
       <c r="CG28" s="92" t="str">
@@ -11593,19 +11772,19 @@
       </c>
       <c r="CP28" s="103">
         <f t="shared" si="38"/>
-        <v>47.916666666666664</v>
+        <v>48.5</v>
       </c>
       <c r="CQ28" s="99">
         <f t="shared" si="39"/>
-        <v>47.916666666666664</v>
+        <v>48.5</v>
       </c>
       <c r="CR28" s="99">
         <f t="shared" si="40"/>
-        <v>47.92</v>
+        <v>48.5</v>
       </c>
       <c r="CS28" s="104">
         <f t="shared" si="45"/>
-        <v>28.751999999999999</v>
+        <v>29.099999999999998</v>
       </c>
       <c r="CT28" s="104">
         <f>IFERROR(VLOOKUP(CS28,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11746,9 +11925,9 @@
         <v>0</v>
       </c>
       <c r="BE29" s="108"/>
-      <c r="BF29" s="92" t="str">
+      <c r="BF29" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG29" s="108"/>
       <c r="BH29" s="92" t="str">
@@ -11760,9 +11939,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK29" s="103" t="str">
+      <c r="BK29" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL29" s="108">
         <v>100</v>
@@ -11806,25 +11985,33 @@
         <f t="shared" si="28"/>
         <v>100</v>
       </c>
-      <c r="BX29" s="107"/>
-      <c r="BY29" s="92" t="str">
+      <c r="BX29" s="107">
+        <v>100</v>
+      </c>
+      <c r="BY29" s="92">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="BZ29" s="107"/>
-      <c r="CA29" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="BZ29" s="107">
+        <v>100</v>
+      </c>
+      <c r="CA29" s="92">
         <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="CB29" s="107"/>
-      <c r="CC29" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="CB29" s="107">
+        <v>100</v>
+      </c>
+      <c r="CC29" s="92">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="CD29" s="107"/>
-      <c r="CE29" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="CD29" s="107">
+        <v>100</v>
+      </c>
+      <c r="CE29" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="CF29" s="107"/>
       <c r="CG29" s="92" t="str">
@@ -12006,9 +12193,9 @@
         <v>0</v>
       </c>
       <c r="BE30" s="108"/>
-      <c r="BF30" s="92" t="str">
+      <c r="BF30" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG30" s="108"/>
       <c r="BH30" s="92" t="str">
@@ -12020,9 +12207,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK30" s="103" t="str">
+      <c r="BK30" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL30" s="108">
         <v>60</v>
@@ -12066,25 +12253,33 @@
         <f t="shared" si="28"/>
         <v>100</v>
       </c>
-      <c r="BX30" s="107"/>
-      <c r="BY30" s="92" t="str">
+      <c r="BX30" s="107">
+        <v>100</v>
+      </c>
+      <c r="BY30" s="92">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="BZ30" s="107"/>
-      <c r="CA30" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="BZ30" s="107">
+        <v>100</v>
+      </c>
+      <c r="CA30" s="92">
         <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="CB30" s="107"/>
-      <c r="CC30" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="CB30" s="107">
+        <v>100</v>
+      </c>
+      <c r="CC30" s="92">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="CD30" s="107"/>
-      <c r="CE30" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="CD30" s="107">
+        <v>95</v>
+      </c>
+      <c r="CE30" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>95</v>
       </c>
       <c r="CF30" s="107"/>
       <c r="CG30" s="92" t="str">
@@ -12113,19 +12308,19 @@
       </c>
       <c r="CP30" s="103">
         <f t="shared" si="38"/>
-        <v>34.583333333333336</v>
+        <v>40.5</v>
       </c>
       <c r="CQ30" s="99">
         <f t="shared" si="39"/>
-        <v>34.583333333333336</v>
+        <v>40.5</v>
       </c>
       <c r="CR30" s="99">
         <f t="shared" si="40"/>
-        <v>34.58</v>
+        <v>40.5</v>
       </c>
       <c r="CS30" s="104">
         <f t="shared" si="45"/>
-        <v>20.747999999999998</v>
+        <v>24.3</v>
       </c>
       <c r="CT30" s="104">
         <f>IFERROR(VLOOKUP(CS30,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12266,9 +12461,9 @@
         <v>0</v>
       </c>
       <c r="BE31" s="108"/>
-      <c r="BF31" s="92" t="str">
+      <c r="BF31" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG31" s="108"/>
       <c r="BH31" s="92" t="str">
@@ -12280,9 +12475,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK31" s="103" t="str">
+      <c r="BK31" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL31" s="108"/>
       <c r="BM31" s="92">
@@ -12315,24 +12510,24 @@
         <v>0</v>
       </c>
       <c r="BX31" s="107"/>
-      <c r="BY31" s="92" t="str">
+      <c r="BY31" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ31" s="107"/>
-      <c r="CA31" s="92" t="str">
+      <c r="CA31" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB31" s="107"/>
-      <c r="CC31" s="92" t="str">
+      <c r="CC31" s="92">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD31" s="107"/>
-      <c r="CE31" s="92" t="str">
+      <c r="CE31" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF31" s="107"/>
       <c r="CG31" s="92" t="str">
@@ -12514,9 +12709,9 @@
         <v>0</v>
       </c>
       <c r="BE32" s="108"/>
-      <c r="BF32" s="92" t="str">
+      <c r="BF32" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG32" s="108"/>
       <c r="BH32" s="92" t="str">
@@ -12528,9 +12723,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK32" s="103" t="str">
+      <c r="BK32" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL32" s="108"/>
       <c r="BM32" s="92">
@@ -12563,24 +12758,24 @@
         <v>0</v>
       </c>
       <c r="BX32" s="107"/>
-      <c r="BY32" s="92" t="str">
+      <c r="BY32" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ32" s="107"/>
-      <c r="CA32" s="92" t="str">
+      <c r="CA32" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB32" s="107"/>
-      <c r="CC32" s="92" t="str">
+      <c r="CC32" s="92">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD32" s="107"/>
-      <c r="CE32" s="92" t="str">
+      <c r="CE32" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF32" s="107"/>
       <c r="CG32" s="92" t="str">
@@ -12762,9 +12957,9 @@
         <v>0</v>
       </c>
       <c r="BE33" s="108"/>
-      <c r="BF33" s="92" t="str">
+      <c r="BF33" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG33" s="108"/>
       <c r="BH33" s="92" t="str">
@@ -12776,9 +12971,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK33" s="103" t="str">
+      <c r="BK33" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL33" s="108"/>
       <c r="BM33" s="92">
@@ -12811,24 +13006,24 @@
         <v>0</v>
       </c>
       <c r="BX33" s="107"/>
-      <c r="BY33" s="92" t="str">
+      <c r="BY33" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ33" s="107"/>
-      <c r="CA33" s="92" t="str">
+      <c r="CA33" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB33" s="107"/>
-      <c r="CC33" s="92" t="str">
+      <c r="CC33" s="92">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD33" s="107"/>
-      <c r="CE33" s="92" t="str">
+      <c r="CE33" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF33" s="107"/>
       <c r="CG33" s="92" t="str">
@@ -13010,9 +13205,9 @@
         <v>0</v>
       </c>
       <c r="BE34" s="108"/>
-      <c r="BF34" s="92" t="str">
+      <c r="BF34" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG34" s="108"/>
       <c r="BH34" s="92" t="str">
@@ -13024,9 +13219,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK34" s="103" t="str">
+      <c r="BK34" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL34" s="108"/>
       <c r="BM34" s="92">
@@ -13059,24 +13254,24 @@
         <v>0</v>
       </c>
       <c r="BX34" s="107"/>
-      <c r="BY34" s="92" t="str">
+      <c r="BY34" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ34" s="107"/>
-      <c r="CA34" s="92" t="str">
+      <c r="CA34" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB34" s="107"/>
-      <c r="CC34" s="92" t="str">
+      <c r="CC34" s="92">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD34" s="107"/>
-      <c r="CE34" s="92" t="str">
+      <c r="CE34" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF34" s="107"/>
       <c r="CG34" s="92" t="str">
@@ -13258,9 +13453,9 @@
         <v>0</v>
       </c>
       <c r="BE35" s="108"/>
-      <c r="BF35" s="92" t="str">
+      <c r="BF35" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG35" s="108"/>
       <c r="BH35" s="92" t="str">
@@ -13272,9 +13467,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK35" s="103" t="str">
+      <c r="BK35" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL35" s="108"/>
       <c r="BM35" s="92">
@@ -13307,24 +13502,24 @@
         <v>0</v>
       </c>
       <c r="BX35" s="107"/>
-      <c r="BY35" s="92" t="str">
+      <c r="BY35" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ35" s="107"/>
-      <c r="CA35" s="92" t="str">
+      <c r="CA35" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB35" s="107"/>
-      <c r="CC35" s="92" t="str">
+      <c r="CC35" s="92">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD35" s="107"/>
-      <c r="CE35" s="92" t="str">
+      <c r="CE35" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF35" s="107"/>
       <c r="CG35" s="92" t="str">
@@ -13506,9 +13701,9 @@
         <v>0</v>
       </c>
       <c r="BE36" s="108"/>
-      <c r="BF36" s="92" t="str">
+      <c r="BF36" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG36" s="108"/>
       <c r="BH36" s="92" t="str">
@@ -13520,9 +13715,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK36" s="103" t="str">
+      <c r="BK36" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL36" s="108"/>
       <c r="BM36" s="92">
@@ -13555,24 +13750,24 @@
         <v>0</v>
       </c>
       <c r="BX36" s="107"/>
-      <c r="BY36" s="92" t="str">
+      <c r="BY36" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ36" s="107"/>
-      <c r="CA36" s="92" t="str">
+      <c r="CA36" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB36" s="107"/>
-      <c r="CC36" s="92" t="str">
+      <c r="CC36" s="92">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD36" s="107"/>
-      <c r="CE36" s="92" t="str">
+      <c r="CE36" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF36" s="107"/>
       <c r="CG36" s="92" t="str">
@@ -13754,9 +13949,9 @@
         <v>0</v>
       </c>
       <c r="BE37" s="108"/>
-      <c r="BF37" s="92" t="str">
+      <c r="BF37" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG37" s="108"/>
       <c r="BH37" s="92" t="str">
@@ -13768,9 +13963,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK37" s="103" t="str">
+      <c r="BK37" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL37" s="108"/>
       <c r="BM37" s="92">
@@ -13803,24 +13998,24 @@
         <v>0</v>
       </c>
       <c r="BX37" s="107"/>
-      <c r="BY37" s="92" t="str">
+      <c r="BY37" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ37" s="107"/>
-      <c r="CA37" s="92" t="str">
+      <c r="CA37" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB37" s="107"/>
-      <c r="CC37" s="92" t="str">
+      <c r="CC37" s="92">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD37" s="107"/>
-      <c r="CE37" s="92" t="str">
+      <c r="CE37" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF37" s="107"/>
       <c r="CG37" s="92" t="str">
@@ -14002,9 +14197,9 @@
         <v>0</v>
       </c>
       <c r="BE38" s="108"/>
-      <c r="BF38" s="92" t="str">
+      <c r="BF38" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG38" s="108"/>
       <c r="BH38" s="92" t="str">
@@ -14016,9 +14211,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK38" s="103" t="str">
+      <c r="BK38" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL38" s="108"/>
       <c r="BM38" s="92">
@@ -14051,24 +14246,24 @@
         <v>0</v>
       </c>
       <c r="BX38" s="107"/>
-      <c r="BY38" s="92" t="str">
+      <c r="BY38" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ38" s="107"/>
-      <c r="CA38" s="92" t="str">
+      <c r="CA38" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB38" s="107"/>
-      <c r="CC38" s="92" t="str">
+      <c r="CC38" s="92">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD38" s="107"/>
-      <c r="CE38" s="92" t="str">
+      <c r="CE38" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF38" s="107"/>
       <c r="CG38" s="92" t="str">
@@ -14250,9 +14445,9 @@
         <v>0</v>
       </c>
       <c r="BE39" s="108"/>
-      <c r="BF39" s="92" t="str">
+      <c r="BF39" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG39" s="108"/>
       <c r="BH39" s="92" t="str">
@@ -14264,9 +14459,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK39" s="103" t="str">
+      <c r="BK39" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL39" s="108"/>
       <c r="BM39" s="92">
@@ -14299,24 +14494,24 @@
         <v>0</v>
       </c>
       <c r="BX39" s="107"/>
-      <c r="BY39" s="92" t="str">
+      <c r="BY39" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ39" s="107"/>
-      <c r="CA39" s="92" t="str">
+      <c r="CA39" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB39" s="107"/>
-      <c r="CC39" s="92" t="str">
+      <c r="CC39" s="92">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD39" s="107"/>
-      <c r="CE39" s="92" t="str">
+      <c r="CE39" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF39" s="107"/>
       <c r="CG39" s="92" t="str">
@@ -14498,9 +14693,9 @@
         <v>0</v>
       </c>
       <c r="BE40" s="108"/>
-      <c r="BF40" s="92" t="str">
+      <c r="BF40" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG40" s="108"/>
       <c r="BH40" s="92" t="str">
@@ -14512,9 +14707,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK40" s="103" t="str">
+      <c r="BK40" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL40" s="108"/>
       <c r="BM40" s="92">
@@ -14547,24 +14742,24 @@
         <v>0</v>
       </c>
       <c r="BX40" s="107"/>
-      <c r="BY40" s="92" t="str">
+      <c r="BY40" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ40" s="107"/>
-      <c r="CA40" s="92" t="str">
+      <c r="CA40" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB40" s="107"/>
-      <c r="CC40" s="92" t="str">
+      <c r="CC40" s="92">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD40" s="107"/>
-      <c r="CE40" s="92" t="str">
+      <c r="CE40" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF40" s="107"/>
       <c r="CG40" s="92" t="str">
@@ -14746,9 +14941,9 @@
         <v>0</v>
       </c>
       <c r="BE41" s="108"/>
-      <c r="BF41" s="92" t="str">
+      <c r="BF41" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG41" s="108"/>
       <c r="BH41" s="92" t="str">
@@ -14760,9 +14955,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK41" s="103" t="str">
+      <c r="BK41" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL41" s="108"/>
       <c r="BM41" s="92">
@@ -14795,24 +14990,24 @@
         <v>0</v>
       </c>
       <c r="BX41" s="107"/>
-      <c r="BY41" s="92" t="str">
+      <c r="BY41" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ41" s="107"/>
-      <c r="CA41" s="92" t="str">
+      <c r="CA41" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB41" s="107"/>
-      <c r="CC41" s="92" t="str">
+      <c r="CC41" s="92">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD41" s="107"/>
-      <c r="CE41" s="92" t="str">
+      <c r="CE41" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF41" s="107"/>
       <c r="CG41" s="92" t="str">
@@ -14994,9 +15189,9 @@
         <v>0</v>
       </c>
       <c r="BE42" s="108"/>
-      <c r="BF42" s="92" t="str">
+      <c r="BF42" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG42" s="108"/>
       <c r="BH42" s="92" t="str">
@@ -15008,9 +15203,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK42" s="103" t="str">
+      <c r="BK42" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL42" s="108"/>
       <c r="BM42" s="92">
@@ -15043,24 +15238,24 @@
         <v>0</v>
       </c>
       <c r="BX42" s="107"/>
-      <c r="BY42" s="92" t="str">
+      <c r="BY42" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ42" s="107"/>
-      <c r="CA42" s="92" t="str">
+      <c r="CA42" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB42" s="107"/>
-      <c r="CC42" s="92" t="str">
+      <c r="CC42" s="92">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD42" s="107"/>
-      <c r="CE42" s="92" t="str">
+      <c r="CE42" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF42" s="107"/>
       <c r="CG42" s="92" t="str">
@@ -15242,9 +15437,9 @@
         <v>0</v>
       </c>
       <c r="BE43" s="108"/>
-      <c r="BF43" s="92" t="str">
+      <c r="BF43" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG43" s="108"/>
       <c r="BH43" s="92" t="str">
@@ -15256,9 +15451,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK43" s="103" t="str">
+      <c r="BK43" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL43" s="108"/>
       <c r="BM43" s="92">
@@ -15291,24 +15486,24 @@
         <v>0</v>
       </c>
       <c r="BX43" s="107"/>
-      <c r="BY43" s="92" t="str">
+      <c r="BY43" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ43" s="107"/>
-      <c r="CA43" s="92" t="str">
+      <c r="CA43" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB43" s="107"/>
-      <c r="CC43" s="92" t="str">
+      <c r="CC43" s="92">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD43" s="107"/>
-      <c r="CE43" s="92" t="str">
+      <c r="CE43" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF43" s="107"/>
       <c r="CG43" s="92" t="str">
@@ -15490,9 +15685,9 @@
         <v>0</v>
       </c>
       <c r="BE44" s="108"/>
-      <c r="BF44" s="92" t="str">
+      <c r="BF44" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG44" s="108"/>
       <c r="BH44" s="92" t="str">
@@ -15504,9 +15699,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK44" s="103" t="str">
+      <c r="BK44" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL44" s="108"/>
       <c r="BM44" s="92">
@@ -15539,24 +15734,24 @@
         <v>0</v>
       </c>
       <c r="BX44" s="107"/>
-      <c r="BY44" s="92" t="str">
+      <c r="BY44" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ44" s="107"/>
-      <c r="CA44" s="92" t="str">
+      <c r="CA44" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB44" s="107"/>
-      <c r="CC44" s="92" t="str">
+      <c r="CC44" s="92">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD44" s="107"/>
-      <c r="CE44" s="92" t="str">
+      <c r="CE44" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF44" s="107"/>
       <c r="CG44" s="92" t="str">
@@ -15738,9 +15933,9 @@
         <v>0</v>
       </c>
       <c r="BE45" s="108"/>
-      <c r="BF45" s="92" t="str">
+      <c r="BF45" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG45" s="108"/>
       <c r="BH45" s="92" t="str">
@@ -15752,9 +15947,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK45" s="103" t="str">
+      <c r="BK45" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL45" s="108"/>
       <c r="BM45" s="92">
@@ -15787,24 +15982,24 @@
         <v>0</v>
       </c>
       <c r="BX45" s="107"/>
-      <c r="BY45" s="92" t="str">
+      <c r="BY45" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ45" s="107"/>
-      <c r="CA45" s="92" t="str">
+      <c r="CA45" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB45" s="107"/>
-      <c r="CC45" s="92" t="str">
+      <c r="CC45" s="92">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD45" s="107"/>
-      <c r="CE45" s="92" t="str">
+      <c r="CE45" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF45" s="107"/>
       <c r="CG45" s="92" t="str">
@@ -15986,9 +16181,9 @@
         <v>0</v>
       </c>
       <c r="BE46" s="108"/>
-      <c r="BF46" s="92" t="str">
+      <c r="BF46" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG46" s="108"/>
       <c r="BH46" s="92" t="str">
@@ -16000,9 +16195,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK46" s="103" t="str">
+      <c r="BK46" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL46" s="108"/>
       <c r="BM46" s="92">
@@ -16035,24 +16230,24 @@
         <v>0</v>
       </c>
       <c r="BX46" s="107"/>
-      <c r="BY46" s="92" t="str">
+      <c r="BY46" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ46" s="107"/>
-      <c r="CA46" s="92" t="str">
+      <c r="CA46" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB46" s="107"/>
-      <c r="CC46" s="92" t="str">
+      <c r="CC46" s="92">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD46" s="107"/>
-      <c r="CE46" s="92" t="str">
+      <c r="CE46" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF46" s="107"/>
       <c r="CG46" s="92" t="str">
@@ -16234,9 +16429,9 @@
         <v>0</v>
       </c>
       <c r="BE47" s="108"/>
-      <c r="BF47" s="92" t="str">
+      <c r="BF47" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG47" s="108"/>
       <c r="BH47" s="92" t="str">
@@ -16248,9 +16443,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK47" s="103" t="str">
+      <c r="BK47" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL47" s="108"/>
       <c r="BM47" s="92">
@@ -16283,24 +16478,24 @@
         <v>0</v>
       </c>
       <c r="BX47" s="107"/>
-      <c r="BY47" s="92" t="str">
+      <c r="BY47" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ47" s="107"/>
-      <c r="CA47" s="92" t="str">
+      <c r="CA47" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB47" s="107"/>
-      <c r="CC47" s="92" t="str">
+      <c r="CC47" s="92">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD47" s="107"/>
-      <c r="CE47" s="92" t="str">
+      <c r="CE47" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF47" s="107"/>
       <c r="CG47" s="92" t="str">
@@ -16482,9 +16677,9 @@
         <v>0</v>
       </c>
       <c r="BE48" s="108"/>
-      <c r="BF48" s="92" t="str">
+      <c r="BF48" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG48" s="108"/>
       <c r="BH48" s="92" t="str">
@@ -16496,9 +16691,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK48" s="103" t="str">
+      <c r="BK48" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL48" s="108"/>
       <c r="BM48" s="92">
@@ -16531,24 +16726,24 @@
         <v>0</v>
       </c>
       <c r="BX48" s="107"/>
-      <c r="BY48" s="92" t="str">
+      <c r="BY48" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ48" s="107"/>
-      <c r="CA48" s="92" t="str">
+      <c r="CA48" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB48" s="107"/>
-      <c r="CC48" s="92" t="str">
+      <c r="CC48" s="92">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD48" s="107"/>
-      <c r="CE48" s="92" t="str">
+      <c r="CE48" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF48" s="107"/>
       <c r="CG48" s="92" t="str">
@@ -16730,9 +16925,9 @@
         <v>0</v>
       </c>
       <c r="BE49" s="108"/>
-      <c r="BF49" s="92" t="str">
+      <c r="BF49" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG49" s="108"/>
       <c r="BH49" s="92" t="str">
@@ -16744,9 +16939,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK49" s="103" t="str">
+      <c r="BK49" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL49" s="108"/>
       <c r="BM49" s="92">
@@ -16779,24 +16974,24 @@
         <v>0</v>
       </c>
       <c r="BX49" s="107"/>
-      <c r="BY49" s="92" t="str">
+      <c r="BY49" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ49" s="107"/>
-      <c r="CA49" s="92" t="str">
+      <c r="CA49" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB49" s="107"/>
-      <c r="CC49" s="92" t="str">
+      <c r="CC49" s="92">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD49" s="107"/>
-      <c r="CE49" s="92" t="str">
+      <c r="CE49" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF49" s="107"/>
       <c r="CG49" s="92" t="str">
@@ -16978,9 +17173,9 @@
         <v>0</v>
       </c>
       <c r="BE50" s="108"/>
-      <c r="BF50" s="92" t="str">
+      <c r="BF50" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG50" s="108"/>
       <c r="BH50" s="92" t="str">
@@ -16992,9 +17187,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK50" s="103" t="str">
+      <c r="BK50" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL50" s="108"/>
       <c r="BM50" s="92">
@@ -17027,24 +17222,24 @@
         <v>0</v>
       </c>
       <c r="BX50" s="107"/>
-      <c r="BY50" s="92" t="str">
+      <c r="BY50" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ50" s="107"/>
-      <c r="CA50" s="92" t="str">
+      <c r="CA50" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB50" s="107"/>
-      <c r="CC50" s="92" t="str">
+      <c r="CC50" s="92">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD50" s="107"/>
-      <c r="CE50" s="92" t="str">
+      <c r="CE50" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF50" s="107"/>
       <c r="CG50" s="92" t="str">
@@ -17226,9 +17421,9 @@
         <v>0</v>
       </c>
       <c r="BE51" s="108"/>
-      <c r="BF51" s="92" t="str">
+      <c r="BF51" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG51" s="108"/>
       <c r="BH51" s="92" t="str">
@@ -17240,9 +17435,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK51" s="103" t="str">
+      <c r="BK51" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL51" s="108"/>
       <c r="BM51" s="92">
@@ -17275,24 +17470,24 @@
         <v>0</v>
       </c>
       <c r="BX51" s="107"/>
-      <c r="BY51" s="92" t="str">
+      <c r="BY51" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ51" s="107"/>
-      <c r="CA51" s="92" t="str">
+      <c r="CA51" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB51" s="107"/>
-      <c r="CC51" s="92" t="str">
+      <c r="CC51" s="92">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD51" s="107"/>
-      <c r="CE51" s="92" t="str">
+      <c r="CE51" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF51" s="107"/>
       <c r="CG51" s="92" t="str">
@@ -17474,9 +17669,9 @@
         <v>0</v>
       </c>
       <c r="BE52" s="108"/>
-      <c r="BF52" s="92" t="str">
+      <c r="BF52" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG52" s="108"/>
       <c r="BH52" s="92" t="str">
@@ -17488,9 +17683,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK52" s="103" t="str">
+      <c r="BK52" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL52" s="108"/>
       <c r="BM52" s="92">
@@ -17523,24 +17718,24 @@
         <v>0</v>
       </c>
       <c r="BX52" s="107"/>
-      <c r="BY52" s="92" t="str">
+      <c r="BY52" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ52" s="107"/>
-      <c r="CA52" s="92" t="str">
+      <c r="CA52" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB52" s="107"/>
-      <c r="CC52" s="92" t="str">
+      <c r="CC52" s="92">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD52" s="107"/>
-      <c r="CE52" s="92" t="str">
+      <c r="CE52" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF52" s="107"/>
       <c r="CG52" s="92" t="str">
@@ -17722,9 +17917,9 @@
         <v>0</v>
       </c>
       <c r="BE53" s="108"/>
-      <c r="BF53" s="92" t="str">
+      <c r="BF53" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG53" s="108"/>
       <c r="BH53" s="92" t="str">
@@ -17736,9 +17931,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK53" s="103" t="str">
+      <c r="BK53" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL53" s="108"/>
       <c r="BM53" s="92">
@@ -17771,24 +17966,24 @@
         <v>0</v>
       </c>
       <c r="BX53" s="107"/>
-      <c r="BY53" s="92" t="str">
+      <c r="BY53" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ53" s="107"/>
-      <c r="CA53" s="92" t="str">
+      <c r="CA53" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB53" s="107"/>
-      <c r="CC53" s="92" t="str">
+      <c r="CC53" s="92">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD53" s="107"/>
-      <c r="CE53" s="92" t="str">
+      <c r="CE53" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF53" s="107"/>
       <c r="CG53" s="92" t="str">
@@ -17970,9 +18165,9 @@
         <v>0</v>
       </c>
       <c r="BE54" s="108"/>
-      <c r="BF54" s="92" t="str">
+      <c r="BF54" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG54" s="108"/>
       <c r="BH54" s="92" t="str">
@@ -17984,9 +18179,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK54" s="103" t="str">
+      <c r="BK54" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL54" s="108"/>
       <c r="BM54" s="92">
@@ -18019,24 +18214,24 @@
         <v>0</v>
       </c>
       <c r="BX54" s="107"/>
-      <c r="BY54" s="92" t="str">
+      <c r="BY54" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ54" s="107"/>
-      <c r="CA54" s="92" t="str">
+      <c r="CA54" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB54" s="107"/>
-      <c r="CC54" s="92" t="str">
+      <c r="CC54" s="92">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD54" s="107"/>
-      <c r="CE54" s="92" t="str">
+      <c r="CE54" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF54" s="107"/>
       <c r="CG54" s="92" t="str">
@@ -18218,9 +18413,9 @@
         <v>0</v>
       </c>
       <c r="BE55" s="108"/>
-      <c r="BF55" s="92" t="str">
+      <c r="BF55" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG55" s="108"/>
       <c r="BH55" s="92" t="str">
@@ -18232,9 +18427,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK55" s="103" t="str">
+      <c r="BK55" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL55" s="108"/>
       <c r="BM55" s="92">
@@ -18267,24 +18462,24 @@
         <v>0</v>
       </c>
       <c r="BX55" s="107"/>
-      <c r="BY55" s="92" t="str">
+      <c r="BY55" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ55" s="107"/>
-      <c r="CA55" s="92" t="str">
+      <c r="CA55" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB55" s="107"/>
-      <c r="CC55" s="92" t="str">
+      <c r="CC55" s="92">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD55" s="107"/>
-      <c r="CE55" s="92" t="str">
+      <c r="CE55" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF55" s="107"/>
       <c r="CG55" s="92" t="str">
@@ -18466,9 +18661,9 @@
         <v>0</v>
       </c>
       <c r="BE56" s="108"/>
-      <c r="BF56" s="92" t="str">
+      <c r="BF56" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG56" s="108"/>
       <c r="BH56" s="92" t="str">
@@ -18480,9 +18675,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK56" s="103" t="str">
+      <c r="BK56" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL56" s="108"/>
       <c r="BM56" s="92">
@@ -18515,24 +18710,24 @@
         <v>0</v>
       </c>
       <c r="BX56" s="107"/>
-      <c r="BY56" s="92" t="str">
+      <c r="BY56" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ56" s="107"/>
-      <c r="CA56" s="92" t="str">
+      <c r="CA56" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB56" s="107"/>
-      <c r="CC56" s="92" t="str">
+      <c r="CC56" s="92">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD56" s="107"/>
-      <c r="CE56" s="92" t="str">
+      <c r="CE56" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF56" s="107"/>
       <c r="CG56" s="92" t="str">
@@ -18714,9 +18909,9 @@
         <v>0</v>
       </c>
       <c r="BE57" s="108"/>
-      <c r="BF57" s="92" t="str">
+      <c r="BF57" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG57" s="108"/>
       <c r="BH57" s="92" t="str">
@@ -18728,9 +18923,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK57" s="103" t="str">
+      <c r="BK57" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL57" s="108"/>
       <c r="BM57" s="92">
@@ -18763,24 +18958,24 @@
         <v>0</v>
       </c>
       <c r="BX57" s="107"/>
-      <c r="BY57" s="92" t="str">
+      <c r="BY57" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ57" s="107"/>
-      <c r="CA57" s="92" t="str">
+      <c r="CA57" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB57" s="107"/>
-      <c r="CC57" s="92" t="str">
+      <c r="CC57" s="92">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD57" s="107"/>
-      <c r="CE57" s="92" t="str">
+      <c r="CE57" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF57" s="107"/>
       <c r="CG57" s="92" t="str">
@@ -18962,9 +19157,9 @@
         <v>0</v>
       </c>
       <c r="BE58" s="108"/>
-      <c r="BF58" s="92" t="str">
+      <c r="BF58" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG58" s="108"/>
       <c r="BH58" s="92" t="str">
@@ -18976,9 +19171,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK58" s="103" t="str">
+      <c r="BK58" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL58" s="108"/>
       <c r="BM58" s="92">
@@ -19011,24 +19206,24 @@
         <v>0</v>
       </c>
       <c r="BX58" s="107"/>
-      <c r="BY58" s="92" t="str">
+      <c r="BY58" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ58" s="107"/>
-      <c r="CA58" s="92" t="str">
+      <c r="CA58" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB58" s="107"/>
-      <c r="CC58" s="92" t="str">
+      <c r="CC58" s="92">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD58" s="107"/>
-      <c r="CE58" s="92" t="str">
+      <c r="CE58" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF58" s="107"/>
       <c r="CG58" s="92" t="str">
@@ -19210,9 +19405,9 @@
         <v>0</v>
       </c>
       <c r="BE59" s="108"/>
-      <c r="BF59" s="92" t="str">
+      <c r="BF59" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG59" s="108"/>
       <c r="BH59" s="92" t="str">
@@ -19224,9 +19419,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK59" s="103" t="str">
+      <c r="BK59" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL59" s="108"/>
       <c r="BM59" s="92">
@@ -19259,24 +19454,24 @@
         <v>0</v>
       </c>
       <c r="BX59" s="107"/>
-      <c r="BY59" s="92" t="str">
+      <c r="BY59" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ59" s="107"/>
-      <c r="CA59" s="92" t="str">
+      <c r="CA59" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB59" s="107"/>
-      <c r="CC59" s="92" t="str">
+      <c r="CC59" s="92">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD59" s="107"/>
-      <c r="CE59" s="92" t="str">
+      <c r="CE59" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF59" s="107"/>
       <c r="CG59" s="92" t="str">
@@ -19458,9 +19653,9 @@
         <v>0</v>
       </c>
       <c r="BE60" s="108"/>
-      <c r="BF60" s="92" t="str">
+      <c r="BF60" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG60" s="108"/>
       <c r="BH60" s="92" t="str">
@@ -19472,9 +19667,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK60" s="103" t="str">
+      <c r="BK60" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL60" s="108"/>
       <c r="BM60" s="92">
@@ -19507,24 +19702,24 @@
         <v>0</v>
       </c>
       <c r="BX60" s="107"/>
-      <c r="BY60" s="92" t="str">
+      <c r="BY60" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ60" s="107"/>
-      <c r="CA60" s="92" t="str">
+      <c r="CA60" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB60" s="107"/>
-      <c r="CC60" s="92" t="str">
+      <c r="CC60" s="92">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD60" s="107"/>
-      <c r="CE60" s="92" t="str">
+      <c r="CE60" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF60" s="107"/>
       <c r="CG60" s="92" t="str">
@@ -19706,9 +19901,9 @@
         <v>0</v>
       </c>
       <c r="BE61" s="108"/>
-      <c r="BF61" s="92" t="str">
+      <c r="BF61" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG61" s="108"/>
       <c r="BH61" s="92" t="str">
@@ -19720,9 +19915,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK61" s="103" t="str">
+      <c r="BK61" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL61" s="108"/>
       <c r="BM61" s="92">
@@ -19755,24 +19950,24 @@
         <v>0</v>
       </c>
       <c r="BX61" s="107"/>
-      <c r="BY61" s="92" t="str">
+      <c r="BY61" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ61" s="107"/>
-      <c r="CA61" s="92" t="str">
+      <c r="CA61" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB61" s="107"/>
-      <c r="CC61" s="92" t="str">
+      <c r="CC61" s="92">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD61" s="107"/>
-      <c r="CE61" s="92" t="str">
+      <c r="CE61" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF61" s="107"/>
       <c r="CG61" s="92" t="str">
@@ -19954,9 +20149,9 @@
         <v>0</v>
       </c>
       <c r="BE62" s="108"/>
-      <c r="BF62" s="92" t="str">
+      <c r="BF62" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG62" s="108"/>
       <c r="BH62" s="92" t="str">
@@ -19968,9 +20163,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK62" s="103" t="str">
+      <c r="BK62" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL62" s="108"/>
       <c r="BM62" s="92">
@@ -20003,24 +20198,24 @@
         <v>0</v>
       </c>
       <c r="BX62" s="107"/>
-      <c r="BY62" s="92" t="str">
+      <c r="BY62" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ62" s="107"/>
-      <c r="CA62" s="92" t="str">
+      <c r="CA62" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB62" s="107"/>
-      <c r="CC62" s="92" t="str">
+      <c r="CC62" s="92">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD62" s="107"/>
-      <c r="CE62" s="92" t="str">
+      <c r="CE62" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF62" s="107"/>
       <c r="CG62" s="92" t="str">
@@ -20202,9 +20397,9 @@
         <v>0</v>
       </c>
       <c r="BE63" s="108"/>
-      <c r="BF63" s="92" t="str">
+      <c r="BF63" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG63" s="108"/>
       <c r="BH63" s="92" t="str">
@@ -20216,9 +20411,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK63" s="103" t="str">
+      <c r="BK63" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL63" s="108"/>
       <c r="BM63" s="92">
@@ -20251,24 +20446,24 @@
         <v>0</v>
       </c>
       <c r="BX63" s="107"/>
-      <c r="BY63" s="92" t="str">
+      <c r="BY63" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ63" s="107"/>
-      <c r="CA63" s="92" t="str">
+      <c r="CA63" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB63" s="107"/>
-      <c r="CC63" s="92" t="str">
+      <c r="CC63" s="92">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD63" s="107"/>
-      <c r="CE63" s="92" t="str">
+      <c r="CE63" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF63" s="107"/>
       <c r="CG63" s="92" t="str">
@@ -20450,9 +20645,9 @@
         <v>0</v>
       </c>
       <c r="BE64" s="108"/>
-      <c r="BF64" s="92" t="str">
+      <c r="BF64" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG64" s="108"/>
       <c r="BH64" s="92" t="str">
@@ -20464,9 +20659,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK64" s="103" t="str">
+      <c r="BK64" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL64" s="108"/>
       <c r="BM64" s="92">
@@ -20499,24 +20694,24 @@
         <v>0</v>
       </c>
       <c r="BX64" s="107"/>
-      <c r="BY64" s="92" t="str">
+      <c r="BY64" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ64" s="107"/>
-      <c r="CA64" s="92" t="str">
+      <c r="CA64" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB64" s="107"/>
-      <c r="CC64" s="92" t="str">
+      <c r="CC64" s="92">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD64" s="107"/>
-      <c r="CE64" s="92" t="str">
+      <c r="CE64" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF64" s="107"/>
       <c r="CG64" s="92" t="str">
@@ -20698,9 +20893,9 @@
         <v>0</v>
       </c>
       <c r="BE65" s="108"/>
-      <c r="BF65" s="92" t="str">
+      <c r="BF65" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG65" s="108"/>
       <c r="BH65" s="92" t="str">
@@ -20712,9 +20907,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK65" s="103" t="str">
+      <c r="BK65" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL65" s="108"/>
       <c r="BM65" s="92">
@@ -20747,24 +20942,24 @@
         <v>0</v>
       </c>
       <c r="BX65" s="107"/>
-      <c r="BY65" s="92" t="str">
+      <c r="BY65" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ65" s="107"/>
-      <c r="CA65" s="92" t="str">
+      <c r="CA65" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB65" s="107"/>
-      <c r="CC65" s="92" t="str">
+      <c r="CC65" s="92">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD65" s="107"/>
-      <c r="CE65" s="92" t="str">
+      <c r="CE65" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF65" s="107"/>
       <c r="CG65" s="92" t="str">
@@ -20946,9 +21141,9 @@
         <v>0</v>
       </c>
       <c r="BE66" s="108"/>
-      <c r="BF66" s="92" t="str">
+      <c r="BF66" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG66" s="108"/>
       <c r="BH66" s="92" t="str">
@@ -20960,9 +21155,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK66" s="103" t="str">
+      <c r="BK66" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL66" s="108"/>
       <c r="BM66" s="92">
@@ -20995,24 +21190,24 @@
         <v>0</v>
       </c>
       <c r="BX66" s="107"/>
-      <c r="BY66" s="92" t="str">
+      <c r="BY66" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ66" s="107"/>
-      <c r="CA66" s="92" t="str">
+      <c r="CA66" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB66" s="107"/>
-      <c r="CC66" s="92" t="str">
+      <c r="CC66" s="92">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD66" s="107"/>
-      <c r="CE66" s="92" t="str">
+      <c r="CE66" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF66" s="107"/>
       <c r="CG66" s="92" t="str">
@@ -21194,9 +21389,9 @@
         <v>0</v>
       </c>
       <c r="BE67" s="108"/>
-      <c r="BF67" s="92" t="str">
+      <c r="BF67" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG67" s="108"/>
       <c r="BH67" s="92" t="str">
@@ -21208,9 +21403,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK67" s="103" t="str">
+      <c r="BK67" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL67" s="108"/>
       <c r="BM67" s="92">
@@ -21243,24 +21438,24 @@
         <v>0</v>
       </c>
       <c r="BX67" s="107"/>
-      <c r="BY67" s="92" t="str">
+      <c r="BY67" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ67" s="107"/>
-      <c r="CA67" s="92" t="str">
+      <c r="CA67" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB67" s="107"/>
-      <c r="CC67" s="92" t="str">
+      <c r="CC67" s="92">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD67" s="107"/>
-      <c r="CE67" s="92" t="str">
+      <c r="CE67" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF67" s="107"/>
       <c r="CG67" s="92" t="str">
@@ -21442,9 +21637,9 @@
         <v>0</v>
       </c>
       <c r="BE68" s="108"/>
-      <c r="BF68" s="92" t="str">
+      <c r="BF68" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG68" s="108"/>
       <c r="BH68" s="92" t="str">
@@ -21456,9 +21651,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK68" s="103" t="str">
+      <c r="BK68" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL68" s="108"/>
       <c r="BM68" s="92">
@@ -21491,24 +21686,24 @@
         <v>0</v>
       </c>
       <c r="BX68" s="107"/>
-      <c r="BY68" s="92" t="str">
+      <c r="BY68" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ68" s="107"/>
-      <c r="CA68" s="92" t="str">
+      <c r="CA68" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB68" s="107"/>
-      <c r="CC68" s="92" t="str">
+      <c r="CC68" s="92">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD68" s="107"/>
-      <c r="CE68" s="92" t="str">
+      <c r="CE68" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF68" s="107"/>
       <c r="CG68" s="92" t="str">
@@ -21690,9 +21885,9 @@
         <v>0</v>
       </c>
       <c r="BE69" s="108"/>
-      <c r="BF69" s="92" t="str">
+      <c r="BF69" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG69" s="108"/>
       <c r="BH69" s="92" t="str">
@@ -21704,9 +21899,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK69" s="103" t="str">
+      <c r="BK69" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL69" s="108"/>
       <c r="BM69" s="92">
@@ -21739,24 +21934,24 @@
         <v>0</v>
       </c>
       <c r="BX69" s="107"/>
-      <c r="BY69" s="92" t="str">
+      <c r="BY69" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ69" s="107"/>
-      <c r="CA69" s="92" t="str">
+      <c r="CA69" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB69" s="107"/>
-      <c r="CC69" s="92" t="str">
+      <c r="CC69" s="92">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD69" s="107"/>
-      <c r="CE69" s="92" t="str">
+      <c r="CE69" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF69" s="107"/>
       <c r="CG69" s="92" t="str">
@@ -21938,9 +22133,9 @@
         <v>0</v>
       </c>
       <c r="BE70" s="108"/>
-      <c r="BF70" s="92" t="str">
+      <c r="BF70" s="92">
         <f t="shared" si="20"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BG70" s="108"/>
       <c r="BH70" s="92" t="str">
@@ -21952,9 +22147,9 @@
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BK70" s="103" t="str">
+      <c r="BK70" s="103">
         <f t="shared" si="22"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BL70" s="108"/>
       <c r="BM70" s="92">
@@ -21987,24 +22182,24 @@
         <v>0</v>
       </c>
       <c r="BX70" s="107"/>
-      <c r="BY70" s="92" t="str">
+      <c r="BY70" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ70" s="107"/>
-      <c r="CA70" s="92" t="str">
+      <c r="CA70" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB70" s="107"/>
-      <c r="CC70" s="92" t="str">
+      <c r="CC70" s="92">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CD70" s="107"/>
-      <c r="CE70" s="92" t="str">
+      <c r="CE70" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF70" s="107"/>
       <c r="CG70" s="92" t="str">
@@ -22181,8 +22376,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:P68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22386,25 +22581,25 @@
         <f>'RAW GRADES'!BD10</f>
         <v>0</v>
       </c>
-      <c r="J8" s="52" t="str">
+      <c r="J8" s="52">
         <f>'RAW GRADES'!BK10</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K8" s="52">
         <f>'RAW GRADES'!CP10</f>
-        <v>45</v>
+        <v>46.75</v>
       </c>
       <c r="L8" s="52">
         <f>'RAW GRADES'!CQ10</f>
-        <v>45</v>
+        <v>46.75</v>
       </c>
       <c r="M8" s="54">
         <f>'RAW GRADES'!CR10</f>
-        <v>45</v>
+        <v>46.75</v>
       </c>
       <c r="N8" s="55">
         <f>'RAW GRADES'!CS10</f>
-        <v>27</v>
+        <v>28.05</v>
       </c>
       <c r="O8" s="56">
         <f>'RAW GRADES'!CT10</f>
@@ -22451,25 +22646,25 @@
         <f>'RAW GRADES'!BD11</f>
         <v>0</v>
       </c>
-      <c r="J9" s="52" t="str">
+      <c r="J9" s="52">
         <f>'RAW GRADES'!BK11</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K9" s="52">
         <f>'RAW GRADES'!CP11</f>
-        <v>48.333333333333336</v>
+        <v>49</v>
       </c>
       <c r="L9" s="52">
         <f>'RAW GRADES'!CQ11</f>
-        <v>48.333333333333336</v>
+        <v>49</v>
       </c>
       <c r="M9" s="54">
         <f>'RAW GRADES'!CR11</f>
-        <v>48.33</v>
+        <v>49</v>
       </c>
       <c r="N9" s="58">
         <f>'RAW GRADES'!CS11</f>
-        <v>28.997999999999998</v>
+        <v>29.4</v>
       </c>
       <c r="O9" s="56">
         <f>'RAW GRADES'!CT11</f>
@@ -22516,25 +22711,25 @@
         <f>'RAW GRADES'!BD12</f>
         <v>0</v>
       </c>
-      <c r="J10" s="52" t="str">
+      <c r="J10" s="52">
         <f>'RAW GRADES'!BK12</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K10" s="52">
         <f>'RAW GRADES'!CP12</f>
-        <v>47.916666666666664</v>
+        <v>48.5</v>
       </c>
       <c r="L10" s="52">
         <f>'RAW GRADES'!CQ12</f>
-        <v>47.916666666666664</v>
+        <v>48.5</v>
       </c>
       <c r="M10" s="54">
         <f>'RAW GRADES'!CR12</f>
-        <v>47.92</v>
+        <v>48.5</v>
       </c>
       <c r="N10" s="58">
         <f>'RAW GRADES'!CS12</f>
-        <v>28.751999999999999</v>
+        <v>29.099999999999998</v>
       </c>
       <c r="O10" s="56">
         <f>'RAW GRADES'!CT12</f>
@@ -22581,25 +22776,25 @@
         <f>'RAW GRADES'!BD13</f>
         <v>0</v>
       </c>
-      <c r="J11" s="52" t="str">
+      <c r="J11" s="52">
         <f>'RAW GRADES'!BK13</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K11" s="52">
         <f>'RAW GRADES'!CP13</f>
-        <v>31.666666666666668</v>
+        <v>36</v>
       </c>
       <c r="L11" s="52">
         <f>'RAW GRADES'!CQ13</f>
-        <v>31.666666666666668</v>
+        <v>36</v>
       </c>
       <c r="M11" s="54">
         <f>'RAW GRADES'!CR13</f>
-        <v>31.67</v>
+        <v>36</v>
       </c>
       <c r="N11" s="58">
         <f>'RAW GRADES'!CS13</f>
-        <v>19.001999999999999</v>
+        <v>21.599999999999998</v>
       </c>
       <c r="O11" s="56">
         <f>'RAW GRADES'!CT13</f>
@@ -22646,25 +22841,25 @@
         <f>'RAW GRADES'!BD14</f>
         <v>0</v>
       </c>
-      <c r="J12" s="52" t="str">
+      <c r="J12" s="52">
         <f>'RAW GRADES'!BK14</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K12" s="52">
         <f>'RAW GRADES'!CP14</f>
-        <v>50</v>
+        <v>49.75</v>
       </c>
       <c r="L12" s="52">
         <f>'RAW GRADES'!CQ14</f>
-        <v>50</v>
+        <v>49.75</v>
       </c>
       <c r="M12" s="54">
         <f>'RAW GRADES'!CR14</f>
-        <v>50</v>
+        <v>49.75</v>
       </c>
       <c r="N12" s="58">
         <f>'RAW GRADES'!CS14</f>
-        <v>30</v>
+        <v>29.849999999999998</v>
       </c>
       <c r="O12" s="56">
         <f>'RAW GRADES'!CT14</f>
@@ -22711,25 +22906,25 @@
         <f>'RAW GRADES'!BD15</f>
         <v>0</v>
       </c>
-      <c r="J13" s="52" t="str">
+      <c r="J13" s="52">
         <f>'RAW GRADES'!BK15</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K13" s="52">
         <f>'RAW GRADES'!CP15</f>
-        <v>49.583333333333336</v>
+        <v>49.75</v>
       </c>
       <c r="L13" s="52">
         <f>'RAW GRADES'!CQ15</f>
-        <v>49.583333333333336</v>
+        <v>49.75</v>
       </c>
       <c r="M13" s="54">
         <f>'RAW GRADES'!CR15</f>
-        <v>49.58</v>
+        <v>49.75</v>
       </c>
       <c r="N13" s="58">
         <f>'RAW GRADES'!CS15</f>
-        <v>29.747999999999998</v>
+        <v>29.849999999999998</v>
       </c>
       <c r="O13" s="56">
         <f>'RAW GRADES'!CT15</f>
@@ -22776,25 +22971,25 @@
         <f>'RAW GRADES'!BD16</f>
         <v>0</v>
       </c>
-      <c r="J14" s="52" t="str">
+      <c r="J14" s="52">
         <f>'RAW GRADES'!BK16</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K14" s="52">
         <f>'RAW GRADES'!CP16</f>
-        <v>48.333333333333336</v>
+        <v>48.75</v>
       </c>
       <c r="L14" s="52">
         <f>'RAW GRADES'!CQ16</f>
-        <v>48.333333333333336</v>
+        <v>48.75</v>
       </c>
       <c r="M14" s="54">
         <f>'RAW GRADES'!CR16</f>
-        <v>48.33</v>
+        <v>48.75</v>
       </c>
       <c r="N14" s="58">
         <f>'RAW GRADES'!CS16</f>
-        <v>28.997999999999998</v>
+        <v>29.25</v>
       </c>
       <c r="O14" s="56">
         <f>'RAW GRADES'!CT16</f>
@@ -22841,25 +23036,25 @@
         <f>'RAW GRADES'!BD17</f>
         <v>0</v>
       </c>
-      <c r="J15" s="52" t="str">
+      <c r="J15" s="52">
         <f>'RAW GRADES'!BK17</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K15" s="52">
         <f>'RAW GRADES'!CP17</f>
-        <v>47.916666666666664</v>
+        <v>48.5</v>
       </c>
       <c r="L15" s="52">
         <f>'RAW GRADES'!CQ17</f>
-        <v>47.916666666666664</v>
+        <v>48.5</v>
       </c>
       <c r="M15" s="54">
         <f>'RAW GRADES'!CR17</f>
-        <v>47.92</v>
+        <v>48.5</v>
       </c>
       <c r="N15" s="58">
         <f>'RAW GRADES'!CS17</f>
-        <v>28.751999999999999</v>
+        <v>29.099999999999998</v>
       </c>
       <c r="O15" s="56">
         <f>'RAW GRADES'!CT17</f>
@@ -22906,25 +23101,25 @@
         <f>'RAW GRADES'!BD18</f>
         <v>0</v>
       </c>
-      <c r="J16" s="52" t="str">
+      <c r="J16" s="52">
         <f>'RAW GRADES'!BK18</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K16" s="52">
         <f>'RAW GRADES'!CP18</f>
-        <v>47.916666666666664</v>
+        <v>48.75</v>
       </c>
       <c r="L16" s="52">
         <f>'RAW GRADES'!CQ18</f>
-        <v>47.916666666666664</v>
+        <v>48.75</v>
       </c>
       <c r="M16" s="54">
         <f>'RAW GRADES'!CR18</f>
-        <v>47.92</v>
+        <v>48.75</v>
       </c>
       <c r="N16" s="58">
         <f>'RAW GRADES'!CS18</f>
-        <v>28.751999999999999</v>
+        <v>29.25</v>
       </c>
       <c r="O16" s="56">
         <f>'RAW GRADES'!CT18</f>
@@ -22971,25 +23166,25 @@
         <f>'RAW GRADES'!BD19</f>
         <v>0</v>
       </c>
-      <c r="J17" s="52" t="str">
+      <c r="J17" s="52">
         <f>'RAW GRADES'!BK19</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K17" s="52">
         <f>'RAW GRADES'!CP19</f>
-        <v>47.916666666666664</v>
+        <v>48.5</v>
       </c>
       <c r="L17" s="52">
         <f>'RAW GRADES'!CQ19</f>
-        <v>47.916666666666664</v>
+        <v>48.5</v>
       </c>
       <c r="M17" s="54">
         <f>'RAW GRADES'!CR19</f>
-        <v>47.92</v>
+        <v>48.5</v>
       </c>
       <c r="N17" s="58">
         <f>'RAW GRADES'!CS19</f>
-        <v>28.751999999999999</v>
+        <v>29.099999999999998</v>
       </c>
       <c r="O17" s="56">
         <f>'RAW GRADES'!CT19</f>
@@ -23036,25 +23231,25 @@
         <f>'RAW GRADES'!BD20</f>
         <v>0</v>
       </c>
-      <c r="J18" s="52" t="str">
+      <c r="J18" s="52">
         <f>'RAW GRADES'!BK20</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K18" s="52">
         <f>'RAW GRADES'!CP20</f>
-        <v>47.916666666666664</v>
+        <v>48.75</v>
       </c>
       <c r="L18" s="52">
         <f>'RAW GRADES'!CQ20</f>
-        <v>47.916666666666664</v>
+        <v>48.75</v>
       </c>
       <c r="M18" s="54">
         <f>'RAW GRADES'!CR20</f>
-        <v>47.92</v>
+        <v>48.75</v>
       </c>
       <c r="N18" s="58">
         <f>'RAW GRADES'!CS20</f>
-        <v>28.751999999999999</v>
+        <v>29.25</v>
       </c>
       <c r="O18" s="56">
         <f>'RAW GRADES'!CT20</f>
@@ -23101,25 +23296,25 @@
         <f>'RAW GRADES'!BD21</f>
         <v>0</v>
       </c>
-      <c r="J19" s="52" t="str">
+      <c r="J19" s="52">
         <f>'RAW GRADES'!BK21</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K19" s="52">
         <f>'RAW GRADES'!CP21</f>
-        <v>49.166666666666664</v>
+        <v>49.5</v>
       </c>
       <c r="L19" s="52">
         <f>'RAW GRADES'!CQ21</f>
-        <v>49.166666666666664</v>
+        <v>49.5</v>
       </c>
       <c r="M19" s="54">
         <f>'RAW GRADES'!CR21</f>
-        <v>49.17</v>
+        <v>49.5</v>
       </c>
       <c r="N19" s="58">
         <f>'RAW GRADES'!CS21</f>
-        <v>29.501999999999999</v>
+        <v>29.7</v>
       </c>
       <c r="O19" s="56">
         <f>'RAW GRADES'!CT21</f>
@@ -23166,25 +23361,25 @@
         <f>'RAW GRADES'!BD22</f>
         <v>0</v>
       </c>
-      <c r="J20" s="52" t="str">
+      <c r="J20" s="52">
         <f>'RAW GRADES'!BK22</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K20" s="52">
         <f>'RAW GRADES'!CP22</f>
-        <v>47.916666666666664</v>
+        <v>48.5</v>
       </c>
       <c r="L20" s="52">
         <f>'RAW GRADES'!CQ22</f>
-        <v>47.916666666666664</v>
+        <v>48.5</v>
       </c>
       <c r="M20" s="54">
         <f>'RAW GRADES'!CR22</f>
-        <v>47.92</v>
+        <v>48.5</v>
       </c>
       <c r="N20" s="58">
         <f>'RAW GRADES'!CS22</f>
-        <v>28.751999999999999</v>
+        <v>29.099999999999998</v>
       </c>
       <c r="O20" s="56">
         <f>'RAW GRADES'!CT22</f>
@@ -23231,25 +23426,25 @@
         <f>'RAW GRADES'!BD23</f>
         <v>0</v>
       </c>
-      <c r="J21" s="52" t="str">
+      <c r="J21" s="52">
         <f>'RAW GRADES'!BK23</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K21" s="52">
         <f>'RAW GRADES'!CP23</f>
-        <v>47.916666666666664</v>
+        <v>48.75</v>
       </c>
       <c r="L21" s="52">
         <f>'RAW GRADES'!CQ23</f>
-        <v>47.916666666666664</v>
+        <v>48.75</v>
       </c>
       <c r="M21" s="54">
         <f>'RAW GRADES'!CR23</f>
-        <v>47.92</v>
+        <v>48.75</v>
       </c>
       <c r="N21" s="58">
         <f>'RAW GRADES'!CS23</f>
-        <v>28.751999999999999</v>
+        <v>29.25</v>
       </c>
       <c r="O21" s="56">
         <f>'RAW GRADES'!CT23</f>
@@ -23296,25 +23491,25 @@
         <f>'RAW GRADES'!BD24</f>
         <v>0</v>
       </c>
-      <c r="J22" s="52" t="str">
+      <c r="J22" s="52">
         <f>'RAW GRADES'!BK24</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K22" s="52">
         <f>'RAW GRADES'!CP24</f>
-        <v>46.25</v>
+        <v>47.75</v>
       </c>
       <c r="L22" s="52">
         <f>'RAW GRADES'!CQ24</f>
-        <v>46.25</v>
+        <v>47.75</v>
       </c>
       <c r="M22" s="54">
         <f>'RAW GRADES'!CR24</f>
-        <v>46.25</v>
+        <v>47.75</v>
       </c>
       <c r="N22" s="58">
         <f>'RAW GRADES'!CS24</f>
-        <v>27.75</v>
+        <v>28.65</v>
       </c>
       <c r="O22" s="56">
         <f>'RAW GRADES'!CT24</f>
@@ -23361,25 +23556,25 @@
         <f>'RAW GRADES'!BD25</f>
         <v>0</v>
       </c>
-      <c r="J23" s="52" t="str">
+      <c r="J23" s="52">
         <f>'RAW GRADES'!BK25</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K23" s="52">
         <f>'RAW GRADES'!CP25</f>
-        <v>47.916666666666664</v>
+        <v>48.75</v>
       </c>
       <c r="L23" s="52">
         <f>'RAW GRADES'!CQ25</f>
-        <v>47.916666666666664</v>
+        <v>48.75</v>
       </c>
       <c r="M23" s="54">
         <f>'RAW GRADES'!CR25</f>
-        <v>47.92</v>
+        <v>48.75</v>
       </c>
       <c r="N23" s="58">
         <f>'RAW GRADES'!CS25</f>
-        <v>28.751999999999999</v>
+        <v>29.25</v>
       </c>
       <c r="O23" s="56">
         <f>'RAW GRADES'!CT25</f>
@@ -23426,25 +23621,25 @@
         <f>'RAW GRADES'!BD26</f>
         <v>0</v>
       </c>
-      <c r="J24" s="52" t="str">
+      <c r="J24" s="52">
         <f>'RAW GRADES'!BK26</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K24" s="52">
         <f>'RAW GRADES'!CP26</f>
-        <v>47.916666666666664</v>
+        <v>48.5</v>
       </c>
       <c r="L24" s="52">
         <f>'RAW GRADES'!CQ26</f>
-        <v>47.916666666666664</v>
+        <v>48.5</v>
       </c>
       <c r="M24" s="54">
         <f>'RAW GRADES'!CR26</f>
-        <v>47.92</v>
+        <v>48.5</v>
       </c>
       <c r="N24" s="58">
         <f>'RAW GRADES'!CS26</f>
-        <v>28.751999999999999</v>
+        <v>29.099999999999998</v>
       </c>
       <c r="O24" s="56">
         <f>'RAW GRADES'!CT26</f>
@@ -23491,9 +23686,9 @@
         <f>'RAW GRADES'!BD27</f>
         <v>0</v>
       </c>
-      <c r="J25" s="52" t="str">
+      <c r="J25" s="52">
         <f>'RAW GRADES'!BK27</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K25" s="52">
         <f>'RAW GRADES'!CP27</f>
@@ -23556,25 +23751,25 @@
         <f>'RAW GRADES'!BD28</f>
         <v>0</v>
       </c>
-      <c r="J26" s="52" t="str">
+      <c r="J26" s="52">
         <f>'RAW GRADES'!BK28</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K26" s="52">
         <f>'RAW GRADES'!CP28</f>
-        <v>47.916666666666664</v>
+        <v>48.5</v>
       </c>
       <c r="L26" s="52">
         <f>'RAW GRADES'!CQ28</f>
-        <v>47.916666666666664</v>
+        <v>48.5</v>
       </c>
       <c r="M26" s="54">
         <f>'RAW GRADES'!CR28</f>
-        <v>47.92</v>
+        <v>48.5</v>
       </c>
       <c r="N26" s="58">
         <f>'RAW GRADES'!CS28</f>
-        <v>28.751999999999999</v>
+        <v>29.099999999999998</v>
       </c>
       <c r="O26" s="56">
         <f>'RAW GRADES'!CT28</f>
@@ -23621,9 +23816,9 @@
         <f>'RAW GRADES'!BD29</f>
         <v>0</v>
       </c>
-      <c r="J27" s="52" t="str">
+      <c r="J27" s="52">
         <f>'RAW GRADES'!BK29</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K27" s="52">
         <f>'RAW GRADES'!CP29</f>
@@ -23686,25 +23881,25 @@
         <f>'RAW GRADES'!BD30</f>
         <v>0</v>
       </c>
-      <c r="J28" s="52" t="str">
+      <c r="J28" s="52">
         <f>'RAW GRADES'!BK30</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K28" s="52">
         <f>'RAW GRADES'!CP30</f>
-        <v>34.583333333333336</v>
+        <v>40.5</v>
       </c>
       <c r="L28" s="52">
         <f>'RAW GRADES'!CQ30</f>
-        <v>34.583333333333336</v>
+        <v>40.5</v>
       </c>
       <c r="M28" s="54">
         <f>'RAW GRADES'!CR30</f>
-        <v>34.58</v>
+        <v>40.5</v>
       </c>
       <c r="N28" s="58">
         <f>'RAW GRADES'!CS30</f>
-        <v>20.747999999999998</v>
+        <v>24.3</v>
       </c>
       <c r="O28" s="56">
         <f>'RAW GRADES'!CT30</f>
@@ -23751,9 +23946,9 @@
         <f>'RAW GRADES'!BD31</f>
         <v>0</v>
       </c>
-      <c r="J29" s="52" t="str">
+      <c r="J29" s="52">
         <f>'RAW GRADES'!BK31</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K29" s="52">
         <f>'RAW GRADES'!CP31</f>
@@ -23816,9 +24011,9 @@
         <f>'RAW GRADES'!BD32</f>
         <v>0</v>
       </c>
-      <c r="J30" s="52" t="str">
+      <c r="J30" s="52">
         <f>'RAW GRADES'!BK32</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K30" s="52">
         <f>'RAW GRADES'!CP32</f>
@@ -23881,9 +24076,9 @@
         <f>'RAW GRADES'!BD33</f>
         <v>0</v>
       </c>
-      <c r="J31" s="52" t="str">
+      <c r="J31" s="52">
         <f>'RAW GRADES'!BK33</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K31" s="52">
         <f>'RAW GRADES'!CP33</f>
@@ -23946,9 +24141,9 @@
         <f>'RAW GRADES'!BD34</f>
         <v>0</v>
       </c>
-      <c r="J32" s="52" t="str">
+      <c r="J32" s="52">
         <f>'RAW GRADES'!BK34</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K32" s="52">
         <f>'RAW GRADES'!CP34</f>
@@ -24011,9 +24206,9 @@
         <f>'RAW GRADES'!BD35</f>
         <v>0</v>
       </c>
-      <c r="J33" s="52" t="str">
+      <c r="J33" s="52">
         <f>'RAW GRADES'!BK35</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K33" s="52">
         <f>'RAW GRADES'!CP35</f>
@@ -24076,9 +24271,9 @@
         <f>'RAW GRADES'!BD36</f>
         <v>0</v>
       </c>
-      <c r="J34" s="52" t="str">
+      <c r="J34" s="52">
         <f>'RAW GRADES'!BK36</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K34" s="52">
         <f>'RAW GRADES'!CP36</f>
@@ -24141,9 +24336,9 @@
         <f>'RAW GRADES'!BD37</f>
         <v>0</v>
       </c>
-      <c r="J35" s="52" t="str">
+      <c r="J35" s="52">
         <f>'RAW GRADES'!BK37</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K35" s="52">
         <f>'RAW GRADES'!CP37</f>
@@ -24206,9 +24401,9 @@
         <f>'RAW GRADES'!BD38</f>
         <v>0</v>
       </c>
-      <c r="J36" s="52" t="str">
+      <c r="J36" s="52">
         <f>'RAW GRADES'!BK38</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K36" s="52">
         <f>'RAW GRADES'!CP38</f>
@@ -24271,9 +24466,9 @@
         <f>'RAW GRADES'!BD39</f>
         <v>0</v>
       </c>
-      <c r="J37" s="52" t="str">
+      <c r="J37" s="52">
         <f>'RAW GRADES'!BK39</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K37" s="52">
         <f>'RAW GRADES'!CP39</f>
@@ -24336,9 +24531,9 @@
         <f>'RAW GRADES'!BD40</f>
         <v>0</v>
       </c>
-      <c r="J38" s="52" t="str">
+      <c r="J38" s="52">
         <f>'RAW GRADES'!BK40</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K38" s="52">
         <f>'RAW GRADES'!CP40</f>
@@ -24401,9 +24596,9 @@
         <f>'RAW GRADES'!BD41</f>
         <v>0</v>
       </c>
-      <c r="J39" s="52" t="str">
+      <c r="J39" s="52">
         <f>'RAW GRADES'!BK41</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K39" s="52">
         <f>'RAW GRADES'!CP41</f>
@@ -24466,9 +24661,9 @@
         <f>'RAW GRADES'!BD42</f>
         <v>0</v>
       </c>
-      <c r="J40" s="52" t="str">
+      <c r="J40" s="52">
         <f>'RAW GRADES'!BK42</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K40" s="52">
         <f>'RAW GRADES'!CP42</f>
@@ -24531,9 +24726,9 @@
         <f>'RAW GRADES'!BD43</f>
         <v>0</v>
       </c>
-      <c r="J41" s="52" t="str">
+      <c r="J41" s="52">
         <f>'RAW GRADES'!BK43</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K41" s="52">
         <f>'RAW GRADES'!CP43</f>
@@ -24596,9 +24791,9 @@
         <f>'RAW GRADES'!BD44</f>
         <v>0</v>
       </c>
-      <c r="J42" s="52" t="str">
+      <c r="J42" s="52">
         <f>'RAW GRADES'!BK44</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K42" s="52">
         <f>'RAW GRADES'!CP44</f>
@@ -24661,9 +24856,9 @@
         <f>'RAW GRADES'!BD45</f>
         <v>0</v>
       </c>
-      <c r="J43" s="52" t="str">
+      <c r="J43" s="52">
         <f>'RAW GRADES'!BK45</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K43" s="52">
         <f>'RAW GRADES'!CP45</f>
@@ -24726,9 +24921,9 @@
         <f>'RAW GRADES'!BD46</f>
         <v>0</v>
       </c>
-      <c r="J44" s="52" t="str">
+      <c r="J44" s="52">
         <f>'RAW GRADES'!BK46</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K44" s="52">
         <f>'RAW GRADES'!CP46</f>
@@ -24791,9 +24986,9 @@
         <f>'RAW GRADES'!BD47</f>
         <v>0</v>
       </c>
-      <c r="J45" s="52" t="str">
+      <c r="J45" s="52">
         <f>'RAW GRADES'!BK47</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K45" s="52">
         <f>'RAW GRADES'!CP47</f>
@@ -24856,9 +25051,9 @@
         <f>'RAW GRADES'!BD48</f>
         <v>0</v>
       </c>
-      <c r="J46" s="52" t="str">
+      <c r="J46" s="52">
         <f>'RAW GRADES'!BK48</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K46" s="52">
         <f>'RAW GRADES'!CP48</f>
@@ -24921,9 +25116,9 @@
         <f>'RAW GRADES'!BD49</f>
         <v>0</v>
       </c>
-      <c r="J47" s="52" t="str">
+      <c r="J47" s="52">
         <f>'RAW GRADES'!BK49</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K47" s="52">
         <f>'RAW GRADES'!CP49</f>
@@ -24986,9 +25181,9 @@
         <f>'RAW GRADES'!BD50</f>
         <v>0</v>
       </c>
-      <c r="J48" s="52" t="str">
+      <c r="J48" s="52">
         <f>'RAW GRADES'!BK50</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K48" s="52">
         <f>'RAW GRADES'!CP50</f>
@@ -25051,9 +25246,9 @@
         <f>'RAW GRADES'!BD51</f>
         <v>0</v>
       </c>
-      <c r="J49" s="52" t="str">
+      <c r="J49" s="52">
         <f>'RAW GRADES'!BK51</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K49" s="52">
         <f>'RAW GRADES'!CP51</f>
@@ -25116,9 +25311,9 @@
         <f>'RAW GRADES'!BD52</f>
         <v>0</v>
       </c>
-      <c r="J50" s="52" t="str">
+      <c r="J50" s="52">
         <f>'RAW GRADES'!BK52</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K50" s="52">
         <f>'RAW GRADES'!CP52</f>
@@ -25181,9 +25376,9 @@
         <f>'RAW GRADES'!BD53</f>
         <v>0</v>
       </c>
-      <c r="J51" s="52" t="str">
+      <c r="J51" s="52">
         <f>'RAW GRADES'!BK53</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K51" s="52">
         <f>'RAW GRADES'!CP53</f>
@@ -25246,9 +25441,9 @@
         <f>'RAW GRADES'!BD54</f>
         <v>0</v>
       </c>
-      <c r="J52" s="52" t="str">
+      <c r="J52" s="52">
         <f>'RAW GRADES'!BK54</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K52" s="52">
         <f>'RAW GRADES'!CP54</f>
@@ -25311,9 +25506,9 @@
         <f>'RAW GRADES'!BD55</f>
         <v>0</v>
       </c>
-      <c r="J53" s="52" t="str">
+      <c r="J53" s="52">
         <f>'RAW GRADES'!BK55</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K53" s="52">
         <f>'RAW GRADES'!CP55</f>
@@ -25376,9 +25571,9 @@
         <f>'RAW GRADES'!BD56</f>
         <v>0</v>
       </c>
-      <c r="J54" s="52" t="str">
+      <c r="J54" s="52">
         <f>'RAW GRADES'!BK56</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K54" s="52">
         <f>'RAW GRADES'!CP56</f>
@@ -25441,9 +25636,9 @@
         <f>'RAW GRADES'!BD57</f>
         <v>0</v>
       </c>
-      <c r="J55" s="52" t="str">
+      <c r="J55" s="52">
         <f>'RAW GRADES'!BK57</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K55" s="52">
         <f>'RAW GRADES'!CP57</f>
@@ -25506,9 +25701,9 @@
         <f>'RAW GRADES'!BD58</f>
         <v>0</v>
       </c>
-      <c r="J56" s="52" t="str">
+      <c r="J56" s="52">
         <f>'RAW GRADES'!BK58</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K56" s="52">
         <f>'RAW GRADES'!CP58</f>
@@ -25571,9 +25766,9 @@
         <f>'RAW GRADES'!BD59</f>
         <v>0</v>
       </c>
-      <c r="J57" s="52" t="str">
+      <c r="J57" s="52">
         <f>'RAW GRADES'!BK59</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K57" s="52">
         <f>'RAW GRADES'!CP59</f>
@@ -25636,9 +25831,9 @@
         <f>'RAW GRADES'!BD60</f>
         <v>0</v>
       </c>
-      <c r="J58" s="52" t="str">
+      <c r="J58" s="52">
         <f>'RAW GRADES'!BK60</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K58" s="52">
         <f>'RAW GRADES'!CP60</f>
@@ -25701,9 +25896,9 @@
         <f>'RAW GRADES'!BD61</f>
         <v>0</v>
       </c>
-      <c r="J59" s="52" t="str">
+      <c r="J59" s="52">
         <f>'RAW GRADES'!BK61</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K59" s="52">
         <f>'RAW GRADES'!CP61</f>
@@ -25766,9 +25961,9 @@
         <f>'RAW GRADES'!BD62</f>
         <v>0</v>
       </c>
-      <c r="J60" s="52" t="str">
+      <c r="J60" s="52">
         <f>'RAW GRADES'!BK62</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K60" s="52">
         <f>'RAW GRADES'!CP62</f>
@@ -25831,9 +26026,9 @@
         <f>'RAW GRADES'!BD63</f>
         <v>0</v>
       </c>
-      <c r="J61" s="52" t="str">
+      <c r="J61" s="52">
         <f>'RAW GRADES'!BK63</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K61" s="52">
         <f>'RAW GRADES'!CP63</f>
@@ -25896,9 +26091,9 @@
         <f>'RAW GRADES'!BD64</f>
         <v>0</v>
       </c>
-      <c r="J62" s="52" t="str">
+      <c r="J62" s="52">
         <f>'RAW GRADES'!BK64</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K62" s="52">
         <f>'RAW GRADES'!CP64</f>
@@ -25961,9 +26156,9 @@
         <f>'RAW GRADES'!BD65</f>
         <v>0</v>
       </c>
-      <c r="J63" s="52" t="str">
+      <c r="J63" s="52">
         <f>'RAW GRADES'!BK65</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K63" s="52">
         <f>'RAW GRADES'!CP65</f>
@@ -26026,9 +26221,9 @@
         <f>'RAW GRADES'!BD66</f>
         <v>0</v>
       </c>
-      <c r="J64" s="52" t="str">
+      <c r="J64" s="52">
         <f>'RAW GRADES'!BK66</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K64" s="52">
         <f>'RAW GRADES'!CP66</f>
@@ -26091,9 +26286,9 @@
         <f>'RAW GRADES'!BD67</f>
         <v>0</v>
       </c>
-      <c r="J65" s="52" t="str">
+      <c r="J65" s="52">
         <f>'RAW GRADES'!BK67</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K65" s="52">
         <f>'RAW GRADES'!CP67</f>
@@ -26156,9 +26351,9 @@
         <f>'RAW GRADES'!BD68</f>
         <v>0</v>
       </c>
-      <c r="J66" s="52" t="str">
+      <c r="J66" s="52">
         <f>'RAW GRADES'!BK68</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K66" s="52">
         <f>'RAW GRADES'!CP68</f>
@@ -26221,9 +26416,9 @@
         <f>'RAW GRADES'!BD69</f>
         <v>0</v>
       </c>
-      <c r="J67" s="52" t="str">
+      <c r="J67" s="52">
         <f>'RAW GRADES'!BK69</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K67" s="52">
         <f>'RAW GRADES'!CP69</f>
@@ -26286,9 +26481,9 @@
         <f>'RAW GRADES'!BD70</f>
         <v>0</v>
       </c>
-      <c r="J68" s="52" t="str">
+      <c r="J68" s="52">
         <f>'RAW GRADES'!BK70</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K68" s="52">
         <f>'RAW GRADES'!CP70</f>
@@ -28124,7 +28319,7 @@
       <c r="D87" s="60"/>
       <c r="E87" s="259">
         <f ca="1">NOW()</f>
-        <v>43050.500578587962</v>
+        <v>43070.60825474537</v>
       </c>
       <c r="F87" s="259"/>
     </row>
